--- a/Modelo_Requerimientos.xlsx
+++ b/Modelo_Requerimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ingenieria de sistemas\Semestre 7\Ingenieria de software y requerimientos\Sistema_de_trasporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A00A7A-93B1-4C8C-982D-C0043344F0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D9ADF-F189-4283-9ECA-96D7454D8B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C848075-514C-43BC-9F96-1463922824AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>[LUGAR, TIEMPO, EVENTO, OBJETO]</t>
   </si>
@@ -328,6 +328,12 @@
   <si>
     <t>y el sistema les informara de las novedades que el centro de operaciones les haya comunicado</t>
   </si>
+  <si>
+    <t>poder programar viajes aereos o maritimos</t>
+  </si>
+  <si>
+    <t>entonces el sistema le mostrara los viajes maritimos y aereos que hay para viajar a determinadas zonas que no se puede acceder con vehiculos de tierra.</t>
+  </si>
 </sst>
 </file>
 
@@ -504,7 +510,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -548,6 +554,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -560,18 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -899,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C36F4-1D64-4681-865F-275B072A7F86}">
   <dimension ref="A1:T386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F70" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +919,11 @@
     <col min="3" max="3" width="14.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="54.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="85.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -930,16 +943,16 @@
       <c r="E1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2"/>
@@ -958,7 +971,7 @@
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -971,7 +984,7 @@
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -983,22 +996,22 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17" t="str">
+      <c r="F3" s="21" t="str">
         <f>+A3&amp;" "&amp;B3&amp;" "&amp;C3&amp;" "&amp;D3&amp;" "&amp;E3</f>
         <v>El usuario cuando entra a la aplicación debera Registrarse para poder interactuar con las funcionalidades de la aplicación</v>
       </c>
@@ -1006,17 +1019,17 @@
         <v>0.2</v>
       </c>
       <c r="H3" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
       <c r="J3" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="8">
         <f>SUM(G3:J3)</f>
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="7"/>
@@ -1031,16 +1044,24 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J4" s="9">
+        <v>60000</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
@@ -1055,31 +1076,31 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="10">
         <f>+G3*G4</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H5" s="10">
         <f>+H3*H4</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I5" s="10">
         <f>+I3*I4</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J5" s="10">
         <f>+J3*J4</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K5" s="10">
         <f>SUM(G5:J5)</f>
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="5"/>
@@ -1113,13 +1134,21 @@
         <f>+A6&amp;" "&amp;B6&amp;" "&amp;C6&amp;" "&amp;D6&amp;" "&amp;E6</f>
         <v>El usuario cuando programa un viaje debe realizar el pago para que el sistema le arroje el ticket del viaje envie por email</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="G6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
       <c r="K6" s="8">
         <f>SUM(G6:J6)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1138,10 +1167,18 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="9">
+        <v>60000</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1162,23 +1199,23 @@
       <c r="F8" s="14"/>
       <c r="G8" s="10">
         <f>+G6*G7</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H8" s="10">
         <f>+H6*H7</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="10">
         <f>+I6*I7</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J8" s="10">
         <f>+J6*J7</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="K8" s="10">
         <f>SUM(G8:J8)</f>
-        <v>0</v>
+        <v>252000</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1191,32 +1228,40 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="21" t="str">
         <f t="shared" ref="F9" si="0">+A9&amp;" "&amp;B9&amp;" "&amp;C9&amp;" "&amp;D9&amp;" "&amp;E9</f>
         <v>El usuario cuando haya programado un viaje debera  permitirle seleccionar una o varias sillas y el sistema pueda recalcular el valor a pagar</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="G9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
       <c r="K9" s="8">
-        <f t="shared" ref="K9:K20" si="1">SUM(G9:J9)</f>
-        <v>0</v>
+        <f t="shared" ref="K9:K18" si="1">SUM(G9:J9)</f>
+        <v>6.5</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1229,16 +1274,24 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J10" s="9">
+        <v>60000</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1251,31 +1304,31 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="10">
         <f>+G9*G10</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H11" s="10">
         <f>+H9*H10</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I11" s="10">
         <f>+I9*I10</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J11" s="10">
         <f>+J9*J10</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="K11" s="10">
         <f>SUM(G11:J11)</f>
-        <v>0</v>
+        <v>275000</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1307,13 +1360,21 @@
         <f t="shared" ref="F12" si="2">+A12&amp;" "&amp;B12&amp;" "&amp;C12&amp;" "&amp;D12&amp;" "&amp;E12</f>
         <v>El usuario cuando haya programado un viaje debera permitirle vizualizar el estado del vehiculo y viaje y asi el sistema muestra fotos del vehiculo, nombre del conductor e informacion ademas de la ruta de viaje</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
       <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1332,10 +1393,18 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="G13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J13" s="9">
+        <v>60000</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1356,23 +1425,23 @@
       <c r="F14" s="14"/>
       <c r="G14" s="10">
         <f>+G12*G13</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H14" s="10">
         <f>+H12*H13</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I14" s="10">
         <f>+I12*I13</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J14" s="10">
         <f>+J12*J13</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K14" s="10">
         <f>SUM(G14:J14)</f>
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1385,32 +1454,40 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="21" t="str">
         <f t="shared" ref="F15" si="3">+A15&amp;" "&amp;B15&amp;" "&amp;C15&amp;" "&amp;D15&amp;" "&amp;E15</f>
         <v>El usuario cuando haya comprando un viaje debera permitirle cancelar el servicio de viaje y el sistema rebice si esta a tiempo o no y generarle un cobro en caso de que se hay pasado de las fechas establecidas</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="G15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4</v>
+      </c>
       <c r="K15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1423,16 +1500,24 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I16" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J16" s="9">
+        <v>60000</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1445,31 +1530,31 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="10">
         <f>+G15*G16</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H17" s="10">
         <f>+H15*H16</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I17" s="10">
         <f>+I15*I16</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J17" s="10">
         <f>+J15*J16</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K17" s="10">
         <f>SUM(G17:J17)</f>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1501,13 +1586,21 @@
         <f t="shared" ref="F18" si="4">+A18&amp;" "&amp;B18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18</f>
         <v>El usuario cundo haya comprado un viaje debe acumular millas en consecuencia de lo que el sistema calcule del viaje asi sera las millas que acumulara</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="G18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4</v>
+      </c>
       <c r="K18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1526,10 +1619,18 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="G19" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H19" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I19" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J19" s="9">
+        <v>60000</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1550,23 +1651,23 @@
       <c r="F20" s="14"/>
       <c r="G20" s="10">
         <f>+G18*G19</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H20" s="10">
         <f>+H18*H19</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="I20" s="10">
         <f>+I18*I19</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J20" s="10">
         <f>+J18*J19</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K20" s="10">
         <f>SUM(G20:J20)</f>
-        <v>0</v>
+        <v>340000</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1579,30 +1680,41 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="21" t="str">
         <f t="shared" ref="F21" si="5">+A21&amp;" "&amp;B21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21</f>
         <v>El usuario cuando haya comprando un viaje debera permitirle hacer ckeck in virtual y asi tener todo listo para cuando el usuario vaya a la terminal solo mostrar el ticket y subir al transporte</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21" si="6">SUM(G21:J21)</f>
+        <v>11</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1614,16 +1726,24 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I22" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J22" s="9">
+        <v>60000</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1636,31 +1756,31 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="10">
         <f>+G21*G22</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H23" s="10">
         <f>+H21*H22</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I23" s="10">
         <f>+I21*I22</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J23" s="10">
         <f>+J21*J22</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K23" s="10">
         <f>SUM(G23:J23)</f>
-        <v>0</v>
+        <v>460000</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1689,14 +1809,25 @@
         <v>50</v>
       </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" ref="F24" si="6">+A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" "&amp;D24&amp;" "&amp;E24</f>
+        <f t="shared" ref="F24" si="7">+A24&amp;" "&amp;B24&amp;" "&amp;C24&amp;" "&amp;D24&amp;" "&amp;E24</f>
         <v>El usuario cuando compre un viaje debe realizar el pago  y el sistema debera aceptar el pago en en (TC, PSE y PSA, Millas, Nequi, moneda colombiana y venezolana)</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="G24" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>3</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" ref="K24" si="8">SUM(G24:J24)</f>
+        <v>10.5</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1714,10 +1845,18 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="G25" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H25" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I25" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J25" s="9">
+        <v>60000</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1738,23 +1877,23 @@
       <c r="F26" s="14"/>
       <c r="G26" s="10">
         <f>+G24*G25</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="H26" s="10">
         <f>+H24*H25</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I26" s="10">
         <f>+I24*I25</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J26" s="10">
         <f>+J24*J25</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="K26" s="10">
         <f>SUM(G26:J26)</f>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1767,30 +1906,41 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="17" t="str">
-        <f t="shared" ref="F27" si="7">+A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27</f>
+      <c r="F27" s="21" t="str">
+        <f t="shared" ref="F27" si="9">+A27&amp;" "&amp;B27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27</f>
         <v>El usuario cuando compre un viaje debera poder contratar servicos adicionales entonces el sistema le permitira contratar servicios dentro del bus de trasporte intermunicipal  contactandoese via chat con los encargados</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="G27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27" si="10">SUM(G27:J27)</f>
+        <v>4.5</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1802,16 +1952,24 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H28" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I28" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J28" s="9">
+        <v>60000</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1824,31 +1982,31 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="10">
         <f>+G27*G28</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H29" s="10">
         <f>+H27*H28</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I29" s="10">
         <f>+I27*I28</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J29" s="10">
         <f>+J27*J28</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K29" s="10">
         <f>SUM(G29:J29)</f>
-        <v>0</v>
+        <v>185000</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1877,14 +2035,25 @@
         <v>54</v>
       </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" ref="F30" si="8">+A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" "&amp;D30&amp;" "&amp;E30</f>
+        <f t="shared" ref="F30" si="11">+A30&amp;" "&amp;B30&amp;" "&amp;C30&amp;" "&amp;D30&amp;" "&amp;E30</f>
         <v>El usuario Cuando ingrese a la aplicación debera poder contratar un servicio adicional de trasporte urbano entonces el sistema le permitira al ususario tomar un servicio de trasporte que lo traslade desde un punto a la terminal de trasporte y de la terminal de trasporte de destino a otro punto</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" ref="K30" si="12">SUM(G30:J30)</f>
+        <v>14</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1902,10 +2071,18 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H31" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I31" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J31" s="9">
+        <v>60000</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1926,23 +2103,23 @@
       <c r="F32" s="14"/>
       <c r="G32" s="10">
         <f>+G30*G31</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="H32" s="10">
         <f>+H30*H31</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I32" s="10">
         <f>+I30*I31</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J32" s="10">
         <f>+J30*J31</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K32" s="10">
         <f>SUM(G32:J32)</f>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1955,30 +2132,41 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="17" t="str">
-        <f t="shared" ref="F33" si="9">+A33&amp;" "&amp;B33&amp;" "&amp;C33&amp;" "&amp;D33&amp;" "&amp;E33</f>
+      <c r="F33" s="21" t="str">
+        <f t="shared" ref="F33" si="13">+A33&amp;" "&amp;B33&amp;" "&amp;C33&amp;" "&amp;D33&amp;" "&amp;E33</f>
         <v>El usuario cuando tome un servicio de la aplicación debera poder calificar los servicios asi el sistema podra recomendar viajes o servicios posteriormenete</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="G33" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" ref="K33" si="14">SUM(G33:J33)</f>
+        <v>3.2</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1990,16 +2178,24 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H34" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I34" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J34" s="9">
+        <v>60000</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2012,31 +2208,31 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="10">
         <f>+G33*G34</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H35" s="10">
         <f>+H33*H34</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I35" s="10">
         <f>+I33*I34</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J35" s="10">
         <f>+J33*J34</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K35" s="10">
         <f>SUM(G35:J35)</f>
-        <v>0</v>
+        <v>116000</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2065,14 +2261,25 @@
         <v>63</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" ref="F36" si="10">+A36&amp;" "&amp;B36&amp;" "&amp;C36&amp;" "&amp;D36&amp;" "&amp;E36</f>
+        <f t="shared" ref="F36" si="15">+A36&amp;" "&amp;B36&amp;" "&amp;C36&amp;" "&amp;D36&amp;" "&amp;E36</f>
         <v xml:space="preserve">El propietario cuando ponga sus viajes en ventas debe informar del estado del bus con un formulario y a si el sistema pueda mostrar el estado del bus a los clientes </v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="G36" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="8">
+        <v>3</v>
+      </c>
+      <c r="J36" s="8">
+        <v>2</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" ref="K36" si="16">SUM(G36:J36)</f>
+        <v>8.1</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -2090,10 +2297,18 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="G37" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H37" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I37" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J37" s="9">
+        <v>60000</v>
+      </c>
       <c r="K37" s="9"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2114,23 +2329,23 @@
       <c r="F38" s="14"/>
       <c r="G38" s="10">
         <f>+G36*G37</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="H38" s="10">
         <f>+H36*H37</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I38" s="10">
         <f>+I36*I37</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J38" s="10">
         <f>+J36*J37</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K38" s="10">
         <f>SUM(G38:J38)</f>
-        <v>0</v>
+        <v>273000</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2143,30 +2358,41 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="17" t="str">
-        <f t="shared" ref="F39" si="11">+A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;E39</f>
+      <c r="F39" s="21" t="str">
+        <f t="shared" ref="F39" si="17">+A39&amp;" "&amp;B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;E39</f>
         <v>El propietario cuando ponga sus viajes en ventas debe informar de las caracteristicas del viaje (rutas, costos y fecha) y a si el sistema pueda mostrar los viajes a los clientes</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8">
+        <v>3</v>
+      </c>
+      <c r="I39" s="8">
+        <v>4</v>
+      </c>
+      <c r="J39" s="8">
+        <v>4</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" ref="K39" si="18">SUM(G39:J39)</f>
+        <v>12</v>
+      </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2178,16 +2404,24 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H40" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I40" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J40" s="9">
+        <v>60000</v>
+      </c>
       <c r="K40" s="9"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -2200,31 +2434,31 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="10">
         <f>+G39*G40</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H41" s="10">
         <f>+H39*H40</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I41" s="10">
         <f>+I39*I40</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J41" s="10">
         <f>+J39*J40</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K41" s="10">
         <f>SUM(G41:J41)</f>
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -2253,14 +2487,25 @@
         <v>45</v>
       </c>
       <c r="F42" s="13" t="str">
-        <f t="shared" ref="F42" si="12">+A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;E42</f>
+        <f t="shared" ref="F42" si="19">+A42&amp;" "&amp;B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;E42</f>
         <v>El propietario cuando infroma del estado del bus debera estar pendiendete del mantenimiento peridico del bus entonce el sistema debera avisarle al propietario cada cuanto se debe hacer este mantenimiento</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="G42" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H42" s="8">
+        <v>2</v>
+      </c>
+      <c r="I42" s="8">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" ref="K42" si="20">SUM(G42:J42)</f>
+        <v>10.5</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2278,10 +2523,18 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="G43" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I43" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J43" s="9">
+        <v>60000</v>
+      </c>
       <c r="K43" s="9"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -2302,23 +2555,23 @@
       <c r="F44" s="14"/>
       <c r="G44" s="10">
         <f>+G42*G43</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="H44" s="10">
         <f>+H42*H43</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I44" s="10">
         <f>+I42*I43</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J44" s="10">
         <f>+J42*J43</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K44" s="10">
         <f>SUM(G44:J44)</f>
-        <v>0</v>
+        <v>415000</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2331,30 +2584,41 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="17" t="str">
-        <f t="shared" ref="F45" si="13">+A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" "&amp;D45&amp;" "&amp;E45</f>
+      <c r="F45" s="21" t="str">
+        <f t="shared" ref="F45" si="21">+A45&amp;" "&amp;B45&amp;" "&amp;C45&amp;" "&amp;D45&amp;" "&amp;E45</f>
         <v>El propietario cuando ingrese a su aplicación debera poder ver las ganancias que a generado  entonces el sistema debera calcular las ganancias con la cantidad de viajes y servicios adicionales que se hayan vendido en su flota</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="G45" s="8">
+        <v>2</v>
+      </c>
+      <c r="H45" s="8">
+        <v>3</v>
+      </c>
+      <c r="I45" s="8">
+        <v>4</v>
+      </c>
+      <c r="J45" s="8">
+        <v>4</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" ref="K45" si="22">SUM(G45:J45)</f>
+        <v>13</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -2366,16 +2630,24 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H46" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I46" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J46" s="9">
+        <v>60000</v>
+      </c>
       <c r="K46" s="9"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2388,37 +2660,37 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="10">
         <f>+G45*G46</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H47" s="10">
         <f>+H45*H46</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I47" s="10">
         <f>+I45*I46</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J47" s="10">
         <f>+J45*J46</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K47" s="10">
         <f>SUM(G47:J47)</f>
-        <v>0</v>
+        <v>470000</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2">
         <f>COUNTIF(A:A,"El usuario")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -2444,14 +2716,25 @@
         <v>61</v>
       </c>
       <c r="F48" s="13" t="str">
-        <f t="shared" ref="F48" si="14">+A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" "&amp;D48&amp;" "&amp;E48</f>
+        <f t="shared" ref="F48" si="23">+A48&amp;" "&amp;B48&amp;" "&amp;C48&amp;" "&amp;D48&amp;" "&amp;E48</f>
         <v>El propietario cuando informe del estado del bus debe subir una foto del bus y el sistema poder mostrarle esta foto a los clientes</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="G48" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H48" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I48" s="8">
+        <v>2</v>
+      </c>
+      <c r="J48" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" ref="K48" si="24">SUM(G48:J48)</f>
+        <v>6.2</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2">
@@ -2472,10 +2755,18 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="G49" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H49" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I49" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J49" s="9">
+        <v>60000</v>
+      </c>
       <c r="K49" s="9"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2499,23 +2790,23 @@
       <c r="F50" s="14"/>
       <c r="G50" s="10">
         <f>+G48*G49</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H50" s="10">
         <f>+H48*H49</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="I50" s="10">
         <f>+I48*I49</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J50" s="10">
         <f>+J48*J49</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="K50" s="10">
         <f>SUM(G50:J50)</f>
-        <v>0</v>
+        <v>241000</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -2531,35 +2822,46 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="17" t="str">
-        <f t="shared" ref="F51" si="15">+A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;" "&amp;D51&amp;" "&amp;E51</f>
+      <c r="F51" s="21" t="str">
+        <f t="shared" ref="F51" si="25">+A51&amp;" "&amp;B51&amp;" "&amp;C51&amp;" "&amp;D51&amp;" "&amp;E51</f>
         <v>El propietario cuando cuando ponga sus viajes en venta debe informar de las caracteristica del viaje ( placa, modelo y año) y el sistema debera mostrarle esta informacion a los usuarios</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="G51" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I51" s="8">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" ref="K51" si="26">SUM(G51:J51)</f>
+        <v>6.5</v>
+      </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2">
         <f>SUM(N47:N50)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -2569,16 +2871,24 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H52" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I52" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J52" s="9">
+        <v>60000</v>
+      </c>
       <c r="K52" s="9"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2591,31 +2901,31 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="10">
         <f>+G51*G52</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H53" s="10">
         <f>+H51*H52</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="I53" s="10">
         <f>+I51*I52</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J53" s="10">
         <f>+J51*J52</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="K53" s="10">
         <f>SUM(G53:J53)</f>
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -2644,14 +2954,25 @@
         <v>68</v>
       </c>
       <c r="F54" s="13" t="str">
-        <f t="shared" ref="F54" si="16">+A54&amp;" "&amp;B54&amp;" "&amp;C54&amp;" "&amp;D54&amp;" "&amp;E54</f>
+        <f t="shared" ref="F54" si="27">+A54&amp;" "&amp;B54&amp;" "&amp;C54&amp;" "&amp;D54&amp;" "&amp;E54</f>
         <v>El propietario cuando ponga sus viajes en ventas debe asignar un conductor a su bus y el sistema le asignara este vehiculo al conductor y las rutas que debe hacer.</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I54" s="8">
+        <v>3</v>
+      </c>
+      <c r="J54" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" ref="K54" si="28">SUM(G54:J54)</f>
+        <v>9</v>
+      </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -2669,10 +2990,18 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="G55" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H55" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I55" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J55" s="9">
+        <v>60000</v>
+      </c>
       <c r="K55" s="9"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -2693,23 +3022,23 @@
       <c r="F56" s="14"/>
       <c r="G56" s="10">
         <f>+G54*G55</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H56" s="10">
         <f>+H54*H55</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="I56" s="10">
         <f>+I54*I55</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J56" s="10">
         <f>+J54*J55</f>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="K56" s="10">
         <f>SUM(G56:J56)</f>
-        <v>0</v>
+        <v>345000</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -2722,30 +3051,41 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="17" t="str">
-        <f t="shared" ref="F57" si="17">+A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" "&amp;D57&amp;" "&amp;E57</f>
+      <c r="F57" s="21" t="str">
+        <f t="shared" ref="F57" si="29">+A57&amp;" "&amp;B57&amp;" "&amp;C57&amp;" "&amp;D57&amp;" "&amp;E57</f>
         <v>El conductor Cuando ingresa como conductor de la compañía en la app debe ver los viajes asignados que tiene asi el sistema le mostrar la ruta y fecha de los viajes</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="G57" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2</v>
+      </c>
+      <c r="I57" s="8">
+        <v>2</v>
+      </c>
+      <c r="J57" s="8">
+        <v>3</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" ref="K57" si="30">SUM(G57:J57)</f>
+        <v>7.5</v>
+      </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -2757,12 +3097,12 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -2779,12 +3119,12 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="18"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="10">
         <f>+G57*G58</f>
         <v>0</v>
@@ -2832,14 +3172,25 @@
         <v>75</v>
       </c>
       <c r="F60" s="13" t="str">
-        <f t="shared" ref="F60" si="18">+A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" "&amp;D60&amp;" "&amp;E60</f>
+        <f t="shared" ref="F60" si="31">+A60&amp;" "&amp;B60&amp;" "&amp;C60&amp;" "&amp;D60&amp;" "&amp;E60</f>
         <v>El conductor cuando estan entrando los usuarios al bus debe realizar check in a los usuarios, que no lo hayan hehco asi el sistema poder llevar una base de datos del chek in de todo los usuarios</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2</v>
+      </c>
+      <c r="I60" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="J60" s="8">
+        <v>2</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" ref="K60" si="32">SUM(G60:J60)</f>
+        <v>7.5</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -2857,10 +3208,18 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="G61" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H61" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I61" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J61" s="9">
+        <v>60000</v>
+      </c>
       <c r="K61" s="9"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -2881,23 +3240,23 @@
       <c r="F62" s="14"/>
       <c r="G62" s="10">
         <f>+G60*G61</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H62" s="10">
         <f>+H60*H61</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I62" s="10">
         <f>+I60*I61</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J62" s="10">
         <f>+J60*J61</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K62" s="10">
         <f>SUM(G62:J62)</f>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -2910,30 +3269,41 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63" si="19">+A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" "&amp;D63&amp;" "&amp;E63</f>
+      <c r="F63" s="21" t="str">
+        <f t="shared" ref="F63" si="33">+A63&amp;" "&amp;B63&amp;" "&amp;C63&amp;" "&amp;D63&amp;" "&amp;E63</f>
         <v>el conductor Cuando ingresa como conductor de la compañía en la app debera poder comunicarce con el centro de operaciones asi el sistema avisara a el centro de operaciones por medio de un boto que oprime el conductor de la situacion actual del viaje</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="G63" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H63" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I63" s="8">
+        <v>2</v>
+      </c>
+      <c r="J63" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" ref="K63" si="34">SUM(G63:J63)</f>
+        <v>9.5</v>
+      </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -2945,16 +3315,24 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H64" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I64" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J64" s="9">
+        <v>60000</v>
+      </c>
       <c r="K64" s="9"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -2967,31 +3345,31 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="18"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="10">
         <f>+G63*G64</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H65" s="10">
         <f>+H63*H64</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I65" s="10">
         <f>+I63*I64</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J65" s="10">
         <f>+J63*J64</f>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="K65" s="10">
         <f>SUM(G65:J65)</f>
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3020,14 +3398,25 @@
         <v>81</v>
       </c>
       <c r="F66" s="13" t="str">
-        <f t="shared" ref="F66" si="20">+A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" "&amp;D66&amp;" "&amp;E66</f>
+        <f t="shared" ref="F66" si="35">+A66&amp;" "&amp;B66&amp;" "&amp;C66&amp;" "&amp;D66&amp;" "&amp;E66</f>
         <v>El conductor cuando ingresa como conductor complementario debe ver los viajes que estan en su zona asi el sistema les muestra los usuarios que an solicitado viajes urbanos en su zona y los conductores deberan aceptarlos</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I66" s="8">
+        <v>2</v>
+      </c>
+      <c r="J66" s="8">
+        <v>4</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" ref="K66" si="36">SUM(G66:J66)</f>
+        <v>9.5</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3045,10 +3434,18 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="G67" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H67" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I67" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J67" s="9">
+        <v>60000</v>
+      </c>
       <c r="K67" s="9"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -3069,23 +3466,23 @@
       <c r="F68" s="14"/>
       <c r="G68" s="10">
         <f>+G66*G67</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H68" s="10">
         <f>+H66*H67</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I68" s="10">
         <f>+I66*I67</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J68" s="10">
         <f>+J66*J67</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K68" s="10">
         <f>SUM(G68:J68)</f>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -3098,30 +3495,41 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69" si="21">+A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;E69</f>
+      <c r="F69" s="21" t="str">
+        <f t="shared" ref="F69" si="37">+A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;E69</f>
         <v>El conductor cuando acepta un viaje complementario debera ver la ruta y fecha asi el sistema les mostrara a que horas debe recoger el usuario donde en caso de que tenga que llevarlo a la terminal  o el destino en caso de que tenga que recogerlo en la terminal</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
+      <c r="G69" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="8">
+        <v>2</v>
+      </c>
+      <c r="I69" s="8">
+        <v>2</v>
+      </c>
+      <c r="J69" s="8">
+        <v>3</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" ref="K69" si="38">SUM(G69:J69)</f>
+        <v>7.5</v>
+      </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -3133,16 +3541,24 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H70" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I70" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J70" s="9">
+        <v>60000</v>
+      </c>
       <c r="K70" s="9"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -3155,31 +3571,31 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="10">
         <f>+G69*G70</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="H71" s="10">
         <f>+H69*H70</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I71" s="10">
         <f>+I69*I70</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J71" s="10">
         <f>+J69*J70</f>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="K71" s="10">
         <f>SUM(G71:J71)</f>
-        <v>0</v>
+        <v>295000</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -3208,14 +3624,25 @@
         <v>86</v>
       </c>
       <c r="F72" s="13" t="str">
-        <f t="shared" ref="F72" si="22">+A72&amp;" "&amp;B72&amp;" "&amp;C72&amp;" "&amp;D72&amp;" "&amp;E72</f>
+        <f t="shared" ref="F72" si="39">+A72&amp;" "&amp;B72&amp;" "&amp;C72&amp;" "&amp;D72&amp;" "&amp;E72</f>
         <v>El conductor cuando acepta un viaje complementario debe ver la tarifa en caso de que el usuario no pague virtual asi el sistema le avisar que debe cobrar ese viaje en efectivo</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="G72" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H72" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="J72" s="8">
+        <v>2</v>
+      </c>
+      <c r="K72" s="8">
+        <f t="shared" ref="K72" si="40">SUM(G72:J72)</f>
+        <v>4.7</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -3233,10 +3660,18 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="13"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="G73" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H73" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I73" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J73" s="9">
+        <v>60000</v>
+      </c>
       <c r="K73" s="9"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -3257,23 +3692,23 @@
       <c r="F74" s="14"/>
       <c r="G74" s="10">
         <f>+G72*G73</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H74" s="10">
         <f>+H72*H73</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="I74" s="10">
         <f>+I72*I73</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J74" s="10">
         <f>+J72*J73</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K74" s="10">
         <f>SUM(G74:J74)</f>
-        <v>0</v>
+        <v>191000</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -3286,30 +3721,41 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="17" t="str">
-        <f t="shared" ref="F75" si="23">+A75&amp;" "&amp;B75&amp;" "&amp;C75&amp;" "&amp;D75&amp;" "&amp;E75</f>
+      <c r="F75" s="21" t="str">
+        <f t="shared" ref="F75" si="41">+A75&amp;" "&amp;B75&amp;" "&amp;C75&amp;" "&amp;D75&amp;" "&amp;E75</f>
         <v>El centro de operaciones cuando ingresa a la aplicación debe autenticarse y el sistema le permitira poder acceder a las demas funciones</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="G75" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H75" s="8">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8">
+        <v>2</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" ref="K75" si="42">SUM(G75:J75)</f>
+        <v>4.2</v>
+      </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -3321,16 +3767,24 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H76" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I76" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J76" s="9">
+        <v>60000</v>
+      </c>
       <c r="K76" s="9"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3343,31 +3797,31 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="18"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="10">
         <f>+G75*G76</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H77" s="10">
         <f>+H75*H76</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I77" s="10">
         <f>+I75*I76</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J77" s="10">
         <f>+J75*J76</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K77" s="10">
         <f>SUM(G77:J77)</f>
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -3396,14 +3850,25 @@
         <v>93</v>
       </c>
       <c r="F78" s="13" t="str">
-        <f t="shared" ref="F78" si="24">+A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" "&amp;D78&amp;" "&amp;E78</f>
+        <f t="shared" ref="F78" si="43">+A78&amp;" "&amp;B78&amp;" "&amp;C78&amp;" "&amp;D78&amp;" "&amp;E78</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debe recibir, ver, generar y responder PQR y el sistema genera el debido estado del PQR al que se este aplicando</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="8">
+        <v>3</v>
+      </c>
+      <c r="I78" s="8">
+        <v>4</v>
+      </c>
+      <c r="J78" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="K78" s="8">
+        <f t="shared" ref="K78" si="44">SUM(G78:J78)</f>
+        <v>13.5</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -3421,10 +3886,18 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="G79" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H79" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I79" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J79" s="9">
+        <v>60000</v>
+      </c>
       <c r="K79" s="9"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -3445,23 +3918,23 @@
       <c r="F80" s="14"/>
       <c r="G80" s="10">
         <f>+G78*G79</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H80" s="10">
         <f>+H78*H79</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I80" s="10">
         <f>+I78*I79</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="J80" s="10">
         <f>+J78*J79</f>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="K80" s="10">
         <f>SUM(G80:J80)</f>
-        <v>0</v>
+        <v>530000</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3474,30 +3947,41 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F81" s="17" t="str">
-        <f t="shared" ref="F81" si="25">+A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" "&amp;D81&amp;" "&amp;E81</f>
+      <c r="F81" s="21" t="str">
+        <f t="shared" ref="F81" si="45">+A81&amp;" "&amp;B81&amp;" "&amp;C81&amp;" "&amp;D81&amp;" "&amp;E81</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debera poder generar ticket a usuarios que compren en la terminal y el sistema debera agregar a estas personas en la base de datos del viaje que acaba de comprar</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I81" s="8">
+        <v>3</v>
+      </c>
+      <c r="J81" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K81" s="8">
+        <f t="shared" ref="K81" si="46">SUM(G81:J81)</f>
+        <v>10</v>
+      </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -3509,16 +3993,24 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H82" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I82" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J82" s="9">
+        <v>60000</v>
+      </c>
       <c r="K82" s="9"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3531,31 +4023,31 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="10">
         <f>+G81*G82</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H83" s="10">
         <f>+H81*H82</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I83" s="10">
         <f>+I81*I82</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J83" s="10">
         <f>+J81*J82</f>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="K83" s="10">
         <f>SUM(G83:J83)</f>
-        <v>0</v>
+        <v>375000</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3584,14 +4076,25 @@
         <v>97</v>
       </c>
       <c r="F84" s="13" t="str">
-        <f t="shared" ref="F84" si="26">+A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" "&amp;D84&amp;" "&amp;E84</f>
+        <f t="shared" ref="F84" si="47">+A84&amp;" "&amp;B84&amp;" "&amp;C84&amp;" "&amp;D84&amp;" "&amp;E84</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debera poder comunicarce con los conductores y el sistema les informara de las novedades que el centro de operaciones les haya comunicado</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="G84" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I84" s="8">
+        <v>2</v>
+      </c>
+      <c r="J84" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="K84" s="8">
+        <f t="shared" ref="K84" si="48">SUM(G84:J84)</f>
+        <v>9.5</v>
+      </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -3609,10 +4112,18 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="G85" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H85" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I85" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J85" s="9">
+        <v>60000</v>
+      </c>
       <c r="K85" s="9"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3633,23 +4144,23 @@
       <c r="F86" s="14"/>
       <c r="G86" s="10">
         <f>+G84*G85</f>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="H86" s="10">
         <f>+H84*H85</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I86" s="10">
         <f>+I84*I85</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="J86" s="10">
         <f>+J84*J85</f>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="K86" s="10">
         <f>SUM(G86:J86)</f>
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3662,20 +4173,41 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87" si="27">+A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;" "&amp;D87&amp;" "&amp;E87</f>
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+      <c r="A87" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="21" t="str">
+        <f t="shared" ref="F87" si="49">+A87&amp;" "&amp;B87&amp;" "&amp;C87&amp;" "&amp;D87&amp;" "&amp;E87</f>
+        <v>El usuario cuando ingresa a la aplicación debera poder programar viajes aereos o maritimos entonces el sistema le mostrara los viajes maritimos y aereos que hay para viajar a determinadas zonas que no se puede acceder con vehiculos de tierra.</v>
+      </c>
+      <c r="G87" s="8">
+        <v>2</v>
+      </c>
+      <c r="H87" s="8">
+        <v>4</v>
+      </c>
+      <c r="I87" s="8">
+        <v>3</v>
+      </c>
+      <c r="J87" s="8">
+        <v>5</v>
+      </c>
+      <c r="K87" s="8">
+        <f t="shared" ref="K87" si="50">SUM(G87:J87)</f>
+        <v>14</v>
+      </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3687,16 +4219,24 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="9">
+        <v>30000</v>
+      </c>
+      <c r="H88" s="9">
+        <v>30000</v>
+      </c>
+      <c r="I88" s="9">
+        <v>20000</v>
+      </c>
+      <c r="J88" s="9">
+        <v>60000</v>
+      </c>
       <c r="K88" s="9"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -3709,17 +4249,32 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="10">
+        <f>+G87*G88</f>
+        <v>60000</v>
+      </c>
+      <c r="H89" s="10">
+        <f>+H87*H88</f>
+        <v>120000</v>
+      </c>
+      <c r="I89" s="10">
+        <f>+I87*I88</f>
+        <v>60000</v>
+      </c>
+      <c r="J89" s="10">
+        <f>+J87*J88</f>
+        <v>300000</v>
+      </c>
+      <c r="K89" s="10">
+        <f>SUM(G89:J89)</f>
+        <v>540000</v>
+      </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -3737,7 +4292,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="13" t="str">
-        <f t="shared" ref="F90" si="28">+A90&amp;" "&amp;B90&amp;" "&amp;C90&amp;" "&amp;D90&amp;" "&amp;E90</f>
+        <f t="shared" ref="F90" si="51">+A90&amp;" "&amp;B90&amp;" "&amp;C90&amp;" "&amp;D90&amp;" "&amp;E90</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G90" s="8"/>
@@ -3769,7 +4324,10 @@
       <c r="K91" s="9"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="N91" s="26">
+        <f>+K5+K8+K11+K14+K17+K20+K23+K26+K29+K32+K35+K38+K41+K44+K47+K50+K53+K56+K59+K62+K65+K68+K71+K74+K77+K80+K83+K86+K89</f>
+        <v>9565000</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -3800,13 +4358,13 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93" si="29">+A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" "&amp;D93&amp;" "&amp;E93</f>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="21" t="str">
+        <f t="shared" ref="F93" si="52">+A93&amp;" "&amp;B93&amp;" "&amp;C93&amp;" "&amp;D93&amp;" "&amp;E93</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G93" s="8"/>
@@ -3825,12 +4383,12 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="21"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -3847,12 +4405,12 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -3875,7 +4433,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="13" t="str">
-        <f t="shared" ref="F96" si="30">+A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;E96</f>
+        <f t="shared" ref="F96" si="53">+A96&amp;" "&amp;B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;E96</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G96" s="8"/>
@@ -3938,13 +4496,13 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="17" t="str">
-        <f t="shared" ref="F99" si="31">+A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" "&amp;D99&amp;" "&amp;E99</f>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="21" t="str">
+        <f t="shared" ref="F99" si="54">+A99&amp;" "&amp;B99&amp;" "&amp;C99&amp;" "&amp;D99&amp;" "&amp;E99</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G99" s="8"/>
@@ -3963,12 +4521,12 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="17"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -3985,12 +4543,12 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="18"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -4013,7 +4571,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="13" t="str">
-        <f t="shared" ref="F102" si="32">+A102&amp;" "&amp;B102&amp;" "&amp;C102&amp;" "&amp;D102&amp;" "&amp;E102</f>
+        <f t="shared" ref="F102" si="55">+A102&amp;" "&amp;B102&amp;" "&amp;C102&amp;" "&amp;D102&amp;" "&amp;E102</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G102" s="8"/>
@@ -4076,13 +4634,13 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105" si="33">+A105&amp;" "&amp;B105&amp;" "&amp;C105&amp;" "&amp;D105&amp;" "&amp;E105</f>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="21" t="str">
+        <f t="shared" ref="F105" si="56">+A105&amp;" "&amp;B105&amp;" "&amp;C105&amp;" "&amp;D105&amp;" "&amp;E105</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G105" s="8"/>
@@ -4101,12 +4659,12 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="17"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -4123,12 +4681,12 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="18"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
@@ -4151,7 +4709,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="13" t="str">
-        <f t="shared" ref="F108" si="34">+A108&amp;" "&amp;B108&amp;" "&amp;C108&amp;" "&amp;D108&amp;" "&amp;E108</f>
+        <f t="shared" ref="F108" si="57">+A108&amp;" "&amp;B108&amp;" "&amp;C108&amp;" "&amp;D108&amp;" "&amp;E108</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G108" s="8"/>
@@ -4214,13 +4772,13 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="17" t="str">
-        <f t="shared" ref="F111" si="35">+A111&amp;" "&amp;B111&amp;" "&amp;C111&amp;" "&amp;D111&amp;" "&amp;E111</f>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="21" t="str">
+        <f t="shared" ref="F111" si="58">+A111&amp;" "&amp;B111&amp;" "&amp;C111&amp;" "&amp;D111&amp;" "&amp;E111</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G111" s="8"/>
@@ -4239,12 +4797,12 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="17"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -4261,12 +4819,12 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="18"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="22"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -4289,7 +4847,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="13" t="str">
-        <f t="shared" ref="F114" si="36">+A114&amp;" "&amp;B114&amp;" "&amp;C114&amp;" "&amp;D114&amp;" "&amp;E114</f>
+        <f t="shared" ref="F114" si="59">+A114&amp;" "&amp;B114&amp;" "&amp;C114&amp;" "&amp;D114&amp;" "&amp;E114</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G114" s="8"/>
@@ -4352,13 +4910,13 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="17" t="str">
-        <f t="shared" ref="F117" si="37">+A117&amp;" "&amp;B117&amp;" "&amp;C117&amp;" "&amp;D117&amp;" "&amp;E117</f>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="21" t="str">
+        <f t="shared" ref="F117" si="60">+A117&amp;" "&amp;B117&amp;" "&amp;C117&amp;" "&amp;D117&amp;" "&amp;E117</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G117" s="8"/>
@@ -4377,12 +4935,12 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="17"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -4399,12 +4957,12 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="18"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="22"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -4427,7 +4985,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="13" t="str">
-        <f t="shared" ref="F120" si="38">+A120&amp;" "&amp;B120&amp;" "&amp;C120&amp;" "&amp;D120&amp;" "&amp;E120</f>
+        <f t="shared" ref="F120" si="61">+A120&amp;" "&amp;B120&amp;" "&amp;C120&amp;" "&amp;D120&amp;" "&amp;E120</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G120" s="8"/>
@@ -4490,13 +5048,13 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="17" t="str">
-        <f t="shared" ref="F123" si="39">+A123&amp;" "&amp;B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;E123</f>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="21" t="str">
+        <f t="shared" ref="F123" si="62">+A123&amp;" "&amp;B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;E123</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G123" s="8"/>
@@ -4515,12 +5073,12 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="17"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -4537,12 +5095,12 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="18"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="22"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -4565,7 +5123,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="13" t="str">
-        <f t="shared" ref="F126" si="40">+A126&amp;" "&amp;B126&amp;" "&amp;C126&amp;" "&amp;D126&amp;" "&amp;E126</f>
+        <f t="shared" ref="F126" si="63">+A126&amp;" "&amp;B126&amp;" "&amp;C126&amp;" "&amp;D126&amp;" "&amp;E126</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G126" s="8"/>
@@ -4628,13 +5186,13 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129" si="41">+A129&amp;" "&amp;B129&amp;" "&amp;C129&amp;" "&amp;D129&amp;" "&amp;E129</f>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="21" t="str">
+        <f t="shared" ref="F129" si="64">+A129&amp;" "&amp;B129&amp;" "&amp;C129&amp;" "&amp;D129&amp;" "&amp;E129</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G129" s="8"/>
@@ -4653,12 +5211,12 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="17"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -4675,12 +5233,12 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="18"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="22"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
@@ -4703,7 +5261,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="13" t="str">
-        <f t="shared" ref="F132" si="42">+A132&amp;" "&amp;B132&amp;" "&amp;C132&amp;" "&amp;D132&amp;" "&amp;E132</f>
+        <f t="shared" ref="F132" si="65">+A132&amp;" "&amp;B132&amp;" "&amp;C132&amp;" "&amp;D132&amp;" "&amp;E132</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G132" s="8"/>
@@ -4766,13 +5324,13 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135" si="43">+A135&amp;" "&amp;B135&amp;" "&amp;C135&amp;" "&amp;D135&amp;" "&amp;E135</f>
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="21" t="str">
+        <f t="shared" ref="F135" si="66">+A135&amp;" "&amp;B135&amp;" "&amp;C135&amp;" "&amp;D135&amp;" "&amp;E135</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G135" s="8"/>
@@ -4791,12 +5349,12 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="17"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="21"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
@@ -4813,12 +5371,12 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="18"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="22"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
@@ -4841,7 +5399,7 @@
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="13" t="str">
-        <f t="shared" ref="F138" si="44">+A138&amp;" "&amp;B138&amp;" "&amp;C138&amp;" "&amp;D138&amp;" "&amp;E138</f>
+        <f t="shared" ref="F138" si="67">+A138&amp;" "&amp;B138&amp;" "&amp;C138&amp;" "&amp;D138&amp;" "&amp;E138</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G138" s="8"/>
@@ -4904,13 +5462,13 @@
       <c r="T140" s="1"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141" si="45">+A141&amp;" "&amp;B141&amp;" "&amp;C141&amp;" "&amp;D141&amp;" "&amp;E141</f>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="21" t="str">
+        <f t="shared" ref="F141" si="68">+A141&amp;" "&amp;B141&amp;" "&amp;C141&amp;" "&amp;D141&amp;" "&amp;E141</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G141" s="8"/>
@@ -4929,12 +5487,12 @@
       <c r="T141" s="1"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="17"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="21"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -4951,12 +5509,12 @@
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="18"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="22"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
@@ -4979,7 +5537,7 @@
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="13" t="str">
-        <f t="shared" ref="F144" si="46">+A144&amp;" "&amp;B144&amp;" "&amp;C144&amp;" "&amp;D144&amp;" "&amp;E144</f>
+        <f t="shared" ref="F144" si="69">+A144&amp;" "&amp;B144&amp;" "&amp;C144&amp;" "&amp;D144&amp;" "&amp;E144</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G144" s="8"/>
@@ -5042,13 +5600,13 @@
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="17" t="str">
-        <f t="shared" ref="F147" si="47">+A147&amp;" "&amp;B147&amp;" "&amp;C147&amp;" "&amp;D147&amp;" "&amp;E147</f>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="21" t="str">
+        <f t="shared" ref="F147" si="70">+A147&amp;" "&amp;B147&amp;" "&amp;C147&amp;" "&amp;D147&amp;" "&amp;E147</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G147" s="8"/>
@@ -5067,12 +5625,12 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="17"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="21"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
@@ -5089,12 +5647,12 @@
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="16"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="22"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
@@ -5117,7 +5675,7 @@
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="13" t="str">
-        <f t="shared" ref="F150" si="48">+A150&amp;" "&amp;B150&amp;" "&amp;C150&amp;" "&amp;D150&amp;" "&amp;E150</f>
+        <f t="shared" ref="F150" si="71">+A150&amp;" "&amp;B150&amp;" "&amp;C150&amp;" "&amp;D150&amp;" "&amp;E150</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G150" s="8"/>
@@ -5180,13 +5738,13 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="17" t="str">
-        <f t="shared" ref="F153" si="49">+A153&amp;" "&amp;B153&amp;" "&amp;C153&amp;" "&amp;D153&amp;" "&amp;E153</f>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="21" t="str">
+        <f t="shared" ref="F153" si="72">+A153&amp;" "&amp;B153&amp;" "&amp;C153&amp;" "&amp;D153&amp;" "&amp;E153</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G153" s="8"/>
@@ -5205,12 +5763,12 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="17"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="21"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
@@ -5227,12 +5785,12 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="16"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="22"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
@@ -5255,7 +5813,7 @@
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="13" t="str">
-        <f t="shared" ref="F156" si="50">+A156&amp;" "&amp;B156&amp;" "&amp;C156&amp;" "&amp;D156&amp;" "&amp;E156</f>
+        <f t="shared" ref="F156" si="73">+A156&amp;" "&amp;B156&amp;" "&amp;C156&amp;" "&amp;D156&amp;" "&amp;E156</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G156" s="8"/>
@@ -5318,13 +5876,13 @@
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="17" t="str">
-        <f t="shared" ref="F159" si="51">+A159&amp;" "&amp;B159&amp;" "&amp;C159&amp;" "&amp;D159&amp;" "&amp;E159</f>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="21" t="str">
+        <f t="shared" ref="F159" si="74">+A159&amp;" "&amp;B159&amp;" "&amp;C159&amp;" "&amp;D159&amp;" "&amp;E159</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G159" s="8"/>
@@ -5343,12 +5901,12 @@
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="17"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="21"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
@@ -5365,12 +5923,12 @@
       <c r="T160" s="1"/>
     </row>
     <row r="161" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="18"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="22"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
@@ -5393,7 +5951,7 @@
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="13" t="str">
-        <f t="shared" ref="F162" si="52">+A162&amp;" "&amp;B162&amp;" "&amp;C162&amp;" "&amp;D162&amp;" "&amp;E162</f>
+        <f t="shared" ref="F162" si="75">+A162&amp;" "&amp;B162&amp;" "&amp;C162&amp;" "&amp;D162&amp;" "&amp;E162</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G162" s="8"/>
@@ -5456,13 +6014,13 @@
       <c r="T164" s="1"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="17" t="str">
-        <f t="shared" ref="F165" si="53">+A165&amp;" "&amp;B165&amp;" "&amp;C165&amp;" "&amp;D165&amp;" "&amp;E165</f>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="21" t="str">
+        <f t="shared" ref="F165" si="76">+A165&amp;" "&amp;B165&amp;" "&amp;C165&amp;" "&amp;D165&amp;" "&amp;E165</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G165" s="8"/>
@@ -5481,12 +6039,12 @@
       <c r="T165" s="1"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="15"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="17"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="21"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -5503,12 +6061,12 @@
       <c r="T166" s="1"/>
     </row>
     <row r="167" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="16"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="18"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="22"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
@@ -5531,7 +6089,7 @@
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="13" t="str">
-        <f t="shared" ref="F168" si="54">+A168&amp;" "&amp;B168&amp;" "&amp;C168&amp;" "&amp;D168&amp;" "&amp;E168</f>
+        <f t="shared" ref="F168" si="77">+A168&amp;" "&amp;B168&amp;" "&amp;C168&amp;" "&amp;D168&amp;" "&amp;E168</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G168" s="8"/>
@@ -5594,13 +6152,13 @@
       <c r="T170" s="1"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="17" t="str">
-        <f t="shared" ref="F171" si="55">+A171&amp;" "&amp;B171&amp;" "&amp;C171&amp;" "&amp;D171&amp;" "&amp;E171</f>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="21" t="str">
+        <f t="shared" ref="F171" si="78">+A171&amp;" "&amp;B171&amp;" "&amp;C171&amp;" "&amp;D171&amp;" "&amp;E171</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G171" s="8"/>
@@ -5619,12 +6177,12 @@
       <c r="T171" s="1"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="15"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="17"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="21"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
@@ -5641,12 +6199,12 @@
       <c r="T172" s="1"/>
     </row>
     <row r="173" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="18"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="22"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
@@ -5669,7 +6227,7 @@
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="13" t="str">
-        <f t="shared" ref="F174" si="56">+A174&amp;" "&amp;B174&amp;" "&amp;C174&amp;" "&amp;D174&amp;" "&amp;E174</f>
+        <f t="shared" ref="F174" si="79">+A174&amp;" "&amp;B174&amp;" "&amp;C174&amp;" "&amp;D174&amp;" "&amp;E174</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G174" s="8"/>
@@ -5732,13 +6290,13 @@
       <c r="T176" s="1"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="15"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="17" t="str">
-        <f t="shared" ref="F177" si="57">+A177&amp;" "&amp;B177&amp;" "&amp;C177&amp;" "&amp;D177&amp;" "&amp;E177</f>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="21" t="str">
+        <f t="shared" ref="F177" si="80">+A177&amp;" "&amp;B177&amp;" "&amp;C177&amp;" "&amp;D177&amp;" "&amp;E177</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G177" s="8"/>
@@ -5757,12 +6315,12 @@
       <c r="T177" s="1"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="17"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="21"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
@@ -5779,12 +6337,12 @@
       <c r="T178" s="1"/>
     </row>
     <row r="179" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="18"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="22"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
@@ -5807,7 +6365,7 @@
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="13" t="str">
-        <f t="shared" ref="F180" si="58">+A180&amp;" "&amp;B180&amp;" "&amp;C180&amp;" "&amp;D180&amp;" "&amp;E180</f>
+        <f t="shared" ref="F180" si="81">+A180&amp;" "&amp;B180&amp;" "&amp;C180&amp;" "&amp;D180&amp;" "&amp;E180</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G180" s="8"/>
@@ -5870,13 +6428,13 @@
       <c r="T182" s="1"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="17" t="str">
-        <f t="shared" ref="F183" si="59">+A183&amp;" "&amp;B183&amp;" "&amp;C183&amp;" "&amp;D183&amp;" "&amp;E183</f>
+      <c r="A183" s="19"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="21" t="str">
+        <f t="shared" ref="F183" si="82">+A183&amp;" "&amp;B183&amp;" "&amp;C183&amp;" "&amp;D183&amp;" "&amp;E183</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G183" s="8"/>
@@ -5895,12 +6453,12 @@
       <c r="T183" s="1"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="15"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="17"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="21"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
@@ -5917,12 +6475,12 @@
       <c r="T184" s="1"/>
     </row>
     <row r="185" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="16"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="18"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="22"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
@@ -5945,7 +6503,7 @@
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="13" t="str">
-        <f t="shared" ref="F186" si="60">+A186&amp;" "&amp;B186&amp;" "&amp;C186&amp;" "&amp;D186&amp;" "&amp;E186</f>
+        <f t="shared" ref="F186" si="83">+A186&amp;" "&amp;B186&amp;" "&amp;C186&amp;" "&amp;D186&amp;" "&amp;E186</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G186" s="8"/>
@@ -6008,13 +6566,13 @@
       <c r="T188" s="1"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="17" t="str">
-        <f t="shared" ref="F189" si="61">+A189&amp;" "&amp;B189&amp;" "&amp;C189&amp;" "&amp;D189&amp;" "&amp;E189</f>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="21" t="str">
+        <f t="shared" ref="F189" si="84">+A189&amp;" "&amp;B189&amp;" "&amp;C189&amp;" "&amp;D189&amp;" "&amp;E189</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G189" s="8"/>
@@ -6033,12 +6591,12 @@
       <c r="T189" s="1"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="15"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="17"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="21"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -6055,12 +6613,12 @@
       <c r="T190" s="1"/>
     </row>
     <row r="191" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="16"/>
-      <c r="B191" s="16"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="18"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="22"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
@@ -6083,7 +6641,7 @@
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="13" t="str">
-        <f t="shared" ref="F192" si="62">+A192&amp;" "&amp;B192&amp;" "&amp;C192&amp;" "&amp;D192&amp;" "&amp;E192</f>
+        <f t="shared" ref="F192" si="85">+A192&amp;" "&amp;B192&amp;" "&amp;C192&amp;" "&amp;D192&amp;" "&amp;E192</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G192" s="8"/>
@@ -6146,13 +6704,13 @@
       <c r="T194" s="1"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="17" t="str">
-        <f t="shared" ref="F195" si="63">+A195&amp;" "&amp;B195&amp;" "&amp;C195&amp;" "&amp;D195&amp;" "&amp;E195</f>
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="21" t="str">
+        <f t="shared" ref="F195" si="86">+A195&amp;" "&amp;B195&amp;" "&amp;C195&amp;" "&amp;D195&amp;" "&amp;E195</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G195" s="8"/>
@@ -6171,12 +6729,12 @@
       <c r="T195" s="1"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="17"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="21"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
@@ -6193,12 +6751,12 @@
       <c r="T196" s="1"/>
     </row>
     <row r="197" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="16"/>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="18"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="22"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
@@ -6221,7 +6779,7 @@
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="13" t="str">
-        <f t="shared" ref="F198" si="64">+A198&amp;" "&amp;B198&amp;" "&amp;C198&amp;" "&amp;D198&amp;" "&amp;E198</f>
+        <f t="shared" ref="F198" si="87">+A198&amp;" "&amp;B198&amp;" "&amp;C198&amp;" "&amp;D198&amp;" "&amp;E198</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G198" s="8"/>
@@ -6284,13 +6842,13 @@
       <c r="T200" s="1"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="17" t="str">
-        <f t="shared" ref="F201" si="65">+A201&amp;" "&amp;B201&amp;" "&amp;C201&amp;" "&amp;D201&amp;" "&amp;E201</f>
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="21" t="str">
+        <f t="shared" ref="F201" si="88">+A201&amp;" "&amp;B201&amp;" "&amp;C201&amp;" "&amp;D201&amp;" "&amp;E201</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G201" s="8"/>
@@ -6309,12 +6867,12 @@
       <c r="T201" s="1"/>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="17"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="21"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
@@ -6331,12 +6889,12 @@
       <c r="T202" s="1"/>
     </row>
     <row r="203" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="18"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="22"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
@@ -6359,7 +6917,7 @@
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="13" t="str">
-        <f t="shared" ref="F204" si="66">+A204&amp;" "&amp;B204&amp;" "&amp;C204&amp;" "&amp;D204&amp;" "&amp;E204</f>
+        <f t="shared" ref="F204" si="89">+A204&amp;" "&amp;B204&amp;" "&amp;C204&amp;" "&amp;D204&amp;" "&amp;E204</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G204" s="8"/>
@@ -6422,13 +6980,13 @@
       <c r="T206" s="1"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A207" s="15"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="17" t="str">
-        <f t="shared" ref="F207" si="67">+A207&amp;" "&amp;B207&amp;" "&amp;C207&amp;" "&amp;D207&amp;" "&amp;E207</f>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="21" t="str">
+        <f t="shared" ref="F207" si="90">+A207&amp;" "&amp;B207&amp;" "&amp;C207&amp;" "&amp;D207&amp;" "&amp;E207</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G207" s="8"/>
@@ -6447,12 +7005,12 @@
       <c r="T207" s="1"/>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A208" s="15"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="17"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="21"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
@@ -6469,12 +7027,12 @@
       <c r="T208" s="1"/>
     </row>
     <row r="209" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="16"/>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="18"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="22"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
@@ -6497,7 +7055,7 @@
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="13" t="str">
-        <f t="shared" ref="F210" si="68">+A210&amp;" "&amp;B210&amp;" "&amp;C210&amp;" "&amp;D210&amp;" "&amp;E210</f>
+        <f t="shared" ref="F210" si="91">+A210&amp;" "&amp;B210&amp;" "&amp;C210&amp;" "&amp;D210&amp;" "&amp;E210</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G210" s="8"/>
@@ -6560,12 +7118,12 @@
       <c r="T212" s="1"/>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A213" s="15"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="17" t="str">
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="21" t="str">
         <f>+A213&amp;" "&amp;B213&amp;" "&amp;C213&amp;" "&amp;D213&amp;" "&amp;E213</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6585,12 +7143,12 @@
       <c r="T213" s="1"/>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A214" s="15"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="17"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="21"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
@@ -6607,12 +7165,12 @@
       <c r="T214" s="1"/>
     </row>
     <row r="215" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="16"/>
-      <c r="B215" s="16"/>
-      <c r="C215" s="16"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="18"/>
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="22"/>
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
@@ -6698,13 +7256,13 @@
       <c r="T218" s="1"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="17" t="str">
-        <f t="shared" ref="F219" si="69">+A219&amp;" "&amp;B219&amp;" "&amp;C219&amp;" "&amp;D219&amp;" "&amp;E219</f>
+      <c r="A219" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="21" t="str">
+        <f t="shared" ref="F219" si="92">+A219&amp;" "&amp;B219&amp;" "&amp;C219&amp;" "&amp;D219&amp;" "&amp;E219</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G219" s="8"/>
@@ -6723,12 +7281,12 @@
       <c r="T219" s="1"/>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A220" s="15"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="17"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="21"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
@@ -6745,12 +7303,12 @@
       <c r="T220" s="1"/>
     </row>
     <row r="221" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="16"/>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="18"/>
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="22"/>
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
@@ -6773,7 +7331,7 @@
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="13" t="str">
-        <f t="shared" ref="F222" si="70">+A222&amp;" "&amp;B222&amp;" "&amp;C222&amp;" "&amp;D222&amp;" "&amp;E222</f>
+        <f t="shared" ref="F222" si="93">+A222&amp;" "&amp;B222&amp;" "&amp;C222&amp;" "&amp;D222&amp;" "&amp;E222</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G222" s="8"/>
@@ -6836,13 +7394,13 @@
       <c r="T224" s="1"/>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A225" s="15"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="17" t="str">
-        <f t="shared" ref="F225" si="71">+A225&amp;" "&amp;B225&amp;" "&amp;C225&amp;" "&amp;D225&amp;" "&amp;E225</f>
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="21" t="str">
+        <f t="shared" ref="F225" si="94">+A225&amp;" "&amp;B225&amp;" "&amp;C225&amp;" "&amp;D225&amp;" "&amp;E225</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G225" s="8"/>
@@ -6861,12 +7419,12 @@
       <c r="T225" s="1"/>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A226" s="15"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
-      <c r="E226" s="15"/>
-      <c r="F226" s="17"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="21"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
@@ -6883,12 +7441,12 @@
       <c r="T226" s="1"/>
     </row>
     <row r="227" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="16"/>
-      <c r="B227" s="16"/>
-      <c r="C227" s="16"/>
-      <c r="D227" s="16"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="18"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="22"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
@@ -6911,7 +7469,7 @@
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="13" t="str">
-        <f t="shared" ref="F228" si="72">+A228&amp;" "&amp;B228&amp;" "&amp;C228&amp;" "&amp;D228&amp;" "&amp;E228</f>
+        <f t="shared" ref="F228" si="95">+A228&amp;" "&amp;B228&amp;" "&amp;C228&amp;" "&amp;D228&amp;" "&amp;E228</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G228" s="8"/>
@@ -6974,13 +7532,13 @@
       <c r="T230" s="1"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A231" s="15"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="17" t="str">
-        <f t="shared" ref="F231" si="73">+A231&amp;" "&amp;B231&amp;" "&amp;C231&amp;" "&amp;D231&amp;" "&amp;E231</f>
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="21" t="str">
+        <f t="shared" ref="F231" si="96">+A231&amp;" "&amp;B231&amp;" "&amp;C231&amp;" "&amp;D231&amp;" "&amp;E231</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G231" s="8"/>
@@ -6999,12 +7557,12 @@
       <c r="T231" s="1"/>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A232" s="15"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="17"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="21"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
@@ -7021,12 +7579,12 @@
       <c r="T232" s="1"/>
     </row>
     <row r="233" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="16"/>
-      <c r="B233" s="16"/>
-      <c r="C233" s="16"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="22"/>
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
@@ -7049,7 +7607,7 @@
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="13" t="str">
-        <f t="shared" ref="F234" si="74">+A234&amp;" "&amp;B234&amp;" "&amp;C234&amp;" "&amp;D234&amp;" "&amp;E234</f>
+        <f t="shared" ref="F234" si="97">+A234&amp;" "&amp;B234&amp;" "&amp;C234&amp;" "&amp;D234&amp;" "&amp;E234</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G234" s="8"/>
@@ -7112,12 +7670,12 @@
       <c r="T236" s="1"/>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A237" s="15"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="17" t="str">
+      <c r="A237" s="19"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
+      <c r="E237" s="19"/>
+      <c r="F237" s="21" t="str">
         <f>+A237&amp;" "&amp;B237&amp;" "&amp;C237&amp;" "&amp;D237&amp;" "&amp;E237</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7137,12 +7695,12 @@
       <c r="T237" s="1"/>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A238" s="15"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="17"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="21"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
@@ -7159,12 +7717,12 @@
       <c r="T238" s="1"/>
     </row>
     <row r="239" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="16"/>
-      <c r="B239" s="16"/>
-      <c r="C239" s="16"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="18"/>
+      <c r="A239" s="20"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="22"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
@@ -7250,13 +7808,13 @@
       <c r="T242" s="1"/>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A243" s="15"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="15"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="17" t="str">
-        <f t="shared" ref="F243" si="75">+A243&amp;" "&amp;B243&amp;" "&amp;C243&amp;" "&amp;D243&amp;" "&amp;E243</f>
+      <c r="A243" s="19"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="21" t="str">
+        <f t="shared" ref="F243" si="98">+A243&amp;" "&amp;B243&amp;" "&amp;C243&amp;" "&amp;D243&amp;" "&amp;E243</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G243" s="8"/>
@@ -7275,12 +7833,12 @@
       <c r="T243" s="1"/>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A244" s="15"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="17"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="21"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
@@ -7297,12 +7855,12 @@
       <c r="T244" s="1"/>
     </row>
     <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="16"/>
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="18"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="22"/>
       <c r="G245" s="10"/>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
@@ -7325,7 +7883,7 @@
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="13" t="str">
-        <f t="shared" ref="F246" si="76">+A246&amp;" "&amp;B246&amp;" "&amp;C246&amp;" "&amp;D246&amp;" "&amp;E246</f>
+        <f t="shared" ref="F246" si="99">+A246&amp;" "&amp;B246&amp;" "&amp;C246&amp;" "&amp;D246&amp;" "&amp;E246</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G246" s="8"/>
@@ -7388,13 +7946,13 @@
       <c r="T248" s="1"/>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="17" t="str">
-        <f t="shared" ref="F249" si="77">+A249&amp;" "&amp;B249&amp;" "&amp;C249&amp;" "&amp;D249&amp;" "&amp;E249</f>
+      <c r="A249" s="19"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="21" t="str">
+        <f t="shared" ref="F249" si="100">+A249&amp;" "&amp;B249&amp;" "&amp;C249&amp;" "&amp;D249&amp;" "&amp;E249</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G249" s="8"/>
@@ -7413,12 +7971,12 @@
       <c r="T249" s="1"/>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="17"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="21"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
@@ -7435,12 +7993,12 @@
       <c r="T250" s="1"/>
     </row>
     <row r="251" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="16"/>
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="18"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="22"/>
       <c r="G251" s="10"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
@@ -7463,7 +8021,7 @@
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="13" t="str">
-        <f t="shared" ref="F252" si="78">+A252&amp;" "&amp;B252&amp;" "&amp;C252&amp;" "&amp;D252&amp;" "&amp;E252</f>
+        <f t="shared" ref="F252" si="101">+A252&amp;" "&amp;B252&amp;" "&amp;C252&amp;" "&amp;D252&amp;" "&amp;E252</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G252" s="8"/>
@@ -7526,13 +8084,13 @@
       <c r="T254" s="1"/>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="17" t="str">
-        <f t="shared" ref="F255" si="79">+A255&amp;" "&amp;B255&amp;" "&amp;C255&amp;" "&amp;D255&amp;" "&amp;E255</f>
+      <c r="A255" s="19"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="21" t="str">
+        <f t="shared" ref="F255" si="102">+A255&amp;" "&amp;B255&amp;" "&amp;C255&amp;" "&amp;D255&amp;" "&amp;E255</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G255" s="8"/>
@@ -7551,12 +8109,12 @@
       <c r="T255" s="1"/>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="17"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="21"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
@@ -7573,12 +8131,12 @@
       <c r="T256" s="1"/>
     </row>
     <row r="257" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="16"/>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="18"/>
+      <c r="A257" s="20"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="22"/>
       <c r="G257" s="10"/>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
@@ -7601,7 +8159,7 @@
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="13" t="str">
-        <f t="shared" ref="F258" si="80">+A258&amp;" "&amp;B258&amp;" "&amp;C258&amp;" "&amp;D258&amp;" "&amp;E258</f>
+        <f t="shared" ref="F258" si="103">+A258&amp;" "&amp;B258&amp;" "&amp;C258&amp;" "&amp;D258&amp;" "&amp;E258</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G258" s="8"/>
@@ -7664,13 +8222,13 @@
       <c r="T260" s="1"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="17" t="str">
-        <f t="shared" ref="F261" si="81">+A261&amp;" "&amp;B261&amp;" "&amp;C261&amp;" "&amp;D261&amp;" "&amp;E261</f>
+      <c r="A261" s="19"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="21" t="str">
+        <f t="shared" ref="F261" si="104">+A261&amp;" "&amp;B261&amp;" "&amp;C261&amp;" "&amp;D261&amp;" "&amp;E261</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G261" s="8"/>
@@ -7689,12 +8247,12 @@
       <c r="T261" s="1"/>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="17"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="21"/>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
@@ -7711,12 +8269,12 @@
       <c r="T262" s="1"/>
     </row>
     <row r="263" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="16"/>
-      <c r="B263" s="16"/>
-      <c r="C263" s="16"/>
-      <c r="D263" s="16"/>
-      <c r="E263" s="16"/>
-      <c r="F263" s="18"/>
+      <c r="A263" s="20"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="22"/>
       <c r="G263" s="10"/>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
@@ -7739,7 +8297,7 @@
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="13" t="str">
-        <f t="shared" ref="F264" si="82">+A264&amp;" "&amp;B264&amp;" "&amp;C264&amp;" "&amp;D264&amp;" "&amp;E264</f>
+        <f t="shared" ref="F264" si="105">+A264&amp;" "&amp;B264&amp;" "&amp;C264&amp;" "&amp;D264&amp;" "&amp;E264</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G264" s="8"/>
@@ -7802,13 +8360,13 @@
       <c r="T266" s="1"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="17" t="str">
-        <f t="shared" ref="F267" si="83">+A267&amp;" "&amp;B267&amp;" "&amp;C267&amp;" "&amp;D267&amp;" "&amp;E267</f>
+      <c r="A267" s="19"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="21" t="str">
+        <f t="shared" ref="F267" si="106">+A267&amp;" "&amp;B267&amp;" "&amp;C267&amp;" "&amp;D267&amp;" "&amp;E267</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G267" s="8"/>
@@ -7827,12 +8385,12 @@
       <c r="T267" s="1"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="17"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="21"/>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
@@ -7849,12 +8407,12 @@
       <c r="T268" s="1"/>
     </row>
     <row r="269" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="16"/>
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="22"/>
       <c r="G269" s="10"/>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
@@ -7877,7 +8435,7 @@
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
       <c r="F270" s="13" t="str">
-        <f t="shared" ref="F270" si="84">+A270&amp;" "&amp;B270&amp;" "&amp;C270&amp;" "&amp;D270&amp;" "&amp;E270</f>
+        <f t="shared" ref="F270" si="107">+A270&amp;" "&amp;B270&amp;" "&amp;C270&amp;" "&amp;D270&amp;" "&amp;E270</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G270" s="8"/>
@@ -7940,13 +8498,13 @@
       <c r="T272" s="1"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="15"/>
-      <c r="E273" s="15"/>
-      <c r="F273" s="17" t="str">
-        <f t="shared" ref="F273" si="85">+A273&amp;" "&amp;B273&amp;" "&amp;C273&amp;" "&amp;D273&amp;" "&amp;E273</f>
+      <c r="A273" s="19"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="21" t="str">
+        <f t="shared" ref="F273" si="108">+A273&amp;" "&amp;B273&amp;" "&amp;C273&amp;" "&amp;D273&amp;" "&amp;E273</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G273" s="8"/>
@@ -7965,12 +8523,12 @@
       <c r="T273" s="1"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="15"/>
-      <c r="D274" s="15"/>
-      <c r="E274" s="15"/>
-      <c r="F274" s="17"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="21"/>
       <c r="G274" s="9"/>
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
@@ -7987,12 +8545,12 @@
       <c r="T274" s="1"/>
     </row>
     <row r="275" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="16"/>
-      <c r="B275" s="16"/>
-      <c r="C275" s="16"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="22"/>
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
@@ -8015,7 +8573,7 @@
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
       <c r="F276" s="13" t="str">
-        <f t="shared" ref="F276" si="86">+A276&amp;" "&amp;B276&amp;" "&amp;C276&amp;" "&amp;D276&amp;" "&amp;E276</f>
+        <f t="shared" ref="F276" si="109">+A276&amp;" "&amp;B276&amp;" "&amp;C276&amp;" "&amp;D276&amp;" "&amp;E276</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G276" s="8"/>
@@ -8078,13 +8636,13 @@
       <c r="T278" s="1"/>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="15"/>
-      <c r="E279" s="15"/>
-      <c r="F279" s="17" t="str">
-        <f t="shared" ref="F279" si="87">+A279&amp;" "&amp;B279&amp;" "&amp;C279&amp;" "&amp;D279&amp;" "&amp;E279</f>
+      <c r="A279" s="19"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="21" t="str">
+        <f t="shared" ref="F279" si="110">+A279&amp;" "&amp;B279&amp;" "&amp;C279&amp;" "&amp;D279&amp;" "&amp;E279</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G279" s="8"/>
@@ -8103,12 +8661,12 @@
       <c r="T279" s="1"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="15"/>
-      <c r="E280" s="15"/>
-      <c r="F280" s="17"/>
+      <c r="A280" s="19"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+      <c r="F280" s="21"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
@@ -8125,12 +8683,12 @@
       <c r="T280" s="1"/>
     </row>
     <row r="281" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="16"/>
-      <c r="B281" s="16"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="16"/>
-      <c r="E281" s="16"/>
-      <c r="F281" s="18"/>
+      <c r="A281" s="20"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+      <c r="E281" s="20"/>
+      <c r="F281" s="22"/>
       <c r="G281" s="10"/>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
@@ -8153,7 +8711,7 @@
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="13" t="str">
-        <f t="shared" ref="F282" si="88">+A282&amp;" "&amp;B282&amp;" "&amp;C282&amp;" "&amp;D282&amp;" "&amp;E282</f>
+        <f t="shared" ref="F282" si="111">+A282&amp;" "&amp;B282&amp;" "&amp;C282&amp;" "&amp;D282&amp;" "&amp;E282</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G282" s="8"/>
@@ -8216,13 +8774,13 @@
       <c r="T284" s="1"/>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
-      <c r="E285" s="15"/>
-      <c r="F285" s="17" t="str">
-        <f t="shared" ref="F285" si="89">+A285&amp;" "&amp;B285&amp;" "&amp;C285&amp;" "&amp;D285&amp;" "&amp;E285</f>
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="21" t="str">
+        <f t="shared" ref="F285" si="112">+A285&amp;" "&amp;B285&amp;" "&amp;C285&amp;" "&amp;D285&amp;" "&amp;E285</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G285" s="8"/>
@@ -8241,12 +8799,12 @@
       <c r="T285" s="1"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="15"/>
-      <c r="E286" s="15"/>
-      <c r="F286" s="17"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="21"/>
       <c r="G286" s="9"/>
       <c r="H286" s="9"/>
       <c r="I286" s="9"/>
@@ -8263,12 +8821,12 @@
       <c r="T286" s="1"/>
     </row>
     <row r="287" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="16"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="18"/>
+      <c r="A287" s="20"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="22"/>
       <c r="G287" s="10"/>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
@@ -8291,7 +8849,7 @@
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="13" t="str">
-        <f t="shared" ref="F288" si="90">+A288&amp;" "&amp;B288&amp;" "&amp;C288&amp;" "&amp;D288&amp;" "&amp;E288</f>
+        <f t="shared" ref="F288" si="113">+A288&amp;" "&amp;B288&amp;" "&amp;C288&amp;" "&amp;D288&amp;" "&amp;E288</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G288" s="8"/>
@@ -8354,13 +8912,13 @@
       <c r="T290" s="1"/>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="15"/>
-      <c r="E291" s="15"/>
-      <c r="F291" s="17" t="str">
-        <f t="shared" ref="F291" si="91">+A291&amp;" "&amp;B291&amp;" "&amp;C291&amp;" "&amp;D291&amp;" "&amp;E291</f>
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="21" t="str">
+        <f t="shared" ref="F291" si="114">+A291&amp;" "&amp;B291&amp;" "&amp;C291&amp;" "&amp;D291&amp;" "&amp;E291</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G291" s="8"/>
@@ -8379,12 +8937,12 @@
       <c r="T291" s="1"/>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="15"/>
-      <c r="E292" s="15"/>
-      <c r="F292" s="17"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
+      <c r="F292" s="21"/>
       <c r="G292" s="9"/>
       <c r="H292" s="9"/>
       <c r="I292" s="9"/>
@@ -8401,12 +8959,12 @@
       <c r="T292" s="1"/>
     </row>
     <row r="293" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
-      <c r="F293" s="18"/>
+      <c r="A293" s="20"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="22"/>
       <c r="G293" s="10"/>
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
@@ -8429,7 +8987,7 @@
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
       <c r="F294" s="13" t="str">
-        <f t="shared" ref="F294" si="92">+A294&amp;" "&amp;B294&amp;" "&amp;C294&amp;" "&amp;D294&amp;" "&amp;E294</f>
+        <f t="shared" ref="F294" si="115">+A294&amp;" "&amp;B294&amp;" "&amp;C294&amp;" "&amp;D294&amp;" "&amp;E294</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G294" s="8"/>
@@ -8492,13 +9050,13 @@
       <c r="T296" s="1"/>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="F297" s="17" t="str">
-        <f t="shared" ref="F297" si="93">+A297&amp;" "&amp;B297&amp;" "&amp;C297&amp;" "&amp;D297&amp;" "&amp;E297</f>
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
+      <c r="F297" s="21" t="str">
+        <f t="shared" ref="F297" si="116">+A297&amp;" "&amp;B297&amp;" "&amp;C297&amp;" "&amp;D297&amp;" "&amp;E297</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G297" s="8"/>
@@ -8517,12 +9075,12 @@
       <c r="T297" s="1"/>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="F298" s="17"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="19"/>
+      <c r="E298" s="19"/>
+      <c r="F298" s="21"/>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
@@ -8539,12 +9097,12 @@
       <c r="T298" s="1"/>
     </row>
     <row r="299" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="16"/>
-      <c r="B299" s="16"/>
-      <c r="C299" s="16"/>
-      <c r="D299" s="16"/>
-      <c r="E299" s="16"/>
-      <c r="F299" s="18"/>
+      <c r="A299" s="20"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="20"/>
+      <c r="E299" s="20"/>
+      <c r="F299" s="22"/>
       <c r="G299" s="10"/>
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
@@ -8567,7 +9125,7 @@
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
       <c r="F300" s="13" t="str">
-        <f t="shared" ref="F300" si="94">+A300&amp;" "&amp;B300&amp;" "&amp;C300&amp;" "&amp;D300&amp;" "&amp;E300</f>
+        <f t="shared" ref="F300" si="117">+A300&amp;" "&amp;B300&amp;" "&amp;C300&amp;" "&amp;D300&amp;" "&amp;E300</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G300" s="8"/>
@@ -8630,13 +9188,13 @@
       <c r="T302" s="1"/>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="F303" s="17" t="str">
-        <f t="shared" ref="F303" si="95">+A303&amp;" "&amp;B303&amp;" "&amp;C303&amp;" "&amp;D303&amp;" "&amp;E303</f>
+      <c r="A303" s="19"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="19"/>
+      <c r="E303" s="19"/>
+      <c r="F303" s="21" t="str">
+        <f t="shared" ref="F303" si="118">+A303&amp;" "&amp;B303&amp;" "&amp;C303&amp;" "&amp;D303&amp;" "&amp;E303</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G303" s="8"/>
@@ -8655,12 +9213,12 @@
       <c r="T303" s="1"/>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
-      <c r="F304" s="17"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="21"/>
       <c r="G304" s="9"/>
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
@@ -8677,12 +9235,12 @@
       <c r="T304" s="1"/>
     </row>
     <row r="305" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="16"/>
-      <c r="B305" s="16"/>
-      <c r="C305" s="16"/>
-      <c r="D305" s="16"/>
-      <c r="E305" s="16"/>
-      <c r="F305" s="18"/>
+      <c r="A305" s="20"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="22"/>
       <c r="G305" s="10"/>
       <c r="H305" s="10"/>
       <c r="I305" s="10"/>
@@ -8705,7 +9263,7 @@
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="13" t="str">
-        <f t="shared" ref="F306" si="96">+A306&amp;" "&amp;B306&amp;" "&amp;C306&amp;" "&amp;D306&amp;" "&amp;E306</f>
+        <f t="shared" ref="F306" si="119">+A306&amp;" "&amp;B306&amp;" "&amp;C306&amp;" "&amp;D306&amp;" "&amp;E306</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G306" s="8"/>
@@ -8768,13 +9326,13 @@
       <c r="T308" s="1"/>
     </row>
     <row r="309" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
-      <c r="F309" s="17" t="str">
-        <f t="shared" ref="F309" si="97">+A309&amp;" "&amp;B309&amp;" "&amp;C309&amp;" "&amp;D309&amp;" "&amp;E309</f>
+      <c r="A309" s="19"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
+      <c r="F309" s="21" t="str">
+        <f t="shared" ref="F309" si="120">+A309&amp;" "&amp;B309&amp;" "&amp;C309&amp;" "&amp;D309&amp;" "&amp;E309</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G309" s="8"/>
@@ -8793,12 +9351,12 @@
       <c r="T309" s="1"/>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-      <c r="F310" s="17"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="19"/>
+      <c r="E310" s="19"/>
+      <c r="F310" s="21"/>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
@@ -8815,12 +9373,12 @@
       <c r="T310" s="1"/>
     </row>
     <row r="311" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="16"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-      <c r="D311" s="16"/>
-      <c r="E311" s="16"/>
-      <c r="F311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="20"/>
+      <c r="F311" s="22"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
@@ -8843,7 +9401,7 @@
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
       <c r="F312" s="13" t="str">
-        <f t="shared" ref="F312" si="98">+A312&amp;" "&amp;B312&amp;" "&amp;C312&amp;" "&amp;D312&amp;" "&amp;E312</f>
+        <f t="shared" ref="F312" si="121">+A312&amp;" "&amp;B312&amp;" "&amp;C312&amp;" "&amp;D312&amp;" "&amp;E312</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G312" s="8"/>
@@ -8906,13 +9464,13 @@
       <c r="T314" s="1"/>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-      <c r="F315" s="17" t="str">
-        <f t="shared" ref="F315" si="99">+A315&amp;" "&amp;B315&amp;" "&amp;C315&amp;" "&amp;D315&amp;" "&amp;E315</f>
+      <c r="A315" s="19"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="19"/>
+      <c r="E315" s="19"/>
+      <c r="F315" s="21" t="str">
+        <f t="shared" ref="F315" si="122">+A315&amp;" "&amp;B315&amp;" "&amp;C315&amp;" "&amp;D315&amp;" "&amp;E315</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G315" s="8"/>
@@ -8931,12 +9489,12 @@
       <c r="T315" s="1"/>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A316" s="15"/>
-      <c r="B316" s="15"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="15"/>
-      <c r="E316" s="15"/>
-      <c r="F316" s="17"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="19"/>
+      <c r="E316" s="19"/>
+      <c r="F316" s="21"/>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
       <c r="I316" s="9"/>
@@ -8953,12 +9511,12 @@
       <c r="T316" s="1"/>
     </row>
     <row r="317" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="16"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="16"/>
-      <c r="D317" s="16"/>
-      <c r="E317" s="16"/>
-      <c r="F317" s="18"/>
+      <c r="A317" s="20"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
+      <c r="D317" s="20"/>
+      <c r="E317" s="20"/>
+      <c r="F317" s="22"/>
       <c r="G317" s="10"/>
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
@@ -8981,7 +9539,7 @@
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
       <c r="F318" s="13" t="str">
-        <f t="shared" ref="F318" si="100">+A318&amp;" "&amp;B318&amp;" "&amp;C318&amp;" "&amp;D318&amp;" "&amp;E318</f>
+        <f t="shared" ref="F318" si="123">+A318&amp;" "&amp;B318&amp;" "&amp;C318&amp;" "&amp;D318&amp;" "&amp;E318</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G318" s="8"/>
@@ -9044,13 +9602,13 @@
       <c r="T320" s="1"/>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A321" s="15"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="15"/>
-      <c r="D321" s="15"/>
-      <c r="E321" s="15"/>
-      <c r="F321" s="17" t="str">
-        <f t="shared" ref="F321" si="101">+A321&amp;" "&amp;B321&amp;" "&amp;C321&amp;" "&amp;D321&amp;" "&amp;E321</f>
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
+      <c r="E321" s="19"/>
+      <c r="F321" s="21" t="str">
+        <f t="shared" ref="F321" si="124">+A321&amp;" "&amp;B321&amp;" "&amp;C321&amp;" "&amp;D321&amp;" "&amp;E321</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G321" s="8"/>
@@ -9069,12 +9627,12 @@
       <c r="T321" s="1"/>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="15"/>
-      <c r="E322" s="15"/>
-      <c r="F322" s="17"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="19"/>
+      <c r="E322" s="19"/>
+      <c r="F322" s="21"/>
       <c r="G322" s="9"/>
       <c r="H322" s="9"/>
       <c r="I322" s="9"/>
@@ -9091,12 +9649,12 @@
       <c r="T322" s="1"/>
     </row>
     <row r="323" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="16"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="16"/>
-      <c r="D323" s="16"/>
-      <c r="E323" s="16"/>
-      <c r="F323" s="18"/>
+      <c r="A323" s="20"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="20"/>
+      <c r="F323" s="22"/>
       <c r="G323" s="10"/>
       <c r="H323" s="10"/>
       <c r="I323" s="10"/>
@@ -9119,7 +9677,7 @@
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
       <c r="F324" s="13" t="str">
-        <f t="shared" ref="F324" si="102">+A324&amp;" "&amp;B324&amp;" "&amp;C324&amp;" "&amp;D324&amp;" "&amp;E324</f>
+        <f t="shared" ref="F324" si="125">+A324&amp;" "&amp;B324&amp;" "&amp;C324&amp;" "&amp;D324&amp;" "&amp;E324</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G324" s="8"/>
@@ -9182,13 +9740,13 @@
       <c r="T326" s="1"/>
     </row>
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="15"/>
-      <c r="F327" s="17" t="str">
-        <f t="shared" ref="F327" si="103">+A327&amp;" "&amp;B327&amp;" "&amp;C327&amp;" "&amp;D327&amp;" "&amp;E327</f>
+      <c r="A327" s="19"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="21" t="str">
+        <f t="shared" ref="F327" si="126">+A327&amp;" "&amp;B327&amp;" "&amp;C327&amp;" "&amp;D327&amp;" "&amp;E327</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G327" s="8"/>
@@ -9207,12 +9765,12 @@
       <c r="T327" s="1"/>
     </row>
     <row r="328" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
-      <c r="E328" s="15"/>
-      <c r="F328" s="17"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="21"/>
       <c r="G328" s="9"/>
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
@@ -9229,12 +9787,12 @@
       <c r="T328" s="1"/>
     </row>
     <row r="329" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="16"/>
-      <c r="B329" s="16"/>
-      <c r="C329" s="16"/>
-      <c r="D329" s="16"/>
-      <c r="E329" s="16"/>
-      <c r="F329" s="18"/>
+      <c r="A329" s="20"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="20"/>
+      <c r="F329" s="22"/>
       <c r="G329" s="10"/>
       <c r="H329" s="10"/>
       <c r="I329" s="10"/>
@@ -9257,7 +9815,7 @@
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
       <c r="F330" s="13" t="str">
-        <f t="shared" ref="F330" si="104">+A330&amp;" "&amp;B330&amp;" "&amp;C330&amp;" "&amp;D330&amp;" "&amp;E330</f>
+        <f t="shared" ref="F330" si="127">+A330&amp;" "&amp;B330&amp;" "&amp;C330&amp;" "&amp;D330&amp;" "&amp;E330</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G330" s="8"/>
@@ -9320,13 +9878,13 @@
       <c r="T332" s="1"/>
     </row>
     <row r="333" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="15"/>
-      <c r="E333" s="15"/>
-      <c r="F333" s="17" t="str">
-        <f t="shared" ref="F333" si="105">+A333&amp;" "&amp;B333&amp;" "&amp;C333&amp;" "&amp;D333&amp;" "&amp;E333</f>
+      <c r="A333" s="19"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="21" t="str">
+        <f t="shared" ref="F333" si="128">+A333&amp;" "&amp;B333&amp;" "&amp;C333&amp;" "&amp;D333&amp;" "&amp;E333</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G333" s="8"/>
@@ -9345,12 +9903,12 @@
       <c r="T333" s="1"/>
     </row>
     <row r="334" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="15"/>
-      <c r="F334" s="17"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
+      <c r="E334" s="19"/>
+      <c r="F334" s="21"/>
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
@@ -9367,12 +9925,12 @@
       <c r="T334" s="1"/>
     </row>
     <row r="335" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="16"/>
-      <c r="B335" s="16"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="18"/>
+      <c r="A335" s="20"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="20"/>
+      <c r="F335" s="22"/>
       <c r="G335" s="10"/>
       <c r="H335" s="10"/>
       <c r="I335" s="10"/>
@@ -9395,7 +9953,7 @@
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
       <c r="F336" s="13" t="str">
-        <f t="shared" ref="F336" si="106">+A336&amp;" "&amp;B336&amp;" "&amp;C336&amp;" "&amp;D336&amp;" "&amp;E336</f>
+        <f t="shared" ref="F336" si="129">+A336&amp;" "&amp;B336&amp;" "&amp;C336&amp;" "&amp;D336&amp;" "&amp;E336</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G336" s="8"/>
@@ -9458,13 +10016,13 @@
       <c r="T338" s="1"/>
     </row>
     <row r="339" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
-      <c r="F339" s="17" t="str">
-        <f t="shared" ref="F339" si="107">+A339&amp;" "&amp;B339&amp;" "&amp;C339&amp;" "&amp;D339&amp;" "&amp;E339</f>
+      <c r="A339" s="19"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="19"/>
+      <c r="E339" s="19"/>
+      <c r="F339" s="21" t="str">
+        <f t="shared" ref="F339" si="130">+A339&amp;" "&amp;B339&amp;" "&amp;C339&amp;" "&amp;D339&amp;" "&amp;E339</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G339" s="8"/>
@@ -9483,12 +10041,12 @@
       <c r="T339" s="1"/>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A340" s="15"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="15"/>
-      <c r="F340" s="17"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="19"/>
+      <c r="D340" s="19"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="21"/>
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
       <c r="I340" s="9"/>
@@ -9505,12 +10063,12 @@
       <c r="T340" s="1"/>
     </row>
     <row r="341" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="16"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="16"/>
-      <c r="D341" s="16"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="18"/>
+      <c r="A341" s="20"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="20"/>
+      <c r="E341" s="20"/>
+      <c r="F341" s="22"/>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
       <c r="I341" s="10"/>
@@ -9533,7 +10091,7 @@
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
       <c r="F342" s="13" t="str">
-        <f t="shared" ref="F342" si="108">+A342&amp;" "&amp;B342&amp;" "&amp;C342&amp;" "&amp;D342&amp;" "&amp;E342</f>
+        <f t="shared" ref="F342" si="131">+A342&amp;" "&amp;B342&amp;" "&amp;C342&amp;" "&amp;D342&amp;" "&amp;E342</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G342" s="8"/>
@@ -9596,13 +10154,13 @@
       <c r="T344" s="1"/>
     </row>
     <row r="345" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="17" t="str">
-        <f t="shared" ref="F345" si="109">+A345&amp;" "&amp;B345&amp;" "&amp;C345&amp;" "&amp;D345&amp;" "&amp;E345</f>
+      <c r="A345" s="19"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="19"/>
+      <c r="D345" s="19"/>
+      <c r="E345" s="19"/>
+      <c r="F345" s="21" t="str">
+        <f t="shared" ref="F345" si="132">+A345&amp;" "&amp;B345&amp;" "&amp;C345&amp;" "&amp;D345&amp;" "&amp;E345</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G345" s="8"/>
@@ -9621,12 +10179,12 @@
       <c r="T345" s="1"/>
     </row>
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="15"/>
-      <c r="E346" s="15"/>
-      <c r="F346" s="17"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="19"/>
+      <c r="E346" s="19"/>
+      <c r="F346" s="21"/>
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
       <c r="I346" s="9"/>
@@ -9643,12 +10201,12 @@
       <c r="T346" s="1"/>
     </row>
     <row r="347" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="16"/>
-      <c r="B347" s="16"/>
-      <c r="C347" s="16"/>
-      <c r="D347" s="16"/>
-      <c r="E347" s="16"/>
-      <c r="F347" s="18"/>
+      <c r="A347" s="20"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
+      <c r="E347" s="20"/>
+      <c r="F347" s="22"/>
       <c r="G347" s="10"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
@@ -9671,7 +10229,7 @@
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
       <c r="F348" s="13" t="str">
-        <f t="shared" ref="F348" si="110">+A348&amp;" "&amp;B348&amp;" "&amp;C348&amp;" "&amp;D348&amp;" "&amp;E348</f>
+        <f t="shared" ref="F348" si="133">+A348&amp;" "&amp;B348&amp;" "&amp;C348&amp;" "&amp;D348&amp;" "&amp;E348</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G348" s="8"/>
@@ -9734,13 +10292,13 @@
       <c r="T350" s="1"/>
     </row>
     <row r="351" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="15"/>
-      <c r="F351" s="17" t="str">
-        <f t="shared" ref="F351" si="111">+A351&amp;" "&amp;B351&amp;" "&amp;C351&amp;" "&amp;D351&amp;" "&amp;E351</f>
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="19"/>
+      <c r="E351" s="19"/>
+      <c r="F351" s="21" t="str">
+        <f t="shared" ref="F351" si="134">+A351&amp;" "&amp;B351&amp;" "&amp;C351&amp;" "&amp;D351&amp;" "&amp;E351</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G351" s="8"/>
@@ -9759,12 +10317,12 @@
       <c r="T351" s="1"/>
     </row>
     <row r="352" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="15"/>
-      <c r="F352" s="17"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
+      <c r="D352" s="19"/>
+      <c r="E352" s="19"/>
+      <c r="F352" s="21"/>
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
       <c r="I352" s="9"/>
@@ -9781,12 +10339,12 @@
       <c r="T352" s="1"/>
     </row>
     <row r="353" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="16"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="16"/>
-      <c r="F353" s="18"/>
+      <c r="A353" s="20"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="20"/>
+      <c r="E353" s="20"/>
+      <c r="F353" s="22"/>
       <c r="G353" s="10"/>
       <c r="H353" s="10"/>
       <c r="I353" s="10"/>
@@ -9809,7 +10367,7 @@
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
       <c r="F354" s="13" t="str">
-        <f t="shared" ref="F354" si="112">+A354&amp;" "&amp;B354&amp;" "&amp;C354&amp;" "&amp;D354&amp;" "&amp;E354</f>
+        <f t="shared" ref="F354" si="135">+A354&amp;" "&amp;B354&amp;" "&amp;C354&amp;" "&amp;D354&amp;" "&amp;E354</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G354" s="8"/>
@@ -9872,13 +10430,13 @@
       <c r="T356" s="1"/>
     </row>
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="15"/>
-      <c r="E357" s="15"/>
-      <c r="F357" s="17" t="str">
-        <f t="shared" ref="F357" si="113">+A357&amp;" "&amp;B357&amp;" "&amp;C357&amp;" "&amp;D357&amp;" "&amp;E357</f>
+      <c r="A357" s="19"/>
+      <c r="B357" s="19"/>
+      <c r="C357" s="19"/>
+      <c r="D357" s="19"/>
+      <c r="E357" s="19"/>
+      <c r="F357" s="21" t="str">
+        <f t="shared" ref="F357" si="136">+A357&amp;" "&amp;B357&amp;" "&amp;C357&amp;" "&amp;D357&amp;" "&amp;E357</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G357" s="8"/>
@@ -9897,12 +10455,12 @@
       <c r="T357" s="1"/>
     </row>
     <row r="358" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
-      <c r="C358" s="15"/>
-      <c r="D358" s="15"/>
-      <c r="E358" s="15"/>
-      <c r="F358" s="17"/>
+      <c r="A358" s="19"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="19"/>
+      <c r="D358" s="19"/>
+      <c r="E358" s="19"/>
+      <c r="F358" s="21"/>
       <c r="G358" s="9"/>
       <c r="H358" s="9"/>
       <c r="I358" s="9"/>
@@ -9919,12 +10477,12 @@
       <c r="T358" s="1"/>
     </row>
     <row r="359" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="16"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="16"/>
-      <c r="F359" s="18"/>
+      <c r="A359" s="20"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
+      <c r="D359" s="20"/>
+      <c r="E359" s="20"/>
+      <c r="F359" s="22"/>
       <c r="G359" s="10"/>
       <c r="H359" s="10"/>
       <c r="I359" s="10"/>
@@ -9947,7 +10505,7 @@
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
       <c r="F360" s="13" t="str">
-        <f t="shared" ref="F360" si="114">+A360&amp;" "&amp;B360&amp;" "&amp;C360&amp;" "&amp;D360&amp;" "&amp;E360</f>
+        <f t="shared" ref="F360" si="137">+A360&amp;" "&amp;B360&amp;" "&amp;C360&amp;" "&amp;D360&amp;" "&amp;E360</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G360" s="8"/>
@@ -10010,13 +10568,13 @@
       <c r="T362" s="1"/>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="15"/>
-      <c r="E363" s="15"/>
-      <c r="F363" s="17" t="str">
-        <f t="shared" ref="F363" si="115">+A363&amp;" "&amp;B363&amp;" "&amp;C363&amp;" "&amp;D363&amp;" "&amp;E363</f>
+      <c r="A363" s="19"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="19"/>
+      <c r="D363" s="19"/>
+      <c r="E363" s="19"/>
+      <c r="F363" s="21" t="str">
+        <f t="shared" ref="F363" si="138">+A363&amp;" "&amp;B363&amp;" "&amp;C363&amp;" "&amp;D363&amp;" "&amp;E363</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G363" s="8"/>
@@ -10035,12 +10593,12 @@
       <c r="T363" s="1"/>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="15"/>
-      <c r="E364" s="15"/>
-      <c r="F364" s="17"/>
+      <c r="A364" s="19"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="19"/>
+      <c r="E364" s="19"/>
+      <c r="F364" s="21"/>
       <c r="G364" s="9"/>
       <c r="H364" s="9"/>
       <c r="I364" s="9"/>
@@ -10057,12 +10615,12 @@
       <c r="T364" s="1"/>
     </row>
     <row r="365" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="16"/>
-      <c r="B365" s="16"/>
-      <c r="C365" s="16"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="16"/>
-      <c r="F365" s="18"/>
+      <c r="A365" s="20"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
+      <c r="D365" s="20"/>
+      <c r="E365" s="20"/>
+      <c r="F365" s="22"/>
       <c r="G365" s="10"/>
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
@@ -10085,7 +10643,7 @@
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
       <c r="F366" s="13" t="str">
-        <f t="shared" ref="F366" si="116">+A366&amp;" "&amp;B366&amp;" "&amp;C366&amp;" "&amp;D366&amp;" "&amp;E366</f>
+        <f t="shared" ref="F366" si="139">+A366&amp;" "&amp;B366&amp;" "&amp;C366&amp;" "&amp;D366&amp;" "&amp;E366</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G366" s="8"/>
@@ -10148,13 +10706,13 @@
       <c r="T368" s="1"/>
     </row>
     <row r="369" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="15"/>
-      <c r="E369" s="15"/>
-      <c r="F369" s="17" t="str">
-        <f t="shared" ref="F369" si="117">+A369&amp;" "&amp;B369&amp;" "&amp;C369&amp;" "&amp;D369&amp;" "&amp;E369</f>
+      <c r="A369" s="19"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="19"/>
+      <c r="D369" s="19"/>
+      <c r="E369" s="19"/>
+      <c r="F369" s="21" t="str">
+        <f t="shared" ref="F369" si="140">+A369&amp;" "&amp;B369&amp;" "&amp;C369&amp;" "&amp;D369&amp;" "&amp;E369</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G369" s="8"/>
@@ -10173,12 +10731,12 @@
       <c r="T369" s="1"/>
     </row>
     <row r="370" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
-      <c r="E370" s="15"/>
-      <c r="F370" s="17"/>
+      <c r="A370" s="19"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="19"/>
+      <c r="E370" s="19"/>
+      <c r="F370" s="21"/>
       <c r="G370" s="9"/>
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
@@ -10195,12 +10753,12 @@
       <c r="T370" s="1"/>
     </row>
     <row r="371" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="16"/>
-      <c r="B371" s="16"/>
-      <c r="C371" s="16"/>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16"/>
-      <c r="F371" s="18"/>
+      <c r="A371" s="20"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
+      <c r="D371" s="20"/>
+      <c r="E371" s="20"/>
+      <c r="F371" s="22"/>
       <c r="G371" s="10"/>
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
@@ -10223,7 +10781,7 @@
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
       <c r="F372" s="13" t="str">
-        <f t="shared" ref="F372" si="118">+A372&amp;" "&amp;B372&amp;" "&amp;C372&amp;" "&amp;D372&amp;" "&amp;E372</f>
+        <f t="shared" ref="F372" si="141">+A372&amp;" "&amp;B372&amp;" "&amp;C372&amp;" "&amp;D372&amp;" "&amp;E372</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G372" s="8"/>
@@ -10286,13 +10844,13 @@
       <c r="T374" s="1"/>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
-      <c r="C375" s="15"/>
-      <c r="D375" s="15"/>
-      <c r="E375" s="15"/>
-      <c r="F375" s="17" t="str">
-        <f t="shared" ref="F375" si="119">+A375&amp;" "&amp;B375&amp;" "&amp;C375&amp;" "&amp;D375&amp;" "&amp;E375</f>
+      <c r="A375" s="19"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="19"/>
+      <c r="D375" s="19"/>
+      <c r="E375" s="19"/>
+      <c r="F375" s="21" t="str">
+        <f t="shared" ref="F375" si="142">+A375&amp;" "&amp;B375&amp;" "&amp;C375&amp;" "&amp;D375&amp;" "&amp;E375</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G375" s="8"/>
@@ -10311,12 +10869,12 @@
       <c r="T375" s="1"/>
     </row>
     <row r="376" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
-      <c r="E376" s="15"/>
-      <c r="F376" s="17"/>
+      <c r="A376" s="19"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="19"/>
+      <c r="D376" s="19"/>
+      <c r="E376" s="19"/>
+      <c r="F376" s="21"/>
       <c r="G376" s="9"/>
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
@@ -10333,12 +10891,12 @@
       <c r="T376" s="1"/>
     </row>
     <row r="377" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="16"/>
-      <c r="B377" s="16"/>
-      <c r="C377" s="16"/>
-      <c r="D377" s="16"/>
-      <c r="E377" s="16"/>
-      <c r="F377" s="18"/>
+      <c r="A377" s="20"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
+      <c r="D377" s="20"/>
+      <c r="E377" s="20"/>
+      <c r="F377" s="22"/>
       <c r="G377" s="10"/>
       <c r="H377" s="10"/>
       <c r="I377" s="10"/>
@@ -10361,7 +10919,7 @@
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
       <c r="F378" s="13" t="str">
-        <f t="shared" ref="F378" si="120">+A378&amp;" "&amp;B378&amp;" "&amp;C378&amp;" "&amp;D378&amp;" "&amp;E378</f>
+        <f t="shared" ref="F378" si="143">+A378&amp;" "&amp;B378&amp;" "&amp;C378&amp;" "&amp;D378&amp;" "&amp;E378</f>
         <v xml:space="preserve">    </v>
       </c>
       <c r="G378" s="8"/>
@@ -10424,12 +10982,12 @@
       <c r="T380" s="1"/>
     </row>
     <row r="381" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A381" s="15"/>
-      <c r="B381" s="15"/>
-      <c r="C381" s="15"/>
-      <c r="D381" s="15"/>
-      <c r="E381" s="15"/>
-      <c r="F381" s="17" t="str">
+      <c r="A381" s="19"/>
+      <c r="B381" s="19"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="19"/>
+      <c r="E381" s="19"/>
+      <c r="F381" s="21" t="str">
         <f>+A381&amp;" "&amp;B381&amp;" "&amp;C381&amp;" "&amp;D381&amp;" "&amp;E381</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10449,12 +11007,12 @@
       <c r="T381" s="1"/>
     </row>
     <row r="382" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A382" s="15"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="15"/>
-      <c r="D382" s="15"/>
-      <c r="E382" s="15"/>
-      <c r="F382" s="17"/>
+      <c r="A382" s="19"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="21"/>
       <c r="G382" s="9"/>
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
@@ -10471,12 +11029,12 @@
       <c r="T382" s="1"/>
     </row>
     <row r="383" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="16"/>
-      <c r="B383" s="16"/>
-      <c r="C383" s="16"/>
-      <c r="D383" s="16"/>
-      <c r="E383" s="16"/>
-      <c r="F383" s="18"/>
+      <c r="A383" s="20"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
+      <c r="D383" s="20"/>
+      <c r="E383" s="20"/>
+      <c r="F383" s="22"/>
       <c r="G383" s="10"/>
       <c r="H383" s="10"/>
       <c r="I383" s="10"/>
@@ -10563,748 +11121,18 @@
     </row>
   </sheetData>
   <mergeCells count="776">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="F195:F197"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="F207:F209"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="F210:F212"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="D231:D233"/>
-    <mergeCell ref="E231:E233"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="D225:D227"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="D243:D245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="D237:D239"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="D234:D236"/>
-    <mergeCell ref="E234:E236"/>
-    <mergeCell ref="F234:F236"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="E255:E257"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="C249:C251"/>
-    <mergeCell ref="D249:D251"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="D267:D269"/>
-    <mergeCell ref="E267:E269"/>
-    <mergeCell ref="F267:F269"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="D261:D263"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="E258:E260"/>
-    <mergeCell ref="F258:F260"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="D279:D281"/>
-    <mergeCell ref="E279:E281"/>
-    <mergeCell ref="F279:F281"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="C273:C275"/>
-    <mergeCell ref="D273:D275"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="D291:D293"/>
-    <mergeCell ref="E291:E293"/>
-    <mergeCell ref="F291:F293"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="D285:D287"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="C282:C284"/>
-    <mergeCell ref="D282:D284"/>
-    <mergeCell ref="E282:E284"/>
-    <mergeCell ref="F282:F284"/>
-    <mergeCell ref="A303:A305"/>
-    <mergeCell ref="B303:B305"/>
-    <mergeCell ref="C303:C305"/>
-    <mergeCell ref="D303:D305"/>
-    <mergeCell ref="E303:E305"/>
-    <mergeCell ref="F303:F305"/>
-    <mergeCell ref="A297:A299"/>
-    <mergeCell ref="B297:B299"/>
-    <mergeCell ref="C297:C299"/>
-    <mergeCell ref="D297:D299"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="D315:D317"/>
-    <mergeCell ref="E315:E317"/>
-    <mergeCell ref="F315:F317"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="B309:B311"/>
-    <mergeCell ref="C309:C311"/>
-    <mergeCell ref="D309:D311"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="B306:B308"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="D306:D308"/>
-    <mergeCell ref="E306:E308"/>
-    <mergeCell ref="F306:F308"/>
-    <mergeCell ref="A327:A329"/>
-    <mergeCell ref="B327:B329"/>
-    <mergeCell ref="C327:C329"/>
-    <mergeCell ref="D327:D329"/>
-    <mergeCell ref="E327:E329"/>
-    <mergeCell ref="F327:F329"/>
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="B321:B323"/>
-    <mergeCell ref="C321:C323"/>
-    <mergeCell ref="D321:D323"/>
-    <mergeCell ref="C339:C341"/>
-    <mergeCell ref="D339:D341"/>
-    <mergeCell ref="E339:E341"/>
-    <mergeCell ref="F339:F341"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="B333:B335"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="D333:D335"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="B330:B332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="D330:D332"/>
-    <mergeCell ref="E330:E332"/>
-    <mergeCell ref="F330:F332"/>
-    <mergeCell ref="A351:A353"/>
-    <mergeCell ref="B351:B353"/>
-    <mergeCell ref="C351:C353"/>
-    <mergeCell ref="D351:D353"/>
-    <mergeCell ref="E351:E353"/>
-    <mergeCell ref="F351:F353"/>
-    <mergeCell ref="A345:A347"/>
-    <mergeCell ref="B345:B347"/>
-    <mergeCell ref="C345:C347"/>
-    <mergeCell ref="D345:D347"/>
-    <mergeCell ref="C363:C365"/>
-    <mergeCell ref="D363:D365"/>
-    <mergeCell ref="E363:E365"/>
-    <mergeCell ref="F363:F365"/>
-    <mergeCell ref="A357:A359"/>
-    <mergeCell ref="B357:B359"/>
-    <mergeCell ref="C357:C359"/>
-    <mergeCell ref="D357:D359"/>
-    <mergeCell ref="A354:A356"/>
-    <mergeCell ref="B354:B356"/>
-    <mergeCell ref="C354:C356"/>
-    <mergeCell ref="D354:D356"/>
-    <mergeCell ref="E354:E356"/>
-    <mergeCell ref="F354:F356"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A378:A380"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="E378:E380"/>
-    <mergeCell ref="F378:F380"/>
-    <mergeCell ref="A375:A377"/>
-    <mergeCell ref="B375:B377"/>
-    <mergeCell ref="C375:C377"/>
-    <mergeCell ref="D375:D377"/>
-    <mergeCell ref="E375:E377"/>
-    <mergeCell ref="F375:F377"/>
-    <mergeCell ref="A369:A371"/>
-    <mergeCell ref="B369:B371"/>
-    <mergeCell ref="C369:C371"/>
-    <mergeCell ref="D369:D371"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="F201:F203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="E204:E206"/>
-    <mergeCell ref="F204:F206"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="F198:F200"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="E225:E227"/>
-    <mergeCell ref="F225:F227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="F216:F218"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="F222:F224"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="E249:E251"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="D252:D254"/>
-    <mergeCell ref="E252:E254"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="F237:F239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="E240:E242"/>
-    <mergeCell ref="F240:F242"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="D246:D248"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="F246:F248"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="E273:E275"/>
-    <mergeCell ref="F273:F275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="B276:B278"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="E276:E278"/>
-    <mergeCell ref="F276:F278"/>
-    <mergeCell ref="E261:E263"/>
-    <mergeCell ref="F261:F263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:D266"/>
-    <mergeCell ref="E264:E266"/>
-    <mergeCell ref="F264:F266"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="C270:C272"/>
-    <mergeCell ref="D270:D272"/>
-    <mergeCell ref="E270:E272"/>
-    <mergeCell ref="F270:F272"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="E297:E299"/>
-    <mergeCell ref="F297:F299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="C300:C302"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="F300:F302"/>
-    <mergeCell ref="E285:E287"/>
-    <mergeCell ref="F285:F287"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="D288:D290"/>
-    <mergeCell ref="E288:E290"/>
-    <mergeCell ref="F288:F290"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="E294:E296"/>
-    <mergeCell ref="F294:F296"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="E321:E323"/>
-    <mergeCell ref="F321:F323"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="B324:B326"/>
-    <mergeCell ref="C324:C326"/>
-    <mergeCell ref="D324:D326"/>
-    <mergeCell ref="E324:E326"/>
-    <mergeCell ref="F324:F326"/>
-    <mergeCell ref="E309:E311"/>
-    <mergeCell ref="F309:F311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="B312:B314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="D312:D314"/>
-    <mergeCell ref="E312:E314"/>
-    <mergeCell ref="F312:F314"/>
-    <mergeCell ref="A318:A320"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="E318:E320"/>
-    <mergeCell ref="F318:F320"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="B315:B317"/>
-    <mergeCell ref="E345:E347"/>
-    <mergeCell ref="F345:F347"/>
-    <mergeCell ref="A348:A350"/>
-    <mergeCell ref="B348:B350"/>
-    <mergeCell ref="C348:C350"/>
-    <mergeCell ref="D348:D350"/>
-    <mergeCell ref="E348:E350"/>
-    <mergeCell ref="F348:F350"/>
-    <mergeCell ref="E333:E335"/>
-    <mergeCell ref="F333:F335"/>
-    <mergeCell ref="A336:A338"/>
-    <mergeCell ref="B336:B338"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="E336:E338"/>
-    <mergeCell ref="F336:F338"/>
-    <mergeCell ref="A342:A344"/>
-    <mergeCell ref="B342:B344"/>
-    <mergeCell ref="C342:C344"/>
-    <mergeCell ref="D342:D344"/>
-    <mergeCell ref="E342:E344"/>
-    <mergeCell ref="F342:F344"/>
-    <mergeCell ref="A339:A341"/>
-    <mergeCell ref="B339:B341"/>
-    <mergeCell ref="E369:E371"/>
-    <mergeCell ref="F369:F371"/>
+    <mergeCell ref="A384:A386"/>
+    <mergeCell ref="B384:B386"/>
+    <mergeCell ref="C384:C386"/>
+    <mergeCell ref="D384:D386"/>
+    <mergeCell ref="E384:E386"/>
+    <mergeCell ref="F384:F386"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="B381:B383"/>
+    <mergeCell ref="C381:C383"/>
+    <mergeCell ref="D381:D383"/>
+    <mergeCell ref="E381:E383"/>
+    <mergeCell ref="F381:F383"/>
     <mergeCell ref="A372:A374"/>
     <mergeCell ref="B372:B374"/>
     <mergeCell ref="C372:C374"/>
@@ -11327,18 +11155,748 @@
     <mergeCell ref="F366:F368"/>
     <mergeCell ref="A363:A365"/>
     <mergeCell ref="B363:B365"/>
-    <mergeCell ref="A384:A386"/>
-    <mergeCell ref="B384:B386"/>
-    <mergeCell ref="C384:C386"/>
-    <mergeCell ref="D384:D386"/>
-    <mergeCell ref="E384:E386"/>
-    <mergeCell ref="F384:F386"/>
-    <mergeCell ref="A381:A383"/>
-    <mergeCell ref="B381:B383"/>
-    <mergeCell ref="C381:C383"/>
-    <mergeCell ref="D381:D383"/>
-    <mergeCell ref="E381:E383"/>
-    <mergeCell ref="F381:F383"/>
+    <mergeCell ref="A342:A344"/>
+    <mergeCell ref="B342:B344"/>
+    <mergeCell ref="C342:C344"/>
+    <mergeCell ref="D342:D344"/>
+    <mergeCell ref="E342:E344"/>
+    <mergeCell ref="F342:F344"/>
+    <mergeCell ref="A339:A341"/>
+    <mergeCell ref="B339:B341"/>
+    <mergeCell ref="E369:E371"/>
+    <mergeCell ref="F369:F371"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="F294:F296"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="E321:E323"/>
+    <mergeCell ref="F321:F323"/>
+    <mergeCell ref="E309:E311"/>
+    <mergeCell ref="F309:F311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="D312:D314"/>
+    <mergeCell ref="E312:E314"/>
+    <mergeCell ref="F312:F314"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="E318:E320"/>
+    <mergeCell ref="F318:F320"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="D246:D248"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="F246:F248"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="E273:E275"/>
+    <mergeCell ref="F273:F275"/>
+    <mergeCell ref="E261:E263"/>
+    <mergeCell ref="F261:F263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:D266"/>
+    <mergeCell ref="E264:E266"/>
+    <mergeCell ref="F264:F266"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="D270:D272"/>
+    <mergeCell ref="E270:E272"/>
+    <mergeCell ref="F270:F272"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="F198:F200"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="F225:F227"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="F216:F218"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="F222:F224"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A369:A371"/>
+    <mergeCell ref="B369:B371"/>
+    <mergeCell ref="C369:C371"/>
+    <mergeCell ref="D369:D371"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="A378:A380"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="E378:E380"/>
+    <mergeCell ref="F378:F380"/>
+    <mergeCell ref="A375:A377"/>
+    <mergeCell ref="B375:B377"/>
+    <mergeCell ref="C375:C377"/>
+    <mergeCell ref="D375:D377"/>
+    <mergeCell ref="E375:E377"/>
+    <mergeCell ref="F375:F377"/>
+    <mergeCell ref="C363:C365"/>
+    <mergeCell ref="D363:D365"/>
+    <mergeCell ref="E363:E365"/>
+    <mergeCell ref="F363:F365"/>
+    <mergeCell ref="A357:A359"/>
+    <mergeCell ref="B357:B359"/>
+    <mergeCell ref="C357:C359"/>
+    <mergeCell ref="D357:D359"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="B354:B356"/>
+    <mergeCell ref="C354:C356"/>
+    <mergeCell ref="D354:D356"/>
+    <mergeCell ref="E354:E356"/>
+    <mergeCell ref="F354:F356"/>
+    <mergeCell ref="A351:A353"/>
+    <mergeCell ref="B351:B353"/>
+    <mergeCell ref="C351:C353"/>
+    <mergeCell ref="D351:D353"/>
+    <mergeCell ref="E351:E353"/>
+    <mergeCell ref="F351:F353"/>
+    <mergeCell ref="A345:A347"/>
+    <mergeCell ref="B345:B347"/>
+    <mergeCell ref="C345:C347"/>
+    <mergeCell ref="D345:D347"/>
+    <mergeCell ref="E345:E347"/>
+    <mergeCell ref="F345:F347"/>
+    <mergeCell ref="A348:A350"/>
+    <mergeCell ref="B348:B350"/>
+    <mergeCell ref="C348:C350"/>
+    <mergeCell ref="D348:D350"/>
+    <mergeCell ref="E348:E350"/>
+    <mergeCell ref="F348:F350"/>
+    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="D339:D341"/>
+    <mergeCell ref="E339:E341"/>
+    <mergeCell ref="F339:F341"/>
+    <mergeCell ref="A333:A335"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="D333:D335"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="B330:B332"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="D330:D332"/>
+    <mergeCell ref="E330:E332"/>
+    <mergeCell ref="F330:F332"/>
+    <mergeCell ref="E333:E335"/>
+    <mergeCell ref="F333:F335"/>
+    <mergeCell ref="A336:A338"/>
+    <mergeCell ref="B336:B338"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="E336:E338"/>
+    <mergeCell ref="F336:F338"/>
+    <mergeCell ref="A327:A329"/>
+    <mergeCell ref="B327:B329"/>
+    <mergeCell ref="C327:C329"/>
+    <mergeCell ref="D327:D329"/>
+    <mergeCell ref="E327:E329"/>
+    <mergeCell ref="F327:F329"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:B323"/>
+    <mergeCell ref="C321:C323"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="B324:B326"/>
+    <mergeCell ref="C324:C326"/>
+    <mergeCell ref="D324:D326"/>
+    <mergeCell ref="E324:E326"/>
+    <mergeCell ref="F324:F326"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="D315:D317"/>
+    <mergeCell ref="E315:E317"/>
+    <mergeCell ref="F315:F317"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="D309:D311"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="D306:D308"/>
+    <mergeCell ref="E306:E308"/>
+    <mergeCell ref="F306:F308"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="B315:B317"/>
+    <mergeCell ref="A303:A305"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="C303:C305"/>
+    <mergeCell ref="D303:D305"/>
+    <mergeCell ref="E303:E305"/>
+    <mergeCell ref="F303:F305"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="C297:C299"/>
+    <mergeCell ref="D297:D299"/>
+    <mergeCell ref="E297:E299"/>
+    <mergeCell ref="F297:F299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="F300:F302"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="D291:D293"/>
+    <mergeCell ref="E291:E293"/>
+    <mergeCell ref="F291:F293"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="D285:D287"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="C282:C284"/>
+    <mergeCell ref="D282:D284"/>
+    <mergeCell ref="E282:E284"/>
+    <mergeCell ref="F282:F284"/>
+    <mergeCell ref="E285:E287"/>
+    <mergeCell ref="F285:F287"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="D288:D290"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="F288:F290"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="D279:D281"/>
+    <mergeCell ref="E279:E281"/>
+    <mergeCell ref="F279:F281"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="C273:C275"/>
+    <mergeCell ref="D273:D275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="E276:E278"/>
+    <mergeCell ref="F276:F278"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="E267:E269"/>
+    <mergeCell ref="F267:F269"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="D261:D263"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="E258:E260"/>
+    <mergeCell ref="F258:F260"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="E255:E257"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="C249:C251"/>
+    <mergeCell ref="D249:D251"/>
+    <mergeCell ref="E249:E251"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="D252:D254"/>
+    <mergeCell ref="E252:E254"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:D245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="D237:D239"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="D234:D236"/>
+    <mergeCell ref="E234:E236"/>
+    <mergeCell ref="F234:F236"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="F237:F239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="E240:E242"/>
+    <mergeCell ref="F240:F242"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="D231:D233"/>
+    <mergeCell ref="E231:E233"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="D225:D227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="F210:F212"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="F207:F209"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="F201:F203"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="F195:F197"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Modelo_Requerimientos.xlsx
+++ b/Modelo_Requerimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ingenieria de sistemas\Semestre 7\Ingenieria de software y requerimientos\Sistema_de_trasporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0606C6AF-0C39-410C-A9CB-2A88B5487D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD7FB6-4E31-45BA-BE4C-5D08D9E5E146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{7C848075-514C-43BC-9F96-1463922824AC}"/>
+    <workbookView minimized="1" xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{7C848075-514C-43BC-9F96-1463922824AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -647,10 +647,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -665,31 +686,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46C36F4-1D64-4681-865F-275B072A7F86}">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,42 +1022,43 @@
     <col min="5" max="5" width="21.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="54.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="85.77734375" style="4" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2"/>
@@ -1071,13 +1072,13 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1091,7 @@
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1102,25 +1103,25 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="22" t="str">
+      <c r="G3" s="16" t="str">
         <f>+B3&amp;" "&amp;C3&amp;" "&amp;D3&amp;" "&amp;E3&amp;" "&amp;F3</f>
         <v>El usuario cuando entra a la aplicación debera Registrarse para poder interactuar con las funcionalidades de la aplicación</v>
       </c>
@@ -1153,13 +1154,13 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="9">
         <v>30000</v>
       </c>
@@ -1186,13 +1187,13 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="10">
         <f>+H3*H4</f>
         <v>6000</v>
@@ -1226,7 +1227,7 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1244,7 +1245,7 @@
       <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="18" t="str">
         <f>+B6&amp;" "&amp;C6&amp;" "&amp;D6&amp;" "&amp;E6&amp;" "&amp;F6</f>
         <v>El usuario cuando programa un viaje debe realizar el pago para que el sistema le arroje el ticket del viaje envie por email</v>
       </c>
@@ -1275,13 +1276,13 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="9">
         <v>30000</v>
       </c>
@@ -1306,13 +1307,13 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="10">
         <f>+H6*H7</f>
         <v>12000</v>
@@ -1344,25 +1345,25 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="22" t="str">
+      <c r="G9" s="16" t="str">
         <f t="shared" ref="G9" si="0">+B9&amp;" "&amp;C9&amp;" "&amp;D9&amp;" "&amp;E9&amp;" "&amp;F9</f>
         <v>El usuario cuando haya programado un viaje debera  permitirle seleccionar una o varias sillas y el sistema pueda recalcular el valor a pagar</v>
       </c>
@@ -1393,13 +1394,13 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="9">
         <v>30000</v>
       </c>
@@ -1424,13 +1425,13 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="10">
         <f>+H9*H10</f>
         <v>15000</v>
@@ -1462,7 +1463,7 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1480,7 +1481,7 @@
       <c r="F12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="18" t="str">
         <f t="shared" ref="G12" si="2">+B12&amp;" "&amp;C12&amp;" "&amp;D12&amp;" "&amp;E12&amp;" "&amp;F12</f>
         <v>El usuario cuando haya programado un viaje debera permitirle vizualizar el estado del vehiculo y viaje y asi el sistema muestra fotos del vehiculo, nombre del conductor e informacion ademas de la ruta de viaje</v>
       </c>
@@ -1511,13 +1512,13 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="9">
         <v>30000</v>
       </c>
@@ -1542,13 +1543,13 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="10">
         <f>+H12*H13</f>
         <v>60000</v>
@@ -1580,25 +1581,25 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="22" t="str">
+      <c r="G15" s="16" t="str">
         <f t="shared" ref="G15" si="3">+B15&amp;" "&amp;C15&amp;" "&amp;D15&amp;" "&amp;E15&amp;" "&amp;F15</f>
         <v>El usuario cuando haya comprando un viaje debera permitirle cancelar el servicio de viaje y el sistema rebice si esta a tiempo o no y generarle un cobro en caso de que se hay pasado de las fechas establecidas</v>
       </c>
@@ -1629,13 +1630,13 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9">
         <v>30000</v>
       </c>
@@ -1660,13 +1661,13 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="10">
         <f>+H15*H16</f>
         <v>45000</v>
@@ -1698,7 +1699,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1716,7 +1717,7 @@
       <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="18" t="str">
         <f t="shared" ref="G18" si="4">+B18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18</f>
         <v>El usuario cundo haya comprado un viaje debe acumular millas en consecuencia de lo que el sistema calcule del viaje asi sera las millas que acumulara</v>
       </c>
@@ -1747,13 +1748,13 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="9">
         <v>30000</v>
       </c>
@@ -1778,13 +1779,13 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="10">
         <f>+H18*H19</f>
         <v>15000</v>
@@ -1816,25 +1817,25 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="22" t="str">
+      <c r="G21" s="16" t="str">
         <f t="shared" ref="G21" si="5">+B21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21</f>
         <v>El usuario cuando haya comprando un viaje debera permitirle hacer ckeck in virtual y asi tener todo listo para cuando el usuario vaya a la terminal solo mostrar el ticket y subir al transporte</v>
       </c>
@@ -1865,13 +1866,13 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="9">
         <v>30000</v>
       </c>
@@ -1896,13 +1897,13 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="10">
         <f>+H21*H22</f>
         <v>30000</v>
@@ -1934,7 +1935,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1952,7 +1953,7 @@
       <c r="F24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="18" t="str">
         <f t="shared" ref="G24" si="7">+B24&amp;" "&amp;C24&amp;" "&amp;D24&amp;" "&amp;E24&amp;" "&amp;F24</f>
         <v>El usuario cuando compre un viaje debe realizar el pago  y el sistema debera aceptar el pago en en (TC, PSE y PSA, Millas, Nequi, moneda colombiana y venezolana)</v>
       </c>
@@ -1983,13 +1984,13 @@
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="9">
         <v>30000</v>
       </c>
@@ -2014,13 +2015,13 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="10">
         <f>+H24*H25</f>
         <v>75000</v>
@@ -2052,25 +2053,25 @@
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="22" t="str">
+      <c r="G27" s="16" t="str">
         <f t="shared" ref="G27" si="9">+B27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;" "&amp;F27</f>
         <v>El usuario cuando compre un viaje debera poder contratar servicos adicionales entonces el sistema le permitira contratar servicios dentro del bus de trasporte intermunicipal  contactandoese via chat con los encargados</v>
       </c>
@@ -2101,13 +2102,13 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="9">
         <v>30000</v>
       </c>
@@ -2132,13 +2133,13 @@
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="23"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="10">
         <f>+H27*H28</f>
         <v>15000</v>
@@ -2170,7 +2171,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2188,7 +2189,7 @@
       <c r="F30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="18" t="str">
         <f t="shared" ref="G30" si="11">+B30&amp;" "&amp;C30&amp;" "&amp;D30&amp;" "&amp;E30&amp;" "&amp;F30</f>
         <v>El usuario Cuando ingrese a la aplicación debera poder contratar un servicio adicional de trasporte urbano entonces el sistema le permitira al ususario tomar un servicio de trasporte que lo traslade desde un punto a la terminal de trasporte y de la terminal de trasporte de destino a otro punto</v>
       </c>
@@ -2219,13 +2220,13 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="9">
         <v>30000</v>
       </c>
@@ -2250,13 +2251,13 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="10">
         <f>+H30*H31</f>
         <v>120000</v>
@@ -2288,25 +2289,25 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="22" t="str">
+      <c r="G33" s="16" t="str">
         <f t="shared" ref="G33" si="13">+B33&amp;" "&amp;C33&amp;" "&amp;D33&amp;" "&amp;E33&amp;" "&amp;F33</f>
         <v>El usuario cuando tome un servicio de la aplicación debera poder calificar los servicios asi el sistema podra recomendar viajes o servicios posteriormenete</v>
       </c>
@@ -2337,13 +2338,13 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="9">
         <v>30000</v>
       </c>
@@ -2368,13 +2369,13 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="10">
         <f>+H33*H34</f>
         <v>6000</v>
@@ -2406,7 +2407,7 @@
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -2424,7 +2425,7 @@
       <c r="F36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="14" t="str">
+      <c r="G36" s="18" t="str">
         <f t="shared" ref="G36" si="15">+B36&amp;" "&amp;C36&amp;" "&amp;D36&amp;" "&amp;E36&amp;" "&amp;F36</f>
         <v xml:space="preserve">El propietario cuando ponga sus viajes en ventas debe informar del estado del bus con un formulario y a si el sistema pueda mostrar el estado del bus a los clientes </v>
       </c>
@@ -2455,13 +2456,13 @@
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="9">
         <v>30000</v>
       </c>
@@ -2486,13 +2487,13 @@
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="23"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="10">
         <f>+H36*H37</f>
         <v>18000</v>
@@ -2524,25 +2525,25 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="22" t="str">
+      <c r="G39" s="16" t="str">
         <f t="shared" ref="G39" si="17">+B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;E39&amp;" "&amp;F39</f>
         <v>El propietario cuando ponga sus viajes en ventas debe informar de las caracteristicas del viaje (rutas, costos y fecha) y a si el sistema pueda mostrar los viajes a los clientes</v>
       </c>
@@ -2573,13 +2574,13 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="9">
         <v>30000</v>
       </c>
@@ -2604,13 +2605,13 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="10">
         <f>+H39*H40</f>
         <v>30000</v>
@@ -2642,7 +2643,7 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -2660,7 +2661,7 @@
       <c r="F42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="18" t="str">
         <f t="shared" ref="G42" si="19">+B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;E42&amp;" "&amp;F42</f>
         <v>El propietario cuando infroma del estado del bus debera estar pendiendete del mantenimiento peridico del bus entonce el sistema debera avisarle al propietario cada cuanto se debe hacer este mantenimiento</v>
       </c>
@@ -2691,13 +2692,13 @@
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="14"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="9">
         <v>30000</v>
       </c>
@@ -2722,13 +2723,13 @@
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="10">
         <f>+H42*H43</f>
         <v>75000</v>
@@ -2760,25 +2761,25 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="22" t="str">
+      <c r="G45" s="16" t="str">
         <f t="shared" ref="G45" si="21">+B45&amp;" "&amp;C45&amp;" "&amp;D45&amp;" "&amp;E45&amp;" "&amp;F45</f>
         <v>El propietario cuando ingrese a su aplicación debera poder ver las ganancias que a generado  entonces el sistema debera calcular las ganancias con la cantidad de viajes y servicios adicionales que se hayan vendido en su flota</v>
       </c>
@@ -2809,13 +2810,13 @@
       <c r="U45" s="1"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="9">
         <v>30000</v>
       </c>
@@ -2840,13 +2841,13 @@
       <c r="U46" s="1"/>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="23"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="10">
         <f>+H45*H46</f>
         <v>60000</v>
@@ -2881,7 +2882,7 @@
       <c r="U47" s="1"/>
     </row>
     <row r="48" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -2899,7 +2900,7 @@
       <c r="F48" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="18" t="str">
         <f t="shared" ref="G48" si="23">+B48&amp;" "&amp;C48&amp;" "&amp;D48&amp;" "&amp;E48&amp;" "&amp;F48</f>
         <v>El propietario cuando informe del estado del bus debe subir una foto del bus y el sistema poder mostrarle esta foto a los clientes</v>
       </c>
@@ -2933,13 +2934,13 @@
       <c r="U48" s="1"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="9">
         <v>30000</v>
       </c>
@@ -2967,13 +2968,13 @@
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="15"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="10">
         <f>+H48*H49</f>
         <v>6000</v>
@@ -3008,25 +3009,25 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="22" t="str">
+      <c r="G51" s="16" t="str">
         <f t="shared" ref="G51" si="25">+B51&amp;" "&amp;C51&amp;" "&amp;D51&amp;" "&amp;E51&amp;" "&amp;F51</f>
         <v>El propietario cuando cuando ponga sus viajes en venta debe informar de las caracteristica del viaje ( placa, modelo y año) y el sistema debera mostrarle esta informacion a los usuarios</v>
       </c>
@@ -3060,13 +3061,13 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="16"/>
       <c r="H52" s="9">
         <v>30000</v>
       </c>
@@ -3091,13 +3092,13 @@
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="23"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="10">
         <f>+H51*H52</f>
         <v>15000</v>
@@ -3129,7 +3130,7 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -3147,7 +3148,7 @@
       <c r="F54" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="14" t="str">
+      <c r="G54" s="18" t="str">
         <f t="shared" ref="G54" si="27">+B54&amp;" "&amp;C54&amp;" "&amp;D54&amp;" "&amp;E54&amp;" "&amp;F54</f>
         <v>El propietario cuando ponga sus viajes en ventas debe asignar un conductor a su bus y el sistema le asignara este vehiculo al conductor y las rutas que debe hacer.</v>
       </c>
@@ -3178,13 +3179,13 @@
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="9">
         <v>30000</v>
       </c>
@@ -3209,13 +3210,13 @@
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="15"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="10">
         <f>+H54*H55</f>
         <v>30000</v>
@@ -3247,25 +3248,25 @@
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="22" t="str">
+      <c r="G57" s="16" t="str">
         <f t="shared" ref="G57" si="29">+B57&amp;" "&amp;C57&amp;" "&amp;D57&amp;" "&amp;E57&amp;" "&amp;F57</f>
         <v>El conductor Cuando ingresa como conductor de la compañía en la app debe ver los viajes asignados que tiene asi el sistema le mostrar la ruta y fecha de los viajes</v>
       </c>
@@ -3296,13 +3297,13 @@
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="22"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="9">
         <v>30000</v>
       </c>
@@ -3327,13 +3328,13 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="23"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="23"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="10">
         <f>+H57*H58</f>
         <v>15000</v>
@@ -3365,7 +3366,7 @@
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -3383,7 +3384,7 @@
       <c r="F60" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G60" s="14" t="str">
+      <c r="G60" s="18" t="str">
         <f t="shared" ref="G60" si="31">+B60&amp;" "&amp;C60&amp;" "&amp;D60&amp;" "&amp;E60&amp;" "&amp;F60</f>
         <v>El conductor cuando estan entrando los usuarios al bus debe realizar check in a los usuarios, que no lo hayan hehco asi el sistema poder llevar una base de datos del chek in de todo los usuarios</v>
       </c>
@@ -3414,13 +3415,13 @@
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="14"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="9">
         <v>30000</v>
       </c>
@@ -3445,13 +3446,13 @@
       <c r="U61" s="1"/>
     </row>
     <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="15"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="15"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="10">
         <f>+H60*H61</f>
         <v>30000</v>
@@ -3483,25 +3484,25 @@
       <c r="U62" s="1"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="22" t="str">
+      <c r="G63" s="16" t="str">
         <f t="shared" ref="G63" si="33">+B63&amp;" "&amp;C63&amp;" "&amp;D63&amp;" "&amp;E63&amp;" "&amp;F63</f>
         <v>el conductor Cuando ingresa como conductor de la compañía en la app debera poder comunicarce con el centro de operaciones asi el sistema avisara a el centro de operaciones por medio de un boto que oprime el conductor de la situacion actual del viaje</v>
       </c>
@@ -3532,13 +3533,13 @@
       <c r="U63" s="1"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="22"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="16"/>
       <c r="H64" s="9">
         <v>30000</v>
       </c>
@@ -3563,13 +3564,13 @@
       <c r="U64" s="1"/>
     </row>
     <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="23"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="10">
         <f>+H63*H64</f>
         <v>45000</v>
@@ -3601,7 +3602,7 @@
       <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -3619,7 +3620,7 @@
       <c r="F66" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="14" t="str">
+      <c r="G66" s="18" t="str">
         <f t="shared" ref="G66" si="35">+B66&amp;" "&amp;C66&amp;" "&amp;D66&amp;" "&amp;E66&amp;" "&amp;F66</f>
         <v>El conductor cuando ingresa como conductor complementario debe ver los viajes que estan en su zona asi el sistema les muestra los usuarios que an solicitado viajes urbanos en su zona y los conductores deberan aceptarlos</v>
       </c>
@@ -3650,13 +3651,13 @@
       <c r="U66" s="1"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="9">
         <v>30000</v>
       </c>
@@ -3681,13 +3682,13 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="15"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="10">
         <f>+H66*H67</f>
         <v>30000</v>
@@ -3719,25 +3720,25 @@
       <c r="U68" s="1"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="22" t="str">
+      <c r="G69" s="16" t="str">
         <f t="shared" ref="G69" si="37">+B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;E69&amp;" "&amp;F69</f>
         <v>El conductor cuando acepta un viaje complementario debera ver la ruta y fecha asi el sistema les mostrara a que horas debe recoger el usuario donde en caso de que tenga que llevarlo a la terminal  o el destino en caso de que tenga que recogerlo en la terminal</v>
       </c>
@@ -3768,13 +3769,13 @@
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="16"/>
       <c r="H70" s="9">
         <v>30000</v>
       </c>
@@ -3799,13 +3800,13 @@
       <c r="U70" s="1"/>
     </row>
     <row r="71" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="15"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="10">
         <f>+H69*H70</f>
         <v>15000</v>
@@ -3837,7 +3838,7 @@
       <c r="U71" s="1"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -3855,7 +3856,7 @@
       <c r="F72" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G72" s="14" t="str">
+      <c r="G72" s="18" t="str">
         <f t="shared" ref="G72" si="39">+B72&amp;" "&amp;C72&amp;" "&amp;D72&amp;" "&amp;E72&amp;" "&amp;F72</f>
         <v>El conductor cuando acepta un viaje complementario debe ver la tarifa en caso de que el usuario no pague virtual asi el sistema le avisar que debe cobrar ese viaje en efectivo</v>
       </c>
@@ -3886,13 +3887,13 @@
       <c r="U72" s="1"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="14"/>
+      <c r="G73" s="18"/>
       <c r="H73" s="9">
         <v>30000</v>
       </c>
@@ -3917,13 +3918,13 @@
       <c r="U73" s="1"/>
     </row>
     <row r="74" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="15"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="10">
         <f>+H72*H73</f>
         <v>6000</v>
@@ -3955,25 +3956,25 @@
       <c r="U74" s="1"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="22" t="str">
+      <c r="G75" s="16" t="str">
         <f t="shared" ref="G75" si="41">+B75&amp;" "&amp;C75&amp;" "&amp;D75&amp;" "&amp;E75&amp;" "&amp;F75</f>
         <v>El centro de operaciones cuando ingresa a la aplicación debe autenticarse y el sistema le permitira poder acceder a las demas funciones</v>
       </c>
@@ -4004,13 +4005,13 @@
       <c r="U75" s="1"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="22"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="16"/>
       <c r="H76" s="9">
         <v>30000</v>
       </c>
@@ -4035,13 +4036,13 @@
       <c r="U76" s="1"/>
     </row>
     <row r="77" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="23"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="10">
         <f>+H75*H76</f>
         <v>6000</v>
@@ -4073,7 +4074,7 @@
       <c r="U77" s="1"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="12" t="s">
@@ -4091,7 +4092,7 @@
       <c r="F78" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="14" t="str">
+      <c r="G78" s="18" t="str">
         <f t="shared" ref="G78" si="43">+B78&amp;" "&amp;C78&amp;" "&amp;D78&amp;" "&amp;E78&amp;" "&amp;F78</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debe recibir, ver, generar y responder PQR y el sistema genera el debido estado del PQR al que se este aplicando</v>
       </c>
@@ -4122,13 +4123,13 @@
       <c r="U78" s="1"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="14"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="9">
         <v>30000</v>
       </c>
@@ -4153,13 +4154,13 @@
       <c r="U79" s="1"/>
     </row>
     <row r="80" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="15"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="10">
         <f>+H78*H79</f>
         <v>30000</v>
@@ -4191,25 +4192,25 @@
       <c r="U80" s="1"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="22" t="str">
+      <c r="G81" s="16" t="str">
         <f t="shared" ref="G81" si="45">+B81&amp;" "&amp;C81&amp;" "&amp;D81&amp;" "&amp;E81&amp;" "&amp;F81</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debera poder generar ticket a usuarios que compren en la terminal y el sistema debera agregar a estas personas en la base de datos del viaje que acaba de comprar</v>
       </c>
@@ -4240,13 +4241,13 @@
       <c r="U81" s="1"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="16"/>
       <c r="H82" s="9">
         <v>30000</v>
       </c>
@@ -4271,13 +4272,13 @@
       <c r="U82" s="1"/>
     </row>
     <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="23"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="23"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="10">
         <f>+H81*H82</f>
         <v>30000</v>
@@ -4309,7 +4310,7 @@
       <c r="U83" s="1"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -4327,7 +4328,7 @@
       <c r="F84" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="14" t="str">
+      <c r="G84" s="18" t="str">
         <f t="shared" ref="G84" si="47">+B84&amp;" "&amp;C84&amp;" "&amp;D84&amp;" "&amp;E84&amp;" "&amp;F84</f>
         <v>El centro de operaciones cuando se autentica en la aplicación debera poder comunicarce con los conductores y el sistema les informara de las novedades que el centro de operaciones les haya comunicado</v>
       </c>
@@ -4358,13 +4359,13 @@
       <c r="U84" s="1"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="14"/>
+      <c r="G85" s="18"/>
       <c r="H85" s="9">
         <v>30000</v>
       </c>
@@ -4389,13 +4390,13 @@
       <c r="U85" s="1"/>
     </row>
     <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="23"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
-      <c r="G86" s="15"/>
+      <c r="G86" s="19"/>
       <c r="H86" s="10">
         <f>+H84*H85</f>
         <v>45000</v>
@@ -4427,25 +4428,25 @@
       <c r="U86" s="1"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G87" s="22" t="str">
+      <c r="G87" s="16" t="str">
         <f t="shared" ref="G87" si="49">+B87&amp;" "&amp;C87&amp;" "&amp;D87&amp;" "&amp;E87&amp;" "&amp;F87</f>
         <v>El usuario cuando ingresa a la aplicación debera poder programar viajes aereos o maritimos entonces el sistema le mostrara los viajes maritimos y aereos que hay para viajar a determinadas zonas que no se puede acceder con vehiculos de tierra.</v>
       </c>
@@ -4476,13 +4477,13 @@
       <c r="U87" s="1"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="22"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="16"/>
       <c r="H88" s="9">
         <v>30000</v>
       </c>
@@ -4507,13 +4508,13 @@
       <c r="U88" s="1"/>
     </row>
     <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="15"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="23"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="10">
         <f>+H87*H88</f>
         <v>60000</v>
@@ -4551,7 +4552,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="14" t="str">
+      <c r="G90" s="18" t="str">
         <f t="shared" ref="G90" si="51">+B90&amp;" "&amp;C90&amp;" "&amp;D90&amp;" "&amp;E90&amp;" "&amp;F90</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4577,7 +4578,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="18"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4603,7 +4604,7 @@
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
-      <c r="G92" s="15"/>
+      <c r="G92" s="19"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -4620,13 +4621,13 @@
       <c r="U92" s="1"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="22" t="str">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="16" t="str">
         <f t="shared" ref="G93" si="52">+B93&amp;" "&amp;C93&amp;" "&amp;D93&amp;" "&amp;E93&amp;" "&amp;F93</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4646,13 +4647,13 @@
       <c r="U93" s="1"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="22"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4669,13 +4670,13 @@
       <c r="U94" s="1"/>
     </row>
     <row r="95" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="23"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -4698,7 +4699,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="14" t="str">
+      <c r="G96" s="18" t="str">
         <f t="shared" ref="G96" si="53">+B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;E96&amp;" "&amp;F96</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4724,7 +4725,7 @@
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="14"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4747,7 +4748,7 @@
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
-      <c r="G98" s="15"/>
+      <c r="G98" s="19"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -4764,13 +4765,13 @@
       <c r="U98" s="1"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="22" t="str">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="16" t="str">
         <f t="shared" ref="G99" si="54">+B99&amp;" "&amp;C99&amp;" "&amp;D99&amp;" "&amp;E99&amp;" "&amp;F99</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4790,13 +4791,13 @@
       <c r="U99" s="1"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="22"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="16"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4813,13 +4814,13 @@
       <c r="U100" s="1"/>
     </row>
     <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="23"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -4842,7 +4843,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="14" t="str">
+      <c r="G102" s="18" t="str">
         <f t="shared" ref="G102" si="55">+B102&amp;" "&amp;C102&amp;" "&amp;D102&amp;" "&amp;E102&amp;" "&amp;F102</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4868,7 +4869,7 @@
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="14"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4891,7 +4892,7 @@
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="15"/>
+      <c r="G104" s="19"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -4908,13 +4909,13 @@
       <c r="U104" s="1"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="22" t="str">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="16" t="str">
         <f t="shared" ref="G105" si="56">+B105&amp;" "&amp;C105&amp;" "&amp;D105&amp;" "&amp;E105&amp;" "&amp;F105</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -4934,13 +4935,13 @@
       <c r="U105" s="1"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="22"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="16"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4957,13 +4958,13 @@
       <c r="U106" s="1"/>
     </row>
     <row r="107" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="23"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="17"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -4986,7 +4987,7 @@
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="14" t="str">
+      <c r="G108" s="18" t="str">
         <f t="shared" ref="G108" si="57">+B108&amp;" "&amp;C108&amp;" "&amp;D108&amp;" "&amp;E108&amp;" "&amp;F108</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5012,7 +5013,7 @@
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="14"/>
+      <c r="G109" s="18"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5035,7 +5036,7 @@
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
-      <c r="G110" s="15"/>
+      <c r="G110" s="19"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -5052,13 +5053,13 @@
       <c r="U110" s="1"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="22" t="str">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="16" t="str">
         <f t="shared" ref="G111" si="58">+B111&amp;" "&amp;C111&amp;" "&amp;D111&amp;" "&amp;E111&amp;" "&amp;F111</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5078,13 +5079,13 @@
       <c r="U111" s="1"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="22"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="16"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5101,13 +5102,13 @@
       <c r="U112" s="1"/>
     </row>
     <row r="113" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="23"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="17"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -5130,7 +5131,7 @@
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="14" t="str">
+      <c r="G114" s="18" t="str">
         <f t="shared" ref="G114" si="59">+B114&amp;" "&amp;C114&amp;" "&amp;D114&amp;" "&amp;E114&amp;" "&amp;F114</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5156,7 +5157,7 @@
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
-      <c r="G115" s="14"/>
+      <c r="G115" s="18"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5179,7 +5180,7 @@
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
-      <c r="G116" s="15"/>
+      <c r="G116" s="19"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
@@ -5196,13 +5197,13 @@
       <c r="U116" s="1"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="22" t="str">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="16" t="str">
         <f t="shared" ref="G117" si="60">+B117&amp;" "&amp;C117&amp;" "&amp;D117&amp;" "&amp;E117&amp;" "&amp;F117</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5222,13 +5223,13 @@
       <c r="U117" s="1"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="22"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="16"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5245,13 +5246,13 @@
       <c r="U118" s="1"/>
     </row>
     <row r="119" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="23"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="17"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -5274,7 +5275,7 @@
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
-      <c r="G120" s="14" t="str">
+      <c r="G120" s="18" t="str">
         <f t="shared" ref="G120" si="61">+B120&amp;" "&amp;C120&amp;" "&amp;D120&amp;" "&amp;E120&amp;" "&amp;F120</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5300,7 +5301,7 @@
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
-      <c r="G121" s="14"/>
+      <c r="G121" s="18"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5323,7 +5324,7 @@
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="15"/>
+      <c r="G122" s="19"/>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
       <c r="J122" s="10"/>
@@ -5340,13 +5341,13 @@
       <c r="U122" s="1"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="22" t="str">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="16" t="str">
         <f t="shared" ref="G123" si="62">+B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;E123&amp;" "&amp;F123</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5366,13 +5367,13 @@
       <c r="U123" s="1"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="22"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="16"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5389,13 +5390,13 @@
       <c r="U124" s="1"/>
     </row>
     <row r="125" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="23"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="17"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
@@ -5418,7 +5419,7 @@
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="14" t="str">
+      <c r="G126" s="18" t="str">
         <f t="shared" ref="G126" si="63">+B126&amp;" "&amp;C126&amp;" "&amp;D126&amp;" "&amp;E126&amp;" "&amp;F126</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5444,7 +5445,7 @@
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="14"/>
+      <c r="G127" s="18"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5467,7 +5468,7 @@
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
-      <c r="G128" s="15"/>
+      <c r="G128" s="19"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
@@ -5484,13 +5485,13 @@
       <c r="U128" s="1"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="22" t="str">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="16" t="str">
         <f t="shared" ref="G129" si="64">+B129&amp;" "&amp;C129&amp;" "&amp;D129&amp;" "&amp;E129&amp;" "&amp;F129</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5510,13 +5511,13 @@
       <c r="U129" s="1"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="22"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="16"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5533,13 +5534,13 @@
       <c r="U130" s="1"/>
     </row>
     <row r="131" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="23"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="17"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -5562,7 +5563,7 @@
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
-      <c r="G132" s="14" t="str">
+      <c r="G132" s="18" t="str">
         <f t="shared" ref="G132" si="65">+B132&amp;" "&amp;C132&amp;" "&amp;D132&amp;" "&amp;E132&amp;" "&amp;F132</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5588,7 +5589,7 @@
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
-      <c r="G133" s="14"/>
+      <c r="G133" s="18"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5611,7 +5612,7 @@
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="G134" s="15"/>
+      <c r="G134" s="19"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
@@ -5628,13 +5629,13 @@
       <c r="U134" s="1"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="22" t="str">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="16" t="str">
         <f t="shared" ref="G135" si="66">+B135&amp;" "&amp;C135&amp;" "&amp;D135&amp;" "&amp;E135&amp;" "&amp;F135</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5654,13 +5655,13 @@
       <c r="U135" s="1"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="22"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="16"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5677,13 +5678,13 @@
       <c r="U136" s="1"/>
     </row>
     <row r="137" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="21"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="23"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="17"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
@@ -5706,7 +5707,7 @@
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
-      <c r="G138" s="14" t="str">
+      <c r="G138" s="18" t="str">
         <f t="shared" ref="G138" si="67">+B138&amp;" "&amp;C138&amp;" "&amp;D138&amp;" "&amp;E138&amp;" "&amp;F138</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5732,7 +5733,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
-      <c r="G139" s="14"/>
+      <c r="G139" s="18"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -5755,7 +5756,7 @@
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="G140" s="15"/>
+      <c r="G140" s="19"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -5772,13 +5773,13 @@
       <c r="U140" s="1"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="22" t="str">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="16" t="str">
         <f t="shared" ref="G141" si="68">+B141&amp;" "&amp;C141&amp;" "&amp;D141&amp;" "&amp;E141&amp;" "&amp;F141</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5798,13 +5799,13 @@
       <c r="U141" s="1"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="22"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="16"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -5821,13 +5822,13 @@
       <c r="U142" s="1"/>
     </row>
     <row r="143" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="23"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="17"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
       <c r="J143" s="10"/>
@@ -5850,7 +5851,7 @@
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
-      <c r="G144" s="14" t="str">
+      <c r="G144" s="18" t="str">
         <f t="shared" ref="G144" si="69">+B144&amp;" "&amp;C144&amp;" "&amp;D144&amp;" "&amp;E144&amp;" "&amp;F144</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
-      <c r="G145" s="14"/>
+      <c r="G145" s="18"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -5899,7 +5900,7 @@
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
-      <c r="G146" s="15"/>
+      <c r="G146" s="19"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
@@ -5916,13 +5917,13 @@
       <c r="U146" s="1"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="22" t="str">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="16" t="str">
         <f t="shared" ref="G147" si="70">+B147&amp;" "&amp;C147&amp;" "&amp;D147&amp;" "&amp;E147&amp;" "&amp;F147</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -5942,13 +5943,13 @@
       <c r="U147" s="1"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="22"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="16"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -5965,13 +5966,13 @@
       <c r="U148" s="1"/>
     </row>
     <row r="149" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="23"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="17"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
@@ -5994,7 +5995,7 @@
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
-      <c r="G150" s="14" t="str">
+      <c r="G150" s="18" t="str">
         <f t="shared" ref="G150" si="71">+B150&amp;" "&amp;C150&amp;" "&amp;D150&amp;" "&amp;E150&amp;" "&amp;F150</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6020,7 +6021,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
-      <c r="G151" s="14"/>
+      <c r="G151" s="18"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
@@ -6043,7 +6044,7 @@
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
-      <c r="G152" s="15"/>
+      <c r="G152" s="19"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
@@ -6060,13 +6061,13 @@
       <c r="U152" s="1"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="22" t="str">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="16" t="str">
         <f t="shared" ref="G153" si="72">+B153&amp;" "&amp;C153&amp;" "&amp;D153&amp;" "&amp;E153&amp;" "&amp;F153</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6086,13 +6087,13 @@
       <c r="U153" s="1"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="22"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="16"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
@@ -6109,13 +6110,13 @@
       <c r="U154" s="1"/>
     </row>
     <row r="155" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="23"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="17"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
@@ -6138,7 +6139,7 @@
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
-      <c r="G156" s="14" t="str">
+      <c r="G156" s="18" t="str">
         <f t="shared" ref="G156" si="73">+B156&amp;" "&amp;C156&amp;" "&amp;D156&amp;" "&amp;E156&amp;" "&amp;F156</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6164,7 +6165,7 @@
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
-      <c r="G157" s="14"/>
+      <c r="G157" s="18"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -6187,7 +6188,7 @@
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
-      <c r="G158" s="15"/>
+      <c r="G158" s="19"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
       <c r="J158" s="10"/>
@@ -6204,13 +6205,13 @@
       <c r="U158" s="1"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="22" t="str">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="16" t="str">
         <f t="shared" ref="G159" si="74">+B159&amp;" "&amp;C159&amp;" "&amp;D159&amp;" "&amp;E159&amp;" "&amp;F159</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6230,13 +6231,13 @@
       <c r="U159" s="1"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="22"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="16"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
@@ -6253,13 +6254,13 @@
       <c r="U160" s="1"/>
     </row>
     <row r="161" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="23"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="17"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
@@ -6282,7 +6283,7 @@
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
-      <c r="G162" s="14" t="str">
+      <c r="G162" s="18" t="str">
         <f t="shared" ref="G162" si="75">+B162&amp;" "&amp;C162&amp;" "&amp;D162&amp;" "&amp;E162&amp;" "&amp;F162</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6308,7 +6309,7 @@
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
-      <c r="G163" s="14"/>
+      <c r="G163" s="18"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
@@ -6331,7 +6332,7 @@
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
-      <c r="G164" s="15"/>
+      <c r="G164" s="19"/>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
@@ -6348,13 +6349,13 @@
       <c r="U164" s="1"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="22" t="str">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="16" t="str">
         <f t="shared" ref="G165" si="76">+B165&amp;" "&amp;C165&amp;" "&amp;D165&amp;" "&amp;E165&amp;" "&amp;F165</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6374,13 +6375,13 @@
       <c r="U165" s="1"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="22"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
@@ -6397,13 +6398,13 @@
       <c r="U166" s="1"/>
     </row>
     <row r="167" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="23"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="17"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
       <c r="J167" s="10"/>
@@ -6426,7 +6427,7 @@
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
-      <c r="G168" s="14" t="str">
+      <c r="G168" s="18" t="str">
         <f t="shared" ref="G168" si="77">+B168&amp;" "&amp;C168&amp;" "&amp;D168&amp;" "&amp;E168&amp;" "&amp;F168</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6452,7 +6453,7 @@
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
-      <c r="G169" s="14"/>
+      <c r="G169" s="18"/>
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
@@ -6475,7 +6476,7 @@
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
-      <c r="G170" s="15"/>
+      <c r="G170" s="19"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
@@ -6492,13 +6493,13 @@
       <c r="U170" s="1"/>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A171" s="20"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="22" t="str">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="16" t="str">
         <f t="shared" ref="G171" si="78">+B171&amp;" "&amp;C171&amp;" "&amp;D171&amp;" "&amp;E171&amp;" "&amp;F171</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6518,13 +6519,13 @@
       <c r="U171" s="1"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A172" s="20"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="22"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
@@ -6541,13 +6542,13 @@
       <c r="U172" s="1"/>
     </row>
     <row r="173" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="23"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="17"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10"/>
@@ -6570,7 +6571,7 @@
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
-      <c r="G174" s="14" t="str">
+      <c r="G174" s="18" t="str">
         <f t="shared" ref="G174" si="79">+B174&amp;" "&amp;C174&amp;" "&amp;D174&amp;" "&amp;E174&amp;" "&amp;F174</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6596,7 +6597,7 @@
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
-      <c r="G175" s="14"/>
+      <c r="G175" s="18"/>
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
@@ -6619,7 +6620,7 @@
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="15"/>
+      <c r="G176" s="19"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
       <c r="J176" s="10"/>
@@ -6636,13 +6637,13 @@
       <c r="U176" s="1"/>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="22" t="str">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="16" t="str">
         <f t="shared" ref="G177" si="80">+B177&amp;" "&amp;C177&amp;" "&amp;D177&amp;" "&amp;E177&amp;" "&amp;F177</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6662,13 +6663,13 @@
       <c r="U177" s="1"/>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="22"/>
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="16"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
@@ -6685,13 +6686,13 @@
       <c r="U178" s="1"/>
     </row>
     <row r="179" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="21"/>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="21"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="23"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="17"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
       <c r="J179" s="10"/>
@@ -6714,7 +6715,7 @@
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
-      <c r="G180" s="14" t="str">
+      <c r="G180" s="18" t="str">
         <f t="shared" ref="G180" si="81">+B180&amp;" "&amp;C180&amp;" "&amp;D180&amp;" "&amp;E180&amp;" "&amp;F180</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
-      <c r="G181" s="14"/>
+      <c r="G181" s="18"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
@@ -6763,7 +6764,7 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="15"/>
+      <c r="G182" s="19"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -6780,13 +6781,13 @@
       <c r="U182" s="1"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="20"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="22" t="str">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="16" t="str">
         <f t="shared" ref="G183" si="82">+B183&amp;" "&amp;C183&amp;" "&amp;D183&amp;" "&amp;E183&amp;" "&amp;F183</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6806,13 +6807,13 @@
       <c r="U183" s="1"/>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="22"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="16"/>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
@@ -6829,13 +6830,13 @@
       <c r="U184" s="1"/>
     </row>
     <row r="185" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="21"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="21"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="23"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="17"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
@@ -6858,7 +6859,7 @@
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
-      <c r="G186" s="14" t="str">
+      <c r="G186" s="18" t="str">
         <f t="shared" ref="G186" si="83">+B186&amp;" "&amp;C186&amp;" "&amp;D186&amp;" "&amp;E186&amp;" "&amp;F186</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6884,7 +6885,7 @@
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
-      <c r="G187" s="14"/>
+      <c r="G187" s="18"/>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
@@ -6907,7 +6908,7 @@
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
-      <c r="G188" s="15"/>
+      <c r="G188" s="19"/>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -6924,13 +6925,13 @@
       <c r="U188" s="1"/>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A189" s="20"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="22" t="str">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="16" t="str">
         <f t="shared" ref="G189" si="84">+B189&amp;" "&amp;C189&amp;" "&amp;D189&amp;" "&amp;E189&amp;" "&amp;F189</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -6950,13 +6951,13 @@
       <c r="U189" s="1"/>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="20"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="22"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="16"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
@@ -6973,13 +6974,13 @@
       <c r="U190" s="1"/>
     </row>
     <row r="191" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="23"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="17"/>
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
       <c r="J191" s="10"/>
@@ -7002,7 +7003,7 @@
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
-      <c r="G192" s="14" t="str">
+      <c r="G192" s="18" t="str">
         <f t="shared" ref="G192" si="85">+B192&amp;" "&amp;C192&amp;" "&amp;D192&amp;" "&amp;E192&amp;" "&amp;F192</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7028,7 +7029,7 @@
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
-      <c r="G193" s="14"/>
+      <c r="G193" s="18"/>
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
@@ -7051,7 +7052,7 @@
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
-      <c r="G194" s="15"/>
+      <c r="G194" s="19"/>
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
       <c r="J194" s="10"/>
@@ -7068,13 +7069,13 @@
       <c r="U194" s="1"/>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A195" s="20"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="22" t="str">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="16" t="str">
         <f t="shared" ref="G195" si="86">+B195&amp;" "&amp;C195&amp;" "&amp;D195&amp;" "&amp;E195&amp;" "&amp;F195</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7094,13 +7095,13 @@
       <c r="U195" s="1"/>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A196" s="20"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="22"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="16"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
@@ -7117,13 +7118,13 @@
       <c r="U196" s="1"/>
     </row>
     <row r="197" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="21"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="23"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="17"/>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
       <c r="J197" s="10"/>
@@ -7146,7 +7147,7 @@
       <c r="D198" s="12"/>
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
-      <c r="G198" s="14" t="str">
+      <c r="G198" s="18" t="str">
         <f t="shared" ref="G198" si="87">+B198&amp;" "&amp;C198&amp;" "&amp;D198&amp;" "&amp;E198&amp;" "&amp;F198</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7172,7 +7173,7 @@
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
-      <c r="G199" s="14"/>
+      <c r="G199" s="18"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
@@ -7195,7 +7196,7 @@
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
-      <c r="G200" s="15"/>
+      <c r="G200" s="19"/>
       <c r="H200" s="10"/>
       <c r="I200" s="10"/>
       <c r="J200" s="10"/>
@@ -7212,13 +7213,13 @@
       <c r="U200" s="1"/>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="22" t="str">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="16" t="str">
         <f t="shared" ref="G201" si="88">+B201&amp;" "&amp;C201&amp;" "&amp;D201&amp;" "&amp;E201&amp;" "&amp;F201</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7238,13 +7239,13 @@
       <c r="U201" s="1"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A202" s="20"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="20"/>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="22"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="16"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
@@ -7261,13 +7262,13 @@
       <c r="U202" s="1"/>
     </row>
     <row r="203" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="21"/>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="23"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="17"/>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
       <c r="J203" s="10"/>
@@ -7290,7 +7291,7 @@
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
-      <c r="G204" s="14" t="str">
+      <c r="G204" s="18" t="str">
         <f t="shared" ref="G204" si="89">+B204&amp;" "&amp;C204&amp;" "&amp;D204&amp;" "&amp;E204&amp;" "&amp;F204</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7316,7 +7317,7 @@
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
-      <c r="G205" s="14"/>
+      <c r="G205" s="18"/>
       <c r="H205" s="9"/>
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
@@ -7339,7 +7340,7 @@
       <c r="D206" s="13"/>
       <c r="E206" s="13"/>
       <c r="F206" s="13"/>
-      <c r="G206" s="15"/>
+      <c r="G206" s="19"/>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
@@ -7356,13 +7357,13 @@
       <c r="U206" s="1"/>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="20"/>
-      <c r="E207" s="20"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="22" t="str">
+      <c r="A207" s="14"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="16" t="str">
         <f t="shared" ref="G207" si="90">+B207&amp;" "&amp;C207&amp;" "&amp;D207&amp;" "&amp;E207&amp;" "&amp;F207</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7382,13 +7383,13 @@
       <c r="U207" s="1"/>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A208" s="20"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="20"/>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="22"/>
+      <c r="A208" s="14"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="16"/>
       <c r="H208" s="9"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
@@ -7405,13 +7406,13 @@
       <c r="U208" s="1"/>
     </row>
     <row r="209" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="21"/>
-      <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="23"/>
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="17"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
       <c r="J209" s="10"/>
@@ -7434,7 +7435,7 @@
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
-      <c r="G210" s="14" t="str">
+      <c r="G210" s="18" t="str">
         <f t="shared" ref="G210" si="91">+B210&amp;" "&amp;C210&amp;" "&amp;D210&amp;" "&amp;E210&amp;" "&amp;F210</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7460,7 +7461,7 @@
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
-      <c r="G211" s="14"/>
+      <c r="G211" s="18"/>
       <c r="H211" s="9"/>
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
@@ -7483,7 +7484,7 @@
       <c r="D212" s="13"/>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
-      <c r="G212" s="15"/>
+      <c r="G212" s="19"/>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
@@ -7500,13 +7501,13 @@
       <c r="U212" s="1"/>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A213" s="20"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20"/>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="22" t="str">
+      <c r="A213" s="14"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="16" t="str">
         <f>+B213&amp;" "&amp;C213&amp;" "&amp;D213&amp;" "&amp;E213&amp;" "&amp;F213</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7526,13 +7527,13 @@
       <c r="U213" s="1"/>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="22"/>
+      <c r="A214" s="14"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="16"/>
       <c r="H214" s="9"/>
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
@@ -7549,13 +7550,13 @@
       <c r="U214" s="1"/>
     </row>
     <row r="215" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="21"/>
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="21"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="23"/>
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="17"/>
       <c r="H215" s="10"/>
       <c r="I215" s="10"/>
       <c r="J215" s="10"/>
@@ -7578,7 +7579,7 @@
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
-      <c r="G216" s="14" t="str">
+      <c r="G216" s="18" t="str">
         <f>+B216&amp;" "&amp;C216&amp;" "&amp;D216&amp;" "&amp;E216&amp;" "&amp;F216</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7604,7 +7605,7 @@
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
-      <c r="G217" s="14"/>
+      <c r="G217" s="18"/>
       <c r="H217" s="9"/>
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
@@ -7627,7 +7628,7 @@
       <c r="D218" s="13"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
-      <c r="G218" s="15"/>
+      <c r="G218" s="19"/>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
       <c r="J218" s="10"/>
@@ -7644,13 +7645,13 @@
       <c r="U218" s="1"/>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A219" s="20"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="22" t="str">
+      <c r="A219" s="14"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="16" t="str">
         <f t="shared" ref="G219" si="92">+B219&amp;" "&amp;C219&amp;" "&amp;D219&amp;" "&amp;E219&amp;" "&amp;F219</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7670,13 +7671,13 @@
       <c r="U219" s="1"/>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A220" s="20"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="22"/>
+      <c r="A220" s="14"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="16"/>
       <c r="H220" s="9"/>
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
@@ -7693,13 +7694,13 @@
       <c r="U220" s="1"/>
     </row>
     <row r="221" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="21"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="23"/>
+      <c r="A221" s="15"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="17"/>
       <c r="H221" s="10"/>
       <c r="I221" s="10"/>
       <c r="J221" s="10"/>
@@ -7722,7 +7723,7 @@
       <c r="D222" s="12"/>
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
-      <c r="G222" s="14" t="str">
+      <c r="G222" s="18" t="str">
         <f t="shared" ref="G222" si="93">+B222&amp;" "&amp;C222&amp;" "&amp;D222&amp;" "&amp;E222&amp;" "&amp;F222</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7748,7 +7749,7 @@
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
-      <c r="G223" s="14"/>
+      <c r="G223" s="18"/>
       <c r="H223" s="9"/>
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
@@ -7771,7 +7772,7 @@
       <c r="D224" s="13"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
-      <c r="G224" s="15"/>
+      <c r="G224" s="19"/>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
       <c r="J224" s="10"/>
@@ -7788,13 +7789,13 @@
       <c r="U224" s="1"/>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A225" s="20"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="20"/>
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="22" t="str">
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="16" t="str">
         <f t="shared" ref="G225" si="94">+B225&amp;" "&amp;C225&amp;" "&amp;D225&amp;" "&amp;E225&amp;" "&amp;F225</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7814,13 +7815,13 @@
       <c r="U225" s="1"/>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A226" s="20"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="22"/>
+      <c r="A226" s="14"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="16"/>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
@@ -7837,13 +7838,13 @@
       <c r="U226" s="1"/>
     </row>
     <row r="227" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="21"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="23"/>
+      <c r="A227" s="15"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="17"/>
       <c r="H227" s="10"/>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
@@ -7866,7 +7867,7 @@
       <c r="D228" s="12"/>
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
-      <c r="G228" s="14" t="str">
+      <c r="G228" s="18" t="str">
         <f t="shared" ref="G228" si="95">+B228&amp;" "&amp;C228&amp;" "&amp;D228&amp;" "&amp;E228&amp;" "&amp;F228</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7892,7 +7893,7 @@
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
-      <c r="G229" s="14"/>
+      <c r="G229" s="18"/>
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
@@ -7915,7 +7916,7 @@
       <c r="D230" s="13"/>
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
-      <c r="G230" s="15"/>
+      <c r="G230" s="19"/>
       <c r="H230" s="10"/>
       <c r="I230" s="10"/>
       <c r="J230" s="10"/>
@@ -7932,13 +7933,13 @@
       <c r="U230" s="1"/>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="20"/>
-      <c r="E231" s="20"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="22" t="str">
+      <c r="A231" s="14"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="16" t="str">
         <f t="shared" ref="G231" si="96">+B231&amp;" "&amp;C231&amp;" "&amp;D231&amp;" "&amp;E231&amp;" "&amp;F231</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -7958,13 +7959,13 @@
       <c r="U231" s="1"/>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="22"/>
+      <c r="A232" s="14"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="16"/>
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
@@ -7981,13 +7982,13 @@
       <c r="U232" s="1"/>
     </row>
     <row r="233" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="21"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="23"/>
+      <c r="A233" s="15"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="17"/>
       <c r="H233" s="10"/>
       <c r="I233" s="10"/>
       <c r="J233" s="10"/>
@@ -8010,7 +8011,7 @@
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
-      <c r="G234" s="14" t="str">
+      <c r="G234" s="18" t="str">
         <f t="shared" ref="G234" si="97">+B234&amp;" "&amp;C234&amp;" "&amp;D234&amp;" "&amp;E234&amp;" "&amp;F234</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8036,7 +8037,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
-      <c r="G235" s="14"/>
+      <c r="G235" s="18"/>
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
@@ -8059,7 +8060,7 @@
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
-      <c r="G236" s="15"/>
+      <c r="G236" s="19"/>
       <c r="H236" s="10"/>
       <c r="I236" s="10"/>
       <c r="J236" s="10"/>
@@ -8076,13 +8077,13 @@
       <c r="U236" s="1"/>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A237" s="20"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="20"/>
-      <c r="E237" s="20"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="22" t="str">
+      <c r="A237" s="14"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="16" t="str">
         <f>+B237&amp;" "&amp;C237&amp;" "&amp;D237&amp;" "&amp;E237&amp;" "&amp;F237</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8102,13 +8103,13 @@
       <c r="U237" s="1"/>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A238" s="20"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="20"/>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="22"/>
+      <c r="A238" s="14"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="16"/>
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
@@ -8125,13 +8126,13 @@
       <c r="U238" s="1"/>
     </row>
     <row r="239" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="21"/>
-      <c r="B239" s="21"/>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="23"/>
+      <c r="A239" s="15"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="17"/>
       <c r="H239" s="10"/>
       <c r="I239" s="10"/>
       <c r="J239" s="10"/>
@@ -8154,7 +8155,7 @@
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
-      <c r="G240" s="14" t="str">
+      <c r="G240" s="18" t="str">
         <f>+B240&amp;" "&amp;C240&amp;" "&amp;D240&amp;" "&amp;E240&amp;" "&amp;F240</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8180,7 +8181,7 @@
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
-      <c r="G241" s="14"/>
+      <c r="G241" s="18"/>
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
@@ -8203,7 +8204,7 @@
       <c r="D242" s="13"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
-      <c r="G242" s="15"/>
+      <c r="G242" s="19"/>
       <c r="H242" s="10"/>
       <c r="I242" s="10"/>
       <c r="J242" s="10"/>
@@ -8220,13 +8221,13 @@
       <c r="U242" s="1"/>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A243" s="20"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="20"/>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="22" t="str">
+      <c r="A243" s="14"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="16" t="str">
         <f t="shared" ref="G243" si="98">+B243&amp;" "&amp;C243&amp;" "&amp;D243&amp;" "&amp;E243&amp;" "&amp;F243</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8246,13 +8247,13 @@
       <c r="U243" s="1"/>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A244" s="20"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="20"/>
-      <c r="E244" s="20"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="22"/>
+      <c r="A244" s="14"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="16"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
@@ -8269,13 +8270,13 @@
       <c r="U244" s="1"/>
     </row>
     <row r="245" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="21"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="21"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="21"/>
-      <c r="F245" s="21"/>
-      <c r="G245" s="23"/>
+      <c r="A245" s="15"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="17"/>
       <c r="H245" s="10"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
@@ -8298,7 +8299,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
-      <c r="G246" s="14" t="str">
+      <c r="G246" s="18" t="str">
         <f t="shared" ref="G246" si="99">+B246&amp;" "&amp;C246&amp;" "&amp;D246&amp;" "&amp;E246&amp;" "&amp;F246</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8324,7 +8325,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
-      <c r="G247" s="14"/>
+      <c r="G247" s="18"/>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
@@ -8347,7 +8348,7 @@
       <c r="D248" s="13"/>
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
-      <c r="G248" s="15"/>
+      <c r="G248" s="19"/>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
@@ -8364,13 +8365,13 @@
       <c r="U248" s="1"/>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A249" s="20"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="20"/>
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="22" t="str">
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="16" t="str">
         <f t="shared" ref="G249" si="100">+B249&amp;" "&amp;C249&amp;" "&amp;D249&amp;" "&amp;E249&amp;" "&amp;F249</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8390,13 +8391,13 @@
       <c r="U249" s="1"/>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A250" s="20"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="20"/>
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="22"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="16"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
@@ -8413,13 +8414,13 @@
       <c r="U250" s="1"/>
     </row>
     <row r="251" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="21"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="23"/>
+      <c r="A251" s="15"/>
+      <c r="B251" s="15"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="17"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
@@ -8442,7 +8443,7 @@
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
-      <c r="G252" s="14" t="str">
+      <c r="G252" s="18" t="str">
         <f t="shared" ref="G252" si="101">+B252&amp;" "&amp;C252&amp;" "&amp;D252&amp;" "&amp;E252&amp;" "&amp;F252</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8468,7 +8469,7 @@
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
-      <c r="G253" s="14"/>
+      <c r="G253" s="18"/>
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
@@ -8491,7 +8492,7 @@
       <c r="D254" s="13"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
-      <c r="G254" s="15"/>
+      <c r="G254" s="19"/>
       <c r="H254" s="10"/>
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
@@ -8508,13 +8509,13 @@
       <c r="U254" s="1"/>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A255" s="20"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="20"/>
-      <c r="E255" s="20"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="22" t="str">
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="16" t="str">
         <f t="shared" ref="G255" si="102">+B255&amp;" "&amp;C255&amp;" "&amp;D255&amp;" "&amp;E255&amp;" "&amp;F255</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8534,13 +8535,13 @@
       <c r="U255" s="1"/>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A256" s="20"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="22"/>
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="16"/>
       <c r="H256" s="9"/>
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
@@ -8557,13 +8558,13 @@
       <c r="U256" s="1"/>
     </row>
     <row r="257" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="21"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="23"/>
+      <c r="A257" s="15"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="17"/>
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
       <c r="J257" s="10"/>
@@ -8586,7 +8587,7 @@
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
-      <c r="G258" s="14" t="str">
+      <c r="G258" s="18" t="str">
         <f t="shared" ref="G258" si="103">+B258&amp;" "&amp;C258&amp;" "&amp;D258&amp;" "&amp;E258&amp;" "&amp;F258</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8612,7 +8613,7 @@
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
-      <c r="G259" s="14"/>
+      <c r="G259" s="18"/>
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
@@ -8635,7 +8636,7 @@
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
-      <c r="G260" s="15"/>
+      <c r="G260" s="19"/>
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
       <c r="J260" s="10"/>
@@ -8652,13 +8653,13 @@
       <c r="U260" s="1"/>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A261" s="20"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="20"/>
-      <c r="E261" s="20"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="22" t="str">
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="16" t="str">
         <f t="shared" ref="G261" si="104">+B261&amp;" "&amp;C261&amp;" "&amp;D261&amp;" "&amp;E261&amp;" "&amp;F261</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8678,13 +8679,13 @@
       <c r="U261" s="1"/>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A262" s="20"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="20"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="20"/>
-      <c r="G262" s="22"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="16"/>
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
@@ -8701,13 +8702,13 @@
       <c r="U262" s="1"/>
     </row>
     <row r="263" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="21"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="21"/>
-      <c r="D263" s="21"/>
-      <c r="E263" s="21"/>
-      <c r="F263" s="21"/>
-      <c r="G263" s="23"/>
+      <c r="A263" s="15"/>
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="17"/>
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
       <c r="J263" s="10"/>
@@ -8730,7 +8731,7 @@
       <c r="D264" s="12"/>
       <c r="E264" s="12"/>
       <c r="F264" s="12"/>
-      <c r="G264" s="14" t="str">
+      <c r="G264" s="18" t="str">
         <f t="shared" ref="G264" si="105">+B264&amp;" "&amp;C264&amp;" "&amp;D264&amp;" "&amp;E264&amp;" "&amp;F264</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8756,7 +8757,7 @@
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="12"/>
-      <c r="G265" s="14"/>
+      <c r="G265" s="18"/>
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
@@ -8779,7 +8780,7 @@
       <c r="D266" s="13"/>
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
-      <c r="G266" s="15"/>
+      <c r="G266" s="19"/>
       <c r="H266" s="10"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
@@ -8796,13 +8797,13 @@
       <c r="U266" s="1"/>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A267" s="20"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="20"/>
-      <c r="E267" s="20"/>
-      <c r="F267" s="20"/>
-      <c r="G267" s="22" t="str">
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="16" t="str">
         <f t="shared" ref="G267" si="106">+B267&amp;" "&amp;C267&amp;" "&amp;D267&amp;" "&amp;E267&amp;" "&amp;F267</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8822,13 +8823,13 @@
       <c r="U267" s="1"/>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
-      <c r="D268" s="20"/>
-      <c r="E268" s="20"/>
-      <c r="F268" s="20"/>
-      <c r="G268" s="22"/>
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="16"/>
       <c r="H268" s="9"/>
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
@@ -8845,13 +8846,13 @@
       <c r="U268" s="1"/>
     </row>
     <row r="269" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="21"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="21"/>
-      <c r="D269" s="21"/>
-      <c r="E269" s="21"/>
-      <c r="F269" s="21"/>
-      <c r="G269" s="23"/>
+      <c r="A269" s="15"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="17"/>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
@@ -8874,7 +8875,7 @@
       <c r="D270" s="12"/>
       <c r="E270" s="12"/>
       <c r="F270" s="12"/>
-      <c r="G270" s="14" t="str">
+      <c r="G270" s="18" t="str">
         <f t="shared" ref="G270" si="107">+B270&amp;" "&amp;C270&amp;" "&amp;D270&amp;" "&amp;E270&amp;" "&amp;F270</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8900,7 +8901,7 @@
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
       <c r="F271" s="12"/>
-      <c r="G271" s="14"/>
+      <c r="G271" s="18"/>
       <c r="H271" s="9"/>
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
@@ -8923,7 +8924,7 @@
       <c r="D272" s="13"/>
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
-      <c r="G272" s="15"/>
+      <c r="G272" s="19"/>
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
       <c r="J272" s="10"/>
@@ -8940,13 +8941,13 @@
       <c r="U272" s="1"/>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A273" s="20"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="20"/>
-      <c r="E273" s="20"/>
-      <c r="F273" s="20"/>
-      <c r="G273" s="22" t="str">
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="16" t="str">
         <f t="shared" ref="G273" si="108">+B273&amp;" "&amp;C273&amp;" "&amp;D273&amp;" "&amp;E273&amp;" "&amp;F273</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -8966,13 +8967,13 @@
       <c r="U273" s="1"/>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A274" s="20"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="20"/>
-      <c r="D274" s="20"/>
-      <c r="E274" s="20"/>
-      <c r="F274" s="20"/>
-      <c r="G274" s="22"/>
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="16"/>
       <c r="H274" s="9"/>
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
@@ -8989,13 +8990,13 @@
       <c r="U274" s="1"/>
     </row>
     <row r="275" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="21"/>
-      <c r="B275" s="21"/>
-      <c r="C275" s="21"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="21"/>
-      <c r="F275" s="21"/>
-      <c r="G275" s="23"/>
+      <c r="A275" s="15"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="15"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="17"/>
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
       <c r="J275" s="10"/>
@@ -9018,7 +9019,7 @@
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
-      <c r="G276" s="14" t="str">
+      <c r="G276" s="18" t="str">
         <f t="shared" ref="G276" si="109">+B276&amp;" "&amp;C276&amp;" "&amp;D276&amp;" "&amp;E276&amp;" "&amp;F276</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9044,7 +9045,7 @@
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
       <c r="F277" s="12"/>
-      <c r="G277" s="14"/>
+      <c r="G277" s="18"/>
       <c r="H277" s="9"/>
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
@@ -9067,7 +9068,7 @@
       <c r="D278" s="13"/>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
-      <c r="G278" s="15"/>
+      <c r="G278" s="19"/>
       <c r="H278" s="10"/>
       <c r="I278" s="10"/>
       <c r="J278" s="10"/>
@@ -9084,13 +9085,13 @@
       <c r="U278" s="1"/>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A279" s="20"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="20"/>
-      <c r="E279" s="20"/>
-      <c r="F279" s="20"/>
-      <c r="G279" s="22" t="str">
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="16" t="str">
         <f t="shared" ref="G279" si="110">+B279&amp;" "&amp;C279&amp;" "&amp;D279&amp;" "&amp;E279&amp;" "&amp;F279</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9110,13 +9111,13 @@
       <c r="U279" s="1"/>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A280" s="20"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="20"/>
-      <c r="D280" s="20"/>
-      <c r="E280" s="20"/>
-      <c r="F280" s="20"/>
-      <c r="G280" s="22"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="16"/>
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
@@ -9133,13 +9134,13 @@
       <c r="U280" s="1"/>
     </row>
     <row r="281" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="21"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="21"/>
-      <c r="F281" s="21"/>
-      <c r="G281" s="23"/>
+      <c r="A281" s="15"/>
+      <c r="B281" s="15"/>
+      <c r="C281" s="15"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="17"/>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
@@ -9162,7 +9163,7 @@
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
-      <c r="G282" s="14" t="str">
+      <c r="G282" s="18" t="str">
         <f t="shared" ref="G282" si="111">+B282&amp;" "&amp;C282&amp;" "&amp;D282&amp;" "&amp;E282&amp;" "&amp;F282</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9188,7 +9189,7 @@
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
       <c r="F283" s="12"/>
-      <c r="G283" s="14"/>
+      <c r="G283" s="18"/>
       <c r="H283" s="9"/>
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
@@ -9211,7 +9212,7 @@
       <c r="D284" s="13"/>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
-      <c r="G284" s="15"/>
+      <c r="G284" s="19"/>
       <c r="H284" s="10"/>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
@@ -9228,13 +9229,13 @@
       <c r="U284" s="1"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A285" s="20"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="20"/>
-      <c r="E285" s="20"/>
-      <c r="F285" s="20"/>
-      <c r="G285" s="22" t="str">
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="16" t="str">
         <f t="shared" ref="G285" si="112">+B285&amp;" "&amp;C285&amp;" "&amp;D285&amp;" "&amp;E285&amp;" "&amp;F285</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9254,13 +9255,13 @@
       <c r="U285" s="1"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A286" s="20"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="20"/>
-      <c r="D286" s="20"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="20"/>
-      <c r="G286" s="22"/>
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="16"/>
       <c r="H286" s="9"/>
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
@@ -9277,13 +9278,13 @@
       <c r="U286" s="1"/>
     </row>
     <row r="287" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A287" s="21"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="23"/>
+      <c r="A287" s="15"/>
+      <c r="B287" s="15"/>
+      <c r="C287" s="15"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="17"/>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
@@ -9306,7 +9307,7 @@
       <c r="D288" s="12"/>
       <c r="E288" s="12"/>
       <c r="F288" s="12"/>
-      <c r="G288" s="14" t="str">
+      <c r="G288" s="18" t="str">
         <f t="shared" ref="G288" si="113">+B288&amp;" "&amp;C288&amp;" "&amp;D288&amp;" "&amp;E288&amp;" "&amp;F288</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9332,7 +9333,7 @@
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
-      <c r="G289" s="14"/>
+      <c r="G289" s="18"/>
       <c r="H289" s="9"/>
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
@@ -9355,7 +9356,7 @@
       <c r="D290" s="13"/>
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
-      <c r="G290" s="15"/>
+      <c r="G290" s="19"/>
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
       <c r="J290" s="10"/>
@@ -9372,13 +9373,13 @@
       <c r="U290" s="1"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A291" s="20"/>
-      <c r="B291" s="20"/>
-      <c r="C291" s="20"/>
-      <c r="D291" s="20"/>
-      <c r="E291" s="20"/>
-      <c r="F291" s="20"/>
-      <c r="G291" s="22" t="str">
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+      <c r="F291" s="14"/>
+      <c r="G291" s="16" t="str">
         <f t="shared" ref="G291" si="114">+B291&amp;" "&amp;C291&amp;" "&amp;D291&amp;" "&amp;E291&amp;" "&amp;F291</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9398,13 +9399,13 @@
       <c r="U291" s="1"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A292" s="20"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="20"/>
-      <c r="D292" s="20"/>
-      <c r="E292" s="20"/>
-      <c r="F292" s="20"/>
-      <c r="G292" s="22"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="16"/>
       <c r="H292" s="9"/>
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
@@ -9421,13 +9422,13 @@
       <c r="U292" s="1"/>
     </row>
     <row r="293" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="21"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="23"/>
+      <c r="A293" s="15"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="17"/>
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
       <c r="J293" s="10"/>
@@ -9450,7 +9451,7 @@
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
       <c r="F294" s="12"/>
-      <c r="G294" s="14" t="str">
+      <c r="G294" s="18" t="str">
         <f t="shared" ref="G294" si="115">+B294&amp;" "&amp;C294&amp;" "&amp;D294&amp;" "&amp;E294&amp;" "&amp;F294</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9476,7 +9477,7 @@
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
       <c r="F295" s="12"/>
-      <c r="G295" s="14"/>
+      <c r="G295" s="18"/>
       <c r="H295" s="9"/>
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
@@ -9499,7 +9500,7 @@
       <c r="D296" s="13"/>
       <c r="E296" s="13"/>
       <c r="F296" s="13"/>
-      <c r="G296" s="15"/>
+      <c r="G296" s="19"/>
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10"/>
@@ -9516,13 +9517,13 @@
       <c r="U296" s="1"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A297" s="20"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="20"/>
-      <c r="D297" s="20"/>
-      <c r="E297" s="20"/>
-      <c r="F297" s="20"/>
-      <c r="G297" s="22" t="str">
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="16" t="str">
         <f t="shared" ref="G297" si="116">+B297&amp;" "&amp;C297&amp;" "&amp;D297&amp;" "&amp;E297&amp;" "&amp;F297</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9542,13 +9543,13 @@
       <c r="U297" s="1"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A298" s="20"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="20"/>
-      <c r="F298" s="20"/>
-      <c r="G298" s="22"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="16"/>
       <c r="H298" s="9"/>
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
@@ -9565,13 +9566,13 @@
       <c r="U298" s="1"/>
     </row>
     <row r="299" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="21"/>
-      <c r="B299" s="21"/>
-      <c r="C299" s="21"/>
-      <c r="D299" s="21"/>
-      <c r="E299" s="21"/>
-      <c r="F299" s="21"/>
-      <c r="G299" s="23"/>
+      <c r="A299" s="15"/>
+      <c r="B299" s="15"/>
+      <c r="C299" s="15"/>
+      <c r="D299" s="15"/>
+      <c r="E299" s="15"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="17"/>
       <c r="H299" s="10"/>
       <c r="I299" s="10"/>
       <c r="J299" s="10"/>
@@ -9594,7 +9595,7 @@
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
       <c r="F300" s="12"/>
-      <c r="G300" s="14" t="str">
+      <c r="G300" s="18" t="str">
         <f t="shared" ref="G300" si="117">+B300&amp;" "&amp;C300&amp;" "&amp;D300&amp;" "&amp;E300&amp;" "&amp;F300</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9620,7 +9621,7 @@
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
-      <c r="G301" s="14"/>
+      <c r="G301" s="18"/>
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
@@ -9643,7 +9644,7 @@
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
       <c r="F302" s="13"/>
-      <c r="G302" s="15"/>
+      <c r="G302" s="19"/>
       <c r="H302" s="10"/>
       <c r="I302" s="10"/>
       <c r="J302" s="10"/>
@@ -9660,13 +9661,13 @@
       <c r="U302" s="1"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A303" s="20"/>
-      <c r="B303" s="20"/>
-      <c r="C303" s="20"/>
-      <c r="D303" s="20"/>
-      <c r="E303" s="20"/>
-      <c r="F303" s="20"/>
-      <c r="G303" s="22" t="str">
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="16" t="str">
         <f t="shared" ref="G303" si="118">+B303&amp;" "&amp;C303&amp;" "&amp;D303&amp;" "&amp;E303&amp;" "&amp;F303</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9686,13 +9687,13 @@
       <c r="U303" s="1"/>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A304" s="20"/>
-      <c r="B304" s="20"/>
-      <c r="C304" s="20"/>
-      <c r="D304" s="20"/>
-      <c r="E304" s="20"/>
-      <c r="F304" s="20"/>
-      <c r="G304" s="22"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="16"/>
       <c r="H304" s="9"/>
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
@@ -9709,13 +9710,13 @@
       <c r="U304" s="1"/>
     </row>
     <row r="305" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="21"/>
-      <c r="B305" s="21"/>
-      <c r="C305" s="21"/>
-      <c r="D305" s="21"/>
-      <c r="E305" s="21"/>
-      <c r="F305" s="21"/>
-      <c r="G305" s="23"/>
+      <c r="A305" s="15"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="15"/>
+      <c r="D305" s="15"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="15"/>
+      <c r="G305" s="17"/>
       <c r="H305" s="10"/>
       <c r="I305" s="10"/>
       <c r="J305" s="10"/>
@@ -9738,7 +9739,7 @@
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
-      <c r="G306" s="14" t="str">
+      <c r="G306" s="18" t="str">
         <f t="shared" ref="G306" si="119">+B306&amp;" "&amp;C306&amp;" "&amp;D306&amp;" "&amp;E306&amp;" "&amp;F306</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9764,7 +9765,7 @@
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
-      <c r="G307" s="14"/>
+      <c r="G307" s="18"/>
       <c r="H307" s="9"/>
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
@@ -9787,7 +9788,7 @@
       <c r="D308" s="13"/>
       <c r="E308" s="13"/>
       <c r="F308" s="13"/>
-      <c r="G308" s="15"/>
+      <c r="G308" s="19"/>
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
       <c r="J308" s="10"/>
@@ -9804,13 +9805,13 @@
       <c r="U308" s="1"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A309" s="20"/>
-      <c r="B309" s="20"/>
-      <c r="C309" s="20"/>
-      <c r="D309" s="20"/>
-      <c r="E309" s="20"/>
-      <c r="F309" s="20"/>
-      <c r="G309" s="22" t="str">
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="16" t="str">
         <f t="shared" ref="G309" si="120">+B309&amp;" "&amp;C309&amp;" "&amp;D309&amp;" "&amp;E309&amp;" "&amp;F309</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9830,13 +9831,13 @@
       <c r="U309" s="1"/>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A310" s="20"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20"/>
-      <c r="D310" s="20"/>
-      <c r="E310" s="20"/>
-      <c r="F310" s="20"/>
-      <c r="G310" s="22"/>
+      <c r="A310" s="14"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="16"/>
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
@@ -9853,13 +9854,13 @@
       <c r="U310" s="1"/>
     </row>
     <row r="311" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="21"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="21"/>
-      <c r="D311" s="21"/>
-      <c r="E311" s="21"/>
-      <c r="F311" s="21"/>
-      <c r="G311" s="23"/>
+      <c r="A311" s="15"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="15"/>
+      <c r="D311" s="15"/>
+      <c r="E311" s="15"/>
+      <c r="F311" s="15"/>
+      <c r="G311" s="17"/>
       <c r="H311" s="10"/>
       <c r="I311" s="10"/>
       <c r="J311" s="10"/>
@@ -9882,7 +9883,7 @@
       <c r="D312" s="12"/>
       <c r="E312" s="12"/>
       <c r="F312" s="12"/>
-      <c r="G312" s="14" t="str">
+      <c r="G312" s="18" t="str">
         <f t="shared" ref="G312" si="121">+B312&amp;" "&amp;C312&amp;" "&amp;D312&amp;" "&amp;E312&amp;" "&amp;F312</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9908,7 +9909,7 @@
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
-      <c r="G313" s="14"/>
+      <c r="G313" s="18"/>
       <c r="H313" s="9"/>
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
@@ -9931,7 +9932,7 @@
       <c r="D314" s="13"/>
       <c r="E314" s="13"/>
       <c r="F314" s="13"/>
-      <c r="G314" s="15"/>
+      <c r="G314" s="19"/>
       <c r="H314" s="10"/>
       <c r="I314" s="10"/>
       <c r="J314" s="10"/>
@@ -9948,13 +9949,13 @@
       <c r="U314" s="1"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A315" s="20"/>
-      <c r="B315" s="20"/>
-      <c r="C315" s="20"/>
-      <c r="D315" s="20"/>
-      <c r="E315" s="20"/>
-      <c r="F315" s="20"/>
-      <c r="G315" s="22" t="str">
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="16" t="str">
         <f t="shared" ref="G315" si="122">+B315&amp;" "&amp;C315&amp;" "&amp;D315&amp;" "&amp;E315&amp;" "&amp;F315</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -9974,13 +9975,13 @@
       <c r="U315" s="1"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A316" s="20"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="20"/>
-      <c r="D316" s="20"/>
-      <c r="E316" s="20"/>
-      <c r="F316" s="20"/>
-      <c r="G316" s="22"/>
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="16"/>
       <c r="H316" s="9"/>
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
@@ -9997,13 +9998,13 @@
       <c r="U316" s="1"/>
     </row>
     <row r="317" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A317" s="21"/>
-      <c r="B317" s="21"/>
-      <c r="C317" s="21"/>
-      <c r="D317" s="21"/>
-      <c r="E317" s="21"/>
-      <c r="F317" s="21"/>
-      <c r="G317" s="23"/>
+      <c r="A317" s="15"/>
+      <c r="B317" s="15"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="15"/>
+      <c r="E317" s="15"/>
+      <c r="F317" s="15"/>
+      <c r="G317" s="17"/>
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
       <c r="J317" s="10"/>
@@ -10026,7 +10027,7 @@
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
       <c r="F318" s="12"/>
-      <c r="G318" s="14" t="str">
+      <c r="G318" s="18" t="str">
         <f t="shared" ref="G318" si="123">+B318&amp;" "&amp;C318&amp;" "&amp;D318&amp;" "&amp;E318&amp;" "&amp;F318</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10052,7 +10053,7 @@
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
       <c r="F319" s="12"/>
-      <c r="G319" s="14"/>
+      <c r="G319" s="18"/>
       <c r="H319" s="9"/>
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
@@ -10075,7 +10076,7 @@
       <c r="D320" s="13"/>
       <c r="E320" s="13"/>
       <c r="F320" s="13"/>
-      <c r="G320" s="15"/>
+      <c r="G320" s="19"/>
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
       <c r="J320" s="10"/>
@@ -10092,13 +10093,13 @@
       <c r="U320" s="1"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A321" s="20"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="20"/>
-      <c r="D321" s="20"/>
-      <c r="E321" s="20"/>
-      <c r="F321" s="20"/>
-      <c r="G321" s="22" t="str">
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="16" t="str">
         <f t="shared" ref="G321" si="124">+B321&amp;" "&amp;C321&amp;" "&amp;D321&amp;" "&amp;E321&amp;" "&amp;F321</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10118,13 +10119,13 @@
       <c r="U321" s="1"/>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A322" s="20"/>
-      <c r="B322" s="20"/>
-      <c r="C322" s="20"/>
-      <c r="D322" s="20"/>
-      <c r="E322" s="20"/>
-      <c r="F322" s="20"/>
-      <c r="G322" s="22"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="16"/>
       <c r="H322" s="9"/>
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
@@ -10141,13 +10142,13 @@
       <c r="U322" s="1"/>
     </row>
     <row r="323" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="21"/>
-      <c r="B323" s="21"/>
-      <c r="C323" s="21"/>
-      <c r="D323" s="21"/>
-      <c r="E323" s="21"/>
-      <c r="F323" s="21"/>
-      <c r="G323" s="23"/>
+      <c r="A323" s="15"/>
+      <c r="B323" s="15"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="15"/>
+      <c r="E323" s="15"/>
+      <c r="F323" s="15"/>
+      <c r="G323" s="17"/>
       <c r="H323" s="10"/>
       <c r="I323" s="10"/>
       <c r="J323" s="10"/>
@@ -10170,7 +10171,7 @@
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
       <c r="F324" s="12"/>
-      <c r="G324" s="14" t="str">
+      <c r="G324" s="18" t="str">
         <f t="shared" ref="G324" si="125">+B324&amp;" "&amp;C324&amp;" "&amp;D324&amp;" "&amp;E324&amp;" "&amp;F324</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10196,7 +10197,7 @@
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
-      <c r="G325" s="14"/>
+      <c r="G325" s="18"/>
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
@@ -10219,7 +10220,7 @@
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
       <c r="F326" s="13"/>
-      <c r="G326" s="15"/>
+      <c r="G326" s="19"/>
       <c r="H326" s="10"/>
       <c r="I326" s="10"/>
       <c r="J326" s="10"/>
@@ -10236,13 +10237,13 @@
       <c r="U326" s="1"/>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A327" s="20"/>
-      <c r="B327" s="20"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="20"/>
-      <c r="E327" s="20"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="22" t="str">
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+      <c r="F327" s="14"/>
+      <c r="G327" s="16" t="str">
         <f t="shared" ref="G327" si="126">+B327&amp;" "&amp;C327&amp;" "&amp;D327&amp;" "&amp;E327&amp;" "&amp;F327</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10262,13 +10263,13 @@
       <c r="U327" s="1"/>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A328" s="20"/>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
-      <c r="E328" s="20"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="22"/>
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="14"/>
+      <c r="G328" s="16"/>
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
@@ -10285,13 +10286,13 @@
       <c r="U328" s="1"/>
     </row>
     <row r="329" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="21"/>
-      <c r="B329" s="21"/>
-      <c r="C329" s="21"/>
-      <c r="D329" s="21"/>
-      <c r="E329" s="21"/>
-      <c r="F329" s="21"/>
-      <c r="G329" s="23"/>
+      <c r="A329" s="15"/>
+      <c r="B329" s="15"/>
+      <c r="C329" s="15"/>
+      <c r="D329" s="15"/>
+      <c r="E329" s="15"/>
+      <c r="F329" s="15"/>
+      <c r="G329" s="17"/>
       <c r="H329" s="10"/>
       <c r="I329" s="10"/>
       <c r="J329" s="10"/>
@@ -10314,7 +10315,7 @@
       <c r="D330" s="12"/>
       <c r="E330" s="12"/>
       <c r="F330" s="12"/>
-      <c r="G330" s="14" t="str">
+      <c r="G330" s="18" t="str">
         <f t="shared" ref="G330" si="127">+B330&amp;" "&amp;C330&amp;" "&amp;D330&amp;" "&amp;E330&amp;" "&amp;F330</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10340,7 +10341,7 @@
       <c r="D331" s="12"/>
       <c r="E331" s="12"/>
       <c r="F331" s="12"/>
-      <c r="G331" s="14"/>
+      <c r="G331" s="18"/>
       <c r="H331" s="9"/>
       <c r="I331" s="9"/>
       <c r="J331" s="9"/>
@@ -10363,7 +10364,7 @@
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
       <c r="F332" s="13"/>
-      <c r="G332" s="15"/>
+      <c r="G332" s="19"/>
       <c r="H332" s="10"/>
       <c r="I332" s="10"/>
       <c r="J332" s="10"/>
@@ -10380,13 +10381,13 @@
       <c r="U332" s="1"/>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A333" s="20"/>
-      <c r="B333" s="20"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="20"/>
-      <c r="E333" s="20"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="22" t="str">
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="16" t="str">
         <f t="shared" ref="G333" si="128">+B333&amp;" "&amp;C333&amp;" "&amp;D333&amp;" "&amp;E333&amp;" "&amp;F333</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10406,13 +10407,13 @@
       <c r="U333" s="1"/>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A334" s="20"/>
-      <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="20"/>
-      <c r="E334" s="20"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="22"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="16"/>
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
@@ -10429,13 +10430,13 @@
       <c r="U334" s="1"/>
     </row>
     <row r="335" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="21"/>
-      <c r="B335" s="21"/>
-      <c r="C335" s="21"/>
-      <c r="D335" s="21"/>
-      <c r="E335" s="21"/>
-      <c r="F335" s="21"/>
-      <c r="G335" s="23"/>
+      <c r="A335" s="15"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="15"/>
+      <c r="D335" s="15"/>
+      <c r="E335" s="15"/>
+      <c r="F335" s="15"/>
+      <c r="G335" s="17"/>
       <c r="H335" s="10"/>
       <c r="I335" s="10"/>
       <c r="J335" s="10"/>
@@ -10458,7 +10459,7 @@
       <c r="D336" s="12"/>
       <c r="E336" s="12"/>
       <c r="F336" s="12"/>
-      <c r="G336" s="14" t="str">
+      <c r="G336" s="18" t="str">
         <f t="shared" ref="G336" si="129">+B336&amp;" "&amp;C336&amp;" "&amp;D336&amp;" "&amp;E336&amp;" "&amp;F336</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10484,7 +10485,7 @@
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
       <c r="F337" s="12"/>
-      <c r="G337" s="14"/>
+      <c r="G337" s="18"/>
       <c r="H337" s="9"/>
       <c r="I337" s="9"/>
       <c r="J337" s="9"/>
@@ -10507,7 +10508,7 @@
       <c r="D338" s="13"/>
       <c r="E338" s="13"/>
       <c r="F338" s="13"/>
-      <c r="G338" s="15"/>
+      <c r="G338" s="19"/>
       <c r="H338" s="10"/>
       <c r="I338" s="10"/>
       <c r="J338" s="10"/>
@@ -10524,13 +10525,13 @@
       <c r="U338" s="1"/>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A339" s="20"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="20"/>
-      <c r="D339" s="20"/>
-      <c r="E339" s="20"/>
-      <c r="F339" s="20"/>
-      <c r="G339" s="22" t="str">
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="16" t="str">
         <f t="shared" ref="G339" si="130">+B339&amp;" "&amp;C339&amp;" "&amp;D339&amp;" "&amp;E339&amp;" "&amp;F339</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10550,13 +10551,13 @@
       <c r="U339" s="1"/>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A340" s="20"/>
-      <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
-      <c r="D340" s="20"/>
-      <c r="E340" s="20"/>
-      <c r="F340" s="20"/>
-      <c r="G340" s="22"/>
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="16"/>
       <c r="H340" s="9"/>
       <c r="I340" s="9"/>
       <c r="J340" s="9"/>
@@ -10573,13 +10574,13 @@
       <c r="U340" s="1"/>
     </row>
     <row r="341" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A341" s="21"/>
-      <c r="B341" s="21"/>
-      <c r="C341" s="21"/>
-      <c r="D341" s="21"/>
-      <c r="E341" s="21"/>
-      <c r="F341" s="21"/>
-      <c r="G341" s="23"/>
+      <c r="A341" s="15"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="15"/>
+      <c r="D341" s="15"/>
+      <c r="E341" s="15"/>
+      <c r="F341" s="15"/>
+      <c r="G341" s="17"/>
       <c r="H341" s="10"/>
       <c r="I341" s="10"/>
       <c r="J341" s="10"/>
@@ -10602,7 +10603,7 @@
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
-      <c r="G342" s="14" t="str">
+      <c r="G342" s="18" t="str">
         <f t="shared" ref="G342" si="131">+B342&amp;" "&amp;C342&amp;" "&amp;D342&amp;" "&amp;E342&amp;" "&amp;F342</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10628,7 +10629,7 @@
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
       <c r="F343" s="12"/>
-      <c r="G343" s="14"/>
+      <c r="G343" s="18"/>
       <c r="H343" s="9"/>
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
@@ -10651,7 +10652,7 @@
       <c r="D344" s="13"/>
       <c r="E344" s="13"/>
       <c r="F344" s="13"/>
-      <c r="G344" s="15"/>
+      <c r="G344" s="19"/>
       <c r="H344" s="10"/>
       <c r="I344" s="10"/>
       <c r="J344" s="10"/>
@@ -10668,13 +10669,13 @@
       <c r="U344" s="1"/>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A345" s="20"/>
-      <c r="B345" s="20"/>
-      <c r="C345" s="20"/>
-      <c r="D345" s="20"/>
-      <c r="E345" s="20"/>
-      <c r="F345" s="20"/>
-      <c r="G345" s="22" t="str">
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14"/>
+      <c r="E345" s="14"/>
+      <c r="F345" s="14"/>
+      <c r="G345" s="16" t="str">
         <f t="shared" ref="G345" si="132">+B345&amp;" "&amp;C345&amp;" "&amp;D345&amp;" "&amp;E345&amp;" "&amp;F345</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10694,13 +10695,13 @@
       <c r="U345" s="1"/>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A346" s="20"/>
-      <c r="B346" s="20"/>
-      <c r="C346" s="20"/>
-      <c r="D346" s="20"/>
-      <c r="E346" s="20"/>
-      <c r="F346" s="20"/>
-      <c r="G346" s="22"/>
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="14"/>
+      <c r="F346" s="14"/>
+      <c r="G346" s="16"/>
       <c r="H346" s="9"/>
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
@@ -10717,13 +10718,13 @@
       <c r="U346" s="1"/>
     </row>
     <row r="347" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="21"/>
-      <c r="B347" s="21"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
-      <c r="E347" s="21"/>
-      <c r="F347" s="21"/>
-      <c r="G347" s="23"/>
+      <c r="A347" s="15"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="15"/>
+      <c r="D347" s="15"/>
+      <c r="E347" s="15"/>
+      <c r="F347" s="15"/>
+      <c r="G347" s="17"/>
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10"/>
@@ -10746,7 +10747,7 @@
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
       <c r="F348" s="12"/>
-      <c r="G348" s="14" t="str">
+      <c r="G348" s="18" t="str">
         <f t="shared" ref="G348" si="133">+B348&amp;" "&amp;C348&amp;" "&amp;D348&amp;" "&amp;E348&amp;" "&amp;F348</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10772,7 +10773,7 @@
       <c r="D349" s="12"/>
       <c r="E349" s="12"/>
       <c r="F349" s="12"/>
-      <c r="G349" s="14"/>
+      <c r="G349" s="18"/>
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
@@ -10795,7 +10796,7 @@
       <c r="D350" s="13"/>
       <c r="E350" s="13"/>
       <c r="F350" s="13"/>
-      <c r="G350" s="15"/>
+      <c r="G350" s="19"/>
       <c r="H350" s="10"/>
       <c r="I350" s="10"/>
       <c r="J350" s="10"/>
@@ -10812,13 +10813,13 @@
       <c r="U350" s="1"/>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A351" s="20"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="20"/>
-      <c r="D351" s="20"/>
-      <c r="E351" s="20"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="22" t="str">
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="14"/>
+      <c r="G351" s="16" t="str">
         <f t="shared" ref="G351" si="134">+B351&amp;" "&amp;C351&amp;" "&amp;D351&amp;" "&amp;E351&amp;" "&amp;F351</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10838,13 +10839,13 @@
       <c r="U351" s="1"/>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A352" s="20"/>
-      <c r="B352" s="20"/>
-      <c r="C352" s="20"/>
-      <c r="D352" s="20"/>
-      <c r="E352" s="20"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="22"/>
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="14"/>
+      <c r="F352" s="14"/>
+      <c r="G352" s="16"/>
       <c r="H352" s="9"/>
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
@@ -10861,13 +10862,13 @@
       <c r="U352" s="1"/>
     </row>
     <row r="353" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="21"/>
-      <c r="B353" s="21"/>
-      <c r="C353" s="21"/>
-      <c r="D353" s="21"/>
-      <c r="E353" s="21"/>
-      <c r="F353" s="21"/>
-      <c r="G353" s="23"/>
+      <c r="A353" s="15"/>
+      <c r="B353" s="15"/>
+      <c r="C353" s="15"/>
+      <c r="D353" s="15"/>
+      <c r="E353" s="15"/>
+      <c r="F353" s="15"/>
+      <c r="G353" s="17"/>
       <c r="H353" s="10"/>
       <c r="I353" s="10"/>
       <c r="J353" s="10"/>
@@ -10890,7 +10891,7 @@
       <c r="D354" s="12"/>
       <c r="E354" s="12"/>
       <c r="F354" s="12"/>
-      <c r="G354" s="14" t="str">
+      <c r="G354" s="18" t="str">
         <f t="shared" ref="G354" si="135">+B354&amp;" "&amp;C354&amp;" "&amp;D354&amp;" "&amp;E354&amp;" "&amp;F354</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10916,7 +10917,7 @@
       <c r="D355" s="12"/>
       <c r="E355" s="12"/>
       <c r="F355" s="12"/>
-      <c r="G355" s="14"/>
+      <c r="G355" s="18"/>
       <c r="H355" s="9"/>
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
@@ -10939,7 +10940,7 @@
       <c r="D356" s="13"/>
       <c r="E356" s="13"/>
       <c r="F356" s="13"/>
-      <c r="G356" s="15"/>
+      <c r="G356" s="19"/>
       <c r="H356" s="10"/>
       <c r="I356" s="10"/>
       <c r="J356" s="10"/>
@@ -10956,13 +10957,13 @@
       <c r="U356" s="1"/>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A357" s="20"/>
-      <c r="B357" s="20"/>
-      <c r="C357" s="20"/>
-      <c r="D357" s="20"/>
-      <c r="E357" s="20"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="22" t="str">
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="14"/>
+      <c r="G357" s="16" t="str">
         <f t="shared" ref="G357" si="136">+B357&amp;" "&amp;C357&amp;" "&amp;D357&amp;" "&amp;E357&amp;" "&amp;F357</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -10982,13 +10983,13 @@
       <c r="U357" s="1"/>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A358" s="20"/>
-      <c r="B358" s="20"/>
-      <c r="C358" s="20"/>
-      <c r="D358" s="20"/>
-      <c r="E358" s="20"/>
-      <c r="F358" s="20"/>
-      <c r="G358" s="22"/>
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="14"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="16"/>
       <c r="H358" s="9"/>
       <c r="I358" s="9"/>
       <c r="J358" s="9"/>
@@ -11005,13 +11006,13 @@
       <c r="U358" s="1"/>
     </row>
     <row r="359" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="21"/>
-      <c r="B359" s="21"/>
-      <c r="C359" s="21"/>
-      <c r="D359" s="21"/>
-      <c r="E359" s="21"/>
-      <c r="F359" s="21"/>
-      <c r="G359" s="23"/>
+      <c r="A359" s="15"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
+      <c r="D359" s="15"/>
+      <c r="E359" s="15"/>
+      <c r="F359" s="15"/>
+      <c r="G359" s="17"/>
       <c r="H359" s="10"/>
       <c r="I359" s="10"/>
       <c r="J359" s="10"/>
@@ -11034,7 +11035,7 @@
       <c r="D360" s="12"/>
       <c r="E360" s="12"/>
       <c r="F360" s="12"/>
-      <c r="G360" s="14" t="str">
+      <c r="G360" s="18" t="str">
         <f t="shared" ref="G360" si="137">+B360&amp;" "&amp;C360&amp;" "&amp;D360&amp;" "&amp;E360&amp;" "&amp;F360</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11060,7 +11061,7 @@
       <c r="D361" s="12"/>
       <c r="E361" s="12"/>
       <c r="F361" s="12"/>
-      <c r="G361" s="14"/>
+      <c r="G361" s="18"/>
       <c r="H361" s="9"/>
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
@@ -11083,7 +11084,7 @@
       <c r="D362" s="13"/>
       <c r="E362" s="13"/>
       <c r="F362" s="13"/>
-      <c r="G362" s="15"/>
+      <c r="G362" s="19"/>
       <c r="H362" s="10"/>
       <c r="I362" s="10"/>
       <c r="J362" s="10"/>
@@ -11100,13 +11101,13 @@
       <c r="U362" s="1"/>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A363" s="20"/>
-      <c r="B363" s="20"/>
-      <c r="C363" s="20"/>
-      <c r="D363" s="20"/>
-      <c r="E363" s="20"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="22" t="str">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
+      <c r="F363" s="14"/>
+      <c r="G363" s="16" t="str">
         <f t="shared" ref="G363" si="138">+B363&amp;" "&amp;C363&amp;" "&amp;D363&amp;" "&amp;E363&amp;" "&amp;F363</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11126,13 +11127,13 @@
       <c r="U363" s="1"/>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A364" s="20"/>
-      <c r="B364" s="20"/>
-      <c r="C364" s="20"/>
-      <c r="D364" s="20"/>
-      <c r="E364" s="20"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="22"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="16"/>
       <c r="H364" s="9"/>
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
@@ -11149,13 +11150,13 @@
       <c r="U364" s="1"/>
     </row>
     <row r="365" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A365" s="21"/>
-      <c r="B365" s="21"/>
-      <c r="C365" s="21"/>
-      <c r="D365" s="21"/>
-      <c r="E365" s="21"/>
-      <c r="F365" s="21"/>
-      <c r="G365" s="23"/>
+      <c r="A365" s="15"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="15"/>
+      <c r="D365" s="15"/>
+      <c r="E365" s="15"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="17"/>
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
       <c r="J365" s="10"/>
@@ -11178,7 +11179,7 @@
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
       <c r="F366" s="12"/>
-      <c r="G366" s="14" t="str">
+      <c r="G366" s="18" t="str">
         <f t="shared" ref="G366" si="139">+B366&amp;" "&amp;C366&amp;" "&amp;D366&amp;" "&amp;E366&amp;" "&amp;F366</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11204,7 +11205,7 @@
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
       <c r="F367" s="12"/>
-      <c r="G367" s="14"/>
+      <c r="G367" s="18"/>
       <c r="H367" s="9"/>
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
@@ -11227,7 +11228,7 @@
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
       <c r="F368" s="13"/>
-      <c r="G368" s="15"/>
+      <c r="G368" s="19"/>
       <c r="H368" s="10"/>
       <c r="I368" s="10"/>
       <c r="J368" s="10"/>
@@ -11244,13 +11245,13 @@
       <c r="U368" s="1"/>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A369" s="20"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="20"/>
-      <c r="D369" s="20"/>
-      <c r="E369" s="20"/>
-      <c r="F369" s="20"/>
-      <c r="G369" s="22" t="str">
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="14"/>
+      <c r="F369" s="14"/>
+      <c r="G369" s="16" t="str">
         <f t="shared" ref="G369" si="140">+B369&amp;" "&amp;C369&amp;" "&amp;D369&amp;" "&amp;E369&amp;" "&amp;F369</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11270,13 +11271,13 @@
       <c r="U369" s="1"/>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A370" s="20"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="20"/>
-      <c r="D370" s="20"/>
-      <c r="E370" s="20"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="22"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="14"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="16"/>
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
@@ -11293,13 +11294,13 @@
       <c r="U370" s="1"/>
     </row>
     <row r="371" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="21"/>
-      <c r="B371" s="21"/>
-      <c r="C371" s="21"/>
-      <c r="D371" s="21"/>
-      <c r="E371" s="21"/>
-      <c r="F371" s="21"/>
-      <c r="G371" s="23"/>
+      <c r="A371" s="15"/>
+      <c r="B371" s="15"/>
+      <c r="C371" s="15"/>
+      <c r="D371" s="15"/>
+      <c r="E371" s="15"/>
+      <c r="F371" s="15"/>
+      <c r="G371" s="17"/>
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
       <c r="J371" s="10"/>
@@ -11322,7 +11323,7 @@
       <c r="D372" s="12"/>
       <c r="E372" s="12"/>
       <c r="F372" s="12"/>
-      <c r="G372" s="14" t="str">
+      <c r="G372" s="18" t="str">
         <f t="shared" ref="G372" si="141">+B372&amp;" "&amp;C372&amp;" "&amp;D372&amp;" "&amp;E372&amp;" "&amp;F372</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11348,7 +11349,7 @@
       <c r="D373" s="12"/>
       <c r="E373" s="12"/>
       <c r="F373" s="12"/>
-      <c r="G373" s="14"/>
+      <c r="G373" s="18"/>
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
@@ -11371,7 +11372,7 @@
       <c r="D374" s="13"/>
       <c r="E374" s="13"/>
       <c r="F374" s="13"/>
-      <c r="G374" s="15"/>
+      <c r="G374" s="19"/>
       <c r="H374" s="10"/>
       <c r="I374" s="10"/>
       <c r="J374" s="10"/>
@@ -11388,13 +11389,13 @@
       <c r="U374" s="1"/>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A375" s="20"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="20"/>
-      <c r="D375" s="20"/>
-      <c r="E375" s="20"/>
-      <c r="F375" s="20"/>
-      <c r="G375" s="22" t="str">
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="16" t="str">
         <f t="shared" ref="G375" si="142">+B375&amp;" "&amp;C375&amp;" "&amp;D375&amp;" "&amp;E375&amp;" "&amp;F375</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11414,13 +11415,13 @@
       <c r="U375" s="1"/>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A376" s="20"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="20"/>
-      <c r="D376" s="20"/>
-      <c r="E376" s="20"/>
-      <c r="F376" s="20"/>
-      <c r="G376" s="22"/>
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="16"/>
       <c r="H376" s="9"/>
       <c r="I376" s="9"/>
       <c r="J376" s="9"/>
@@ -11437,13 +11438,13 @@
       <c r="U376" s="1"/>
     </row>
     <row r="377" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="21"/>
-      <c r="B377" s="21"/>
-      <c r="C377" s="21"/>
-      <c r="D377" s="21"/>
-      <c r="E377" s="21"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="23"/>
+      <c r="A377" s="15"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="15"/>
+      <c r="D377" s="15"/>
+      <c r="E377" s="15"/>
+      <c r="F377" s="15"/>
+      <c r="G377" s="17"/>
       <c r="H377" s="10"/>
       <c r="I377" s="10"/>
       <c r="J377" s="10"/>
@@ -11466,7 +11467,7 @@
       <c r="D378" s="12"/>
       <c r="E378" s="12"/>
       <c r="F378" s="12"/>
-      <c r="G378" s="14" t="str">
+      <c r="G378" s="18" t="str">
         <f t="shared" ref="G378" si="143">+B378&amp;" "&amp;C378&amp;" "&amp;D378&amp;" "&amp;E378&amp;" "&amp;F378</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11492,7 +11493,7 @@
       <c r="D379" s="12"/>
       <c r="E379" s="12"/>
       <c r="F379" s="12"/>
-      <c r="G379" s="14"/>
+      <c r="G379" s="18"/>
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
@@ -11515,7 +11516,7 @@
       <c r="D380" s="13"/>
       <c r="E380" s="13"/>
       <c r="F380" s="13"/>
-      <c r="G380" s="15"/>
+      <c r="G380" s="19"/>
       <c r="H380" s="10"/>
       <c r="I380" s="10"/>
       <c r="J380" s="10"/>
@@ -11532,13 +11533,13 @@
       <c r="U380" s="1"/>
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A381" s="20"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="20"/>
-      <c r="D381" s="20"/>
-      <c r="E381" s="20"/>
-      <c r="F381" s="20"/>
-      <c r="G381" s="22" t="str">
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="14"/>
+      <c r="F381" s="14"/>
+      <c r="G381" s="16" t="str">
         <f>+B381&amp;" "&amp;C381&amp;" "&amp;D381&amp;" "&amp;E381&amp;" "&amp;F381</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11558,13 +11559,13 @@
       <c r="U381" s="1"/>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A382" s="20"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="20"/>
-      <c r="D382" s="20"/>
-      <c r="E382" s="20"/>
-      <c r="F382" s="20"/>
-      <c r="G382" s="22"/>
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="16"/>
       <c r="H382" s="9"/>
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
@@ -11581,13 +11582,13 @@
       <c r="U382" s="1"/>
     </row>
     <row r="383" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="21"/>
-      <c r="B383" s="21"/>
-      <c r="C383" s="21"/>
-      <c r="D383" s="21"/>
-      <c r="E383" s="21"/>
-      <c r="F383" s="21"/>
-      <c r="G383" s="23"/>
+      <c r="A383" s="15"/>
+      <c r="B383" s="15"/>
+      <c r="C383" s="15"/>
+      <c r="D383" s="15"/>
+      <c r="E383" s="15"/>
+      <c r="F383" s="15"/>
+      <c r="G383" s="17"/>
       <c r="H383" s="10"/>
       <c r="I383" s="10"/>
       <c r="J383" s="10"/>
@@ -11610,7 +11611,7 @@
       <c r="D384" s="12"/>
       <c r="E384" s="12"/>
       <c r="F384" s="12"/>
-      <c r="G384" s="14" t="str">
+      <c r="G384" s="18" t="str">
         <f>+B384&amp;" "&amp;C384&amp;" "&amp;D384&amp;" "&amp;E384&amp;" "&amp;F384</f>
         <v xml:space="preserve">    </v>
       </c>
@@ -11636,7 +11637,7 @@
       <c r="D385" s="12"/>
       <c r="E385" s="12"/>
       <c r="F385" s="12"/>
-      <c r="G385" s="14"/>
+      <c r="G385" s="18"/>
       <c r="H385" s="9"/>
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
@@ -11659,7 +11660,7 @@
       <c r="D386" s="13"/>
       <c r="E386" s="13"/>
       <c r="F386" s="13"/>
-      <c r="G386" s="15"/>
+      <c r="G386" s="19"/>
       <c r="H386" s="10"/>
       <c r="I386" s="10"/>
       <c r="J386" s="10"/>
@@ -11677,147 +11678,746 @@
     </row>
   </sheetData>
   <mergeCells count="905">
-    <mergeCell ref="A378:A380"/>
-    <mergeCell ref="A381:A383"/>
-    <mergeCell ref="A384:A386"/>
-    <mergeCell ref="A351:A353"/>
-    <mergeCell ref="A354:A356"/>
-    <mergeCell ref="A357:A359"/>
-    <mergeCell ref="A360:A362"/>
-    <mergeCell ref="A363:A365"/>
-    <mergeCell ref="A366:A368"/>
-    <mergeCell ref="A369:A371"/>
-    <mergeCell ref="A372:A374"/>
-    <mergeCell ref="A375:A377"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="A327:A329"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="A336:A338"/>
-    <mergeCell ref="A339:A341"/>
-    <mergeCell ref="A342:A344"/>
-    <mergeCell ref="A345:A347"/>
-    <mergeCell ref="A348:A350"/>
-    <mergeCell ref="A297:A299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="A303:A305"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="A318:A320"/>
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B384:B386"/>
-    <mergeCell ref="C384:C386"/>
-    <mergeCell ref="D384:D386"/>
-    <mergeCell ref="E384:E386"/>
-    <mergeCell ref="F384:F386"/>
-    <mergeCell ref="G384:G386"/>
-    <mergeCell ref="B381:B383"/>
-    <mergeCell ref="C381:C383"/>
-    <mergeCell ref="D381:D383"/>
-    <mergeCell ref="E381:E383"/>
-    <mergeCell ref="F381:F383"/>
-    <mergeCell ref="G381:G383"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="G135:G137"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="G132:G134"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="G138:G140"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="G141:G143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="G144:G146"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="G171:G173"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="G168:G170"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="G183:G185"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="G177:G179"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="G186:G188"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="G189:G191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="G192:G194"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="F207:F209"/>
+    <mergeCell ref="G207:G209"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="F201:F203"/>
+    <mergeCell ref="G201:G203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="G204:G206"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="F210:F212"/>
+    <mergeCell ref="G210:G212"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="G213:G215"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="F216:F218"/>
+    <mergeCell ref="G216:G218"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="D231:D233"/>
+    <mergeCell ref="E231:E233"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="G231:G233"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="D225:D227"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="F225:F227"/>
+    <mergeCell ref="G225:G227"/>
+    <mergeCell ref="D234:D236"/>
+    <mergeCell ref="E234:E236"/>
+    <mergeCell ref="F234:F236"/>
+    <mergeCell ref="G234:G236"/>
+    <mergeCell ref="F237:F239"/>
+    <mergeCell ref="G237:G239"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="E240:E242"/>
+    <mergeCell ref="F240:F242"/>
+    <mergeCell ref="G240:G242"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="E255:E257"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="G255:G257"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="C249:C251"/>
+    <mergeCell ref="D249:D251"/>
+    <mergeCell ref="E249:E251"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="G249:G251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="D252:D254"/>
+    <mergeCell ref="E252:E254"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="G252:G254"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="E267:E269"/>
+    <mergeCell ref="F267:F269"/>
+    <mergeCell ref="G267:G269"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="D261:D263"/>
+    <mergeCell ref="E261:E263"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="E258:E260"/>
+    <mergeCell ref="F258:F260"/>
+    <mergeCell ref="G258:G260"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="F261:F263"/>
+    <mergeCell ref="G261:G263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="D264:D266"/>
+    <mergeCell ref="E264:E266"/>
+    <mergeCell ref="F264:F266"/>
+    <mergeCell ref="G264:G266"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="D279:D281"/>
+    <mergeCell ref="E279:E281"/>
+    <mergeCell ref="F279:F281"/>
+    <mergeCell ref="G279:G281"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="C273:C275"/>
+    <mergeCell ref="D273:D275"/>
+    <mergeCell ref="E273:E275"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="E276:E278"/>
+    <mergeCell ref="F276:F278"/>
+    <mergeCell ref="G276:G278"/>
+    <mergeCell ref="F273:F275"/>
+    <mergeCell ref="G273:G275"/>
+    <mergeCell ref="D282:D284"/>
+    <mergeCell ref="E282:E284"/>
+    <mergeCell ref="F282:F284"/>
+    <mergeCell ref="G282:G284"/>
+    <mergeCell ref="F285:F287"/>
+    <mergeCell ref="G285:G287"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="D288:D290"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="F288:F290"/>
+    <mergeCell ref="G288:G290"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="C303:C305"/>
+    <mergeCell ref="D303:D305"/>
+    <mergeCell ref="E303:E305"/>
+    <mergeCell ref="F303:F305"/>
+    <mergeCell ref="G303:G305"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="C297:C299"/>
+    <mergeCell ref="D297:D299"/>
+    <mergeCell ref="E297:E299"/>
+    <mergeCell ref="F297:F299"/>
+    <mergeCell ref="G297:G299"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="F300:F302"/>
+    <mergeCell ref="G300:G302"/>
+    <mergeCell ref="D315:D317"/>
+    <mergeCell ref="E315:E317"/>
+    <mergeCell ref="F315:F317"/>
+    <mergeCell ref="G315:G317"/>
+    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="C309:C311"/>
+    <mergeCell ref="D309:D311"/>
+    <mergeCell ref="E309:E311"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="C306:C308"/>
+    <mergeCell ref="D306:D308"/>
+    <mergeCell ref="E306:E308"/>
+    <mergeCell ref="F306:F308"/>
+    <mergeCell ref="G306:G308"/>
+    <mergeCell ref="B315:B317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="F309:F311"/>
+    <mergeCell ref="G309:G311"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="D312:D314"/>
+    <mergeCell ref="E312:E314"/>
+    <mergeCell ref="F312:F314"/>
+    <mergeCell ref="G312:G314"/>
+    <mergeCell ref="B327:B329"/>
+    <mergeCell ref="C327:C329"/>
+    <mergeCell ref="D327:D329"/>
+    <mergeCell ref="E327:E329"/>
+    <mergeCell ref="F327:F329"/>
+    <mergeCell ref="G327:G329"/>
+    <mergeCell ref="B321:B323"/>
+    <mergeCell ref="C321:C323"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="E321:E323"/>
+    <mergeCell ref="B324:B326"/>
+    <mergeCell ref="C324:C326"/>
+    <mergeCell ref="D324:D326"/>
+    <mergeCell ref="E324:E326"/>
+    <mergeCell ref="F324:F326"/>
+    <mergeCell ref="G324:G326"/>
+    <mergeCell ref="F321:F323"/>
+    <mergeCell ref="G321:G323"/>
+    <mergeCell ref="G330:G332"/>
+    <mergeCell ref="F333:F335"/>
+    <mergeCell ref="G333:G335"/>
+    <mergeCell ref="B336:B338"/>
+    <mergeCell ref="C336:C338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="E336:E338"/>
+    <mergeCell ref="F336:F338"/>
+    <mergeCell ref="G336:G338"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="D333:D335"/>
+    <mergeCell ref="E333:E335"/>
+    <mergeCell ref="B330:B332"/>
+    <mergeCell ref="C330:C332"/>
+    <mergeCell ref="D330:D332"/>
+    <mergeCell ref="E330:E332"/>
+    <mergeCell ref="F330:F332"/>
+    <mergeCell ref="F348:F350"/>
+    <mergeCell ref="G348:G350"/>
+    <mergeCell ref="B351:B353"/>
+    <mergeCell ref="C351:C353"/>
+    <mergeCell ref="D351:D353"/>
+    <mergeCell ref="E351:E353"/>
+    <mergeCell ref="D339:D341"/>
+    <mergeCell ref="E339:E341"/>
+    <mergeCell ref="F339:F341"/>
+    <mergeCell ref="G339:G341"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="E378:E380"/>
+    <mergeCell ref="F378:F380"/>
+    <mergeCell ref="G378:G380"/>
+    <mergeCell ref="B375:B377"/>
+    <mergeCell ref="C375:C377"/>
+    <mergeCell ref="D375:D377"/>
+    <mergeCell ref="E375:E377"/>
+    <mergeCell ref="F375:F377"/>
+    <mergeCell ref="G375:G377"/>
+    <mergeCell ref="G363:G365"/>
+    <mergeCell ref="B357:B359"/>
+    <mergeCell ref="C357:C359"/>
+    <mergeCell ref="D357:D359"/>
+    <mergeCell ref="E357:E359"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="F351:F353"/>
+    <mergeCell ref="G351:G353"/>
+    <mergeCell ref="B345:B347"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="G150:G152"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="G147:G149"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="G174:G176"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="F198:F200"/>
+    <mergeCell ref="G198:G200"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="F195:F197"/>
+    <mergeCell ref="G195:G197"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="F222:F224"/>
+    <mergeCell ref="G222:G224"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="D246:D248"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="F246:F248"/>
+    <mergeCell ref="G246:G248"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D243:D245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="G243:G245"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="D237:D239"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="D270:D272"/>
+    <mergeCell ref="E270:E272"/>
+    <mergeCell ref="F270:F272"/>
+    <mergeCell ref="G270:G272"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="F294:F296"/>
+    <mergeCell ref="G294:G296"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="D291:D293"/>
+    <mergeCell ref="E291:E293"/>
+    <mergeCell ref="F291:F293"/>
+    <mergeCell ref="G291:G293"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="D285:D287"/>
+    <mergeCell ref="E285:E287"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="C282:C284"/>
+    <mergeCell ref="G354:G356"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="E318:E320"/>
+    <mergeCell ref="F318:F320"/>
+    <mergeCell ref="G318:G320"/>
+    <mergeCell ref="B342:B344"/>
+    <mergeCell ref="C342:C344"/>
+    <mergeCell ref="D342:D344"/>
+    <mergeCell ref="E342:E344"/>
+    <mergeCell ref="F342:F344"/>
+    <mergeCell ref="G342:G344"/>
+    <mergeCell ref="B339:B341"/>
+    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="C345:C347"/>
+    <mergeCell ref="D345:D347"/>
+    <mergeCell ref="E345:E347"/>
+    <mergeCell ref="F345:F347"/>
+    <mergeCell ref="G345:G347"/>
+    <mergeCell ref="B348:B350"/>
+    <mergeCell ref="C348:C350"/>
+    <mergeCell ref="D348:D350"/>
+    <mergeCell ref="E348:E350"/>
+    <mergeCell ref="B369:B371"/>
+    <mergeCell ref="C369:C371"/>
+    <mergeCell ref="D369:D371"/>
+    <mergeCell ref="E369:E371"/>
+    <mergeCell ref="B354:B356"/>
+    <mergeCell ref="C354:C356"/>
+    <mergeCell ref="D354:D356"/>
+    <mergeCell ref="E354:E356"/>
+    <mergeCell ref="F354:F356"/>
+    <mergeCell ref="D363:D365"/>
+    <mergeCell ref="E363:E365"/>
+    <mergeCell ref="F363:F365"/>
     <mergeCell ref="B372:B374"/>
     <mergeCell ref="C372:C374"/>
     <mergeCell ref="D372:D374"/>
@@ -11842,746 +12442,147 @@
     <mergeCell ref="C363:C365"/>
     <mergeCell ref="F369:F371"/>
     <mergeCell ref="G369:G371"/>
-    <mergeCell ref="B369:B371"/>
-    <mergeCell ref="C369:C371"/>
-    <mergeCell ref="D369:D371"/>
-    <mergeCell ref="E369:E371"/>
-    <mergeCell ref="B354:B356"/>
-    <mergeCell ref="C354:C356"/>
-    <mergeCell ref="D354:D356"/>
-    <mergeCell ref="E354:E356"/>
-    <mergeCell ref="F354:F356"/>
-    <mergeCell ref="G354:G356"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="E318:E320"/>
-    <mergeCell ref="F318:F320"/>
-    <mergeCell ref="G318:G320"/>
-    <mergeCell ref="B342:B344"/>
-    <mergeCell ref="C342:C344"/>
-    <mergeCell ref="D342:D344"/>
-    <mergeCell ref="E342:E344"/>
-    <mergeCell ref="F342:F344"/>
-    <mergeCell ref="G342:G344"/>
-    <mergeCell ref="B339:B341"/>
-    <mergeCell ref="C339:C341"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="C270:C272"/>
-    <mergeCell ref="D270:D272"/>
-    <mergeCell ref="E270:E272"/>
-    <mergeCell ref="F270:F272"/>
-    <mergeCell ref="G270:G272"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="E294:E296"/>
-    <mergeCell ref="F294:F296"/>
-    <mergeCell ref="G294:G296"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="F222:F224"/>
-    <mergeCell ref="G222:G224"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="D246:D248"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="F246:F248"/>
-    <mergeCell ref="G246:G248"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="G174:G176"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="F198:F200"/>
-    <mergeCell ref="G198:G200"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="G150:G152"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="D363:D365"/>
-    <mergeCell ref="E363:E365"/>
-    <mergeCell ref="F363:F365"/>
-    <mergeCell ref="G363:G365"/>
-    <mergeCell ref="B357:B359"/>
-    <mergeCell ref="C357:C359"/>
-    <mergeCell ref="D357:D359"/>
-    <mergeCell ref="E357:E359"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="E378:E380"/>
-    <mergeCell ref="F378:F380"/>
-    <mergeCell ref="G378:G380"/>
-    <mergeCell ref="B375:B377"/>
-    <mergeCell ref="C375:C377"/>
-    <mergeCell ref="D375:D377"/>
-    <mergeCell ref="E375:E377"/>
-    <mergeCell ref="F375:F377"/>
-    <mergeCell ref="G375:G377"/>
-    <mergeCell ref="F351:F353"/>
-    <mergeCell ref="G351:G353"/>
-    <mergeCell ref="B345:B347"/>
-    <mergeCell ref="C345:C347"/>
-    <mergeCell ref="D345:D347"/>
-    <mergeCell ref="E345:E347"/>
-    <mergeCell ref="F345:F347"/>
-    <mergeCell ref="G345:G347"/>
-    <mergeCell ref="B348:B350"/>
-    <mergeCell ref="C348:C350"/>
-    <mergeCell ref="D348:D350"/>
-    <mergeCell ref="E348:E350"/>
-    <mergeCell ref="F348:F350"/>
-    <mergeCell ref="G348:G350"/>
-    <mergeCell ref="B351:B353"/>
-    <mergeCell ref="C351:C353"/>
-    <mergeCell ref="D351:D353"/>
-    <mergeCell ref="E351:E353"/>
-    <mergeCell ref="D339:D341"/>
-    <mergeCell ref="E339:E341"/>
-    <mergeCell ref="F339:F341"/>
-    <mergeCell ref="G339:G341"/>
-    <mergeCell ref="B333:B335"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="D333:D335"/>
-    <mergeCell ref="E333:E335"/>
-    <mergeCell ref="B330:B332"/>
-    <mergeCell ref="C330:C332"/>
-    <mergeCell ref="D330:D332"/>
-    <mergeCell ref="E330:E332"/>
-    <mergeCell ref="F330:F332"/>
-    <mergeCell ref="G330:G332"/>
-    <mergeCell ref="F333:F335"/>
-    <mergeCell ref="G333:G335"/>
-    <mergeCell ref="B336:B338"/>
-    <mergeCell ref="C336:C338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="E336:E338"/>
-    <mergeCell ref="F336:F338"/>
-    <mergeCell ref="G336:G338"/>
-    <mergeCell ref="B327:B329"/>
-    <mergeCell ref="C327:C329"/>
-    <mergeCell ref="D327:D329"/>
-    <mergeCell ref="E327:E329"/>
-    <mergeCell ref="F327:F329"/>
-    <mergeCell ref="G327:G329"/>
-    <mergeCell ref="B321:B323"/>
-    <mergeCell ref="C321:C323"/>
-    <mergeCell ref="D321:D323"/>
-    <mergeCell ref="E321:E323"/>
-    <mergeCell ref="B324:B326"/>
-    <mergeCell ref="C324:C326"/>
-    <mergeCell ref="D324:D326"/>
-    <mergeCell ref="E324:E326"/>
-    <mergeCell ref="F324:F326"/>
-    <mergeCell ref="G324:G326"/>
-    <mergeCell ref="F321:F323"/>
-    <mergeCell ref="G321:G323"/>
-    <mergeCell ref="D315:D317"/>
-    <mergeCell ref="E315:E317"/>
-    <mergeCell ref="F315:F317"/>
-    <mergeCell ref="G315:G317"/>
-    <mergeCell ref="B309:B311"/>
-    <mergeCell ref="C309:C311"/>
-    <mergeCell ref="D309:D311"/>
-    <mergeCell ref="E309:E311"/>
-    <mergeCell ref="B306:B308"/>
-    <mergeCell ref="C306:C308"/>
-    <mergeCell ref="D306:D308"/>
-    <mergeCell ref="E306:E308"/>
-    <mergeCell ref="F306:F308"/>
-    <mergeCell ref="G306:G308"/>
-    <mergeCell ref="B315:B317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="F309:F311"/>
-    <mergeCell ref="G309:G311"/>
-    <mergeCell ref="B312:B314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="D312:D314"/>
-    <mergeCell ref="E312:E314"/>
-    <mergeCell ref="F312:F314"/>
-    <mergeCell ref="G312:G314"/>
-    <mergeCell ref="B303:B305"/>
-    <mergeCell ref="C303:C305"/>
-    <mergeCell ref="D303:D305"/>
-    <mergeCell ref="E303:E305"/>
-    <mergeCell ref="F303:F305"/>
-    <mergeCell ref="G303:G305"/>
-    <mergeCell ref="B297:B299"/>
-    <mergeCell ref="C297:C299"/>
-    <mergeCell ref="D297:D299"/>
-    <mergeCell ref="E297:E299"/>
-    <mergeCell ref="F297:F299"/>
-    <mergeCell ref="G297:G299"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="C300:C302"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="F300:F302"/>
-    <mergeCell ref="G300:G302"/>
-    <mergeCell ref="D291:D293"/>
-    <mergeCell ref="E291:E293"/>
-    <mergeCell ref="F291:F293"/>
-    <mergeCell ref="G291:G293"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="D285:D287"/>
-    <mergeCell ref="E285:E287"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="C282:C284"/>
-    <mergeCell ref="D282:D284"/>
-    <mergeCell ref="E282:E284"/>
-    <mergeCell ref="F282:F284"/>
-    <mergeCell ref="G282:G284"/>
-    <mergeCell ref="F285:F287"/>
-    <mergeCell ref="G285:G287"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="D288:D290"/>
-    <mergeCell ref="E288:E290"/>
-    <mergeCell ref="F288:F290"/>
-    <mergeCell ref="G288:G290"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="D279:D281"/>
-    <mergeCell ref="E279:E281"/>
-    <mergeCell ref="F279:F281"/>
-    <mergeCell ref="G279:G281"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="C273:C275"/>
-    <mergeCell ref="D273:D275"/>
-    <mergeCell ref="E273:E275"/>
-    <mergeCell ref="B276:B278"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="E276:E278"/>
-    <mergeCell ref="F276:F278"/>
-    <mergeCell ref="G276:G278"/>
-    <mergeCell ref="F273:F275"/>
-    <mergeCell ref="G273:G275"/>
-    <mergeCell ref="D267:D269"/>
-    <mergeCell ref="E267:E269"/>
-    <mergeCell ref="F267:F269"/>
-    <mergeCell ref="G267:G269"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="D261:D263"/>
-    <mergeCell ref="E261:E263"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="E258:E260"/>
-    <mergeCell ref="F258:F260"/>
-    <mergeCell ref="G258:G260"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="F261:F263"/>
-    <mergeCell ref="G261:G263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="D264:D266"/>
-    <mergeCell ref="E264:E266"/>
-    <mergeCell ref="F264:F266"/>
-    <mergeCell ref="G264:G266"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="E255:E257"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="G255:G257"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="C249:C251"/>
-    <mergeCell ref="D249:D251"/>
-    <mergeCell ref="E249:E251"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="G249:G251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="D252:D254"/>
-    <mergeCell ref="E252:E254"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="G252:G254"/>
-    <mergeCell ref="D243:D245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="G243:G245"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="D237:D239"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="D234:D236"/>
-    <mergeCell ref="E234:E236"/>
-    <mergeCell ref="F234:F236"/>
-    <mergeCell ref="G234:G236"/>
-    <mergeCell ref="F237:F239"/>
-    <mergeCell ref="G237:G239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="E240:E242"/>
-    <mergeCell ref="F240:F242"/>
-    <mergeCell ref="G240:G242"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="D231:D233"/>
-    <mergeCell ref="E231:E233"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="G231:G233"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="D225:D227"/>
-    <mergeCell ref="E225:E227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="F225:F227"/>
-    <mergeCell ref="G225:G227"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="F210:F212"/>
-    <mergeCell ref="G210:G212"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="G213:G215"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="F216:F218"/>
-    <mergeCell ref="G216:G218"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="F207:F209"/>
-    <mergeCell ref="G207:G209"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="F201:F203"/>
-    <mergeCell ref="G201:G203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="E204:E206"/>
-    <mergeCell ref="F204:F206"/>
-    <mergeCell ref="G204:G206"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="F195:F197"/>
-    <mergeCell ref="G195:G197"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="G186:G188"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="G189:G191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="G192:G194"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="G183:G185"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="G177:G179"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="G171:G173"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="G165:G167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="G168:G170"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="G147:G149"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="G138:G140"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="G141:G143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="G144:G146"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="G132:G134"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B384:B386"/>
+    <mergeCell ref="C384:C386"/>
+    <mergeCell ref="D384:D386"/>
+    <mergeCell ref="E384:E386"/>
+    <mergeCell ref="F384:F386"/>
+    <mergeCell ref="G384:G386"/>
+    <mergeCell ref="B381:B383"/>
+    <mergeCell ref="C381:C383"/>
+    <mergeCell ref="D381:D383"/>
+    <mergeCell ref="E381:E383"/>
+    <mergeCell ref="F381:F383"/>
+    <mergeCell ref="G381:G383"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="A303:A305"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="A327:A329"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="A333:A335"/>
+    <mergeCell ref="A336:A338"/>
+    <mergeCell ref="A339:A341"/>
+    <mergeCell ref="A342:A344"/>
+    <mergeCell ref="A345:A347"/>
+    <mergeCell ref="A348:A350"/>
+    <mergeCell ref="A378:A380"/>
+    <mergeCell ref="A381:A383"/>
+    <mergeCell ref="A384:A386"/>
+    <mergeCell ref="A351:A353"/>
+    <mergeCell ref="A354:A356"/>
+    <mergeCell ref="A357:A359"/>
+    <mergeCell ref="A360:A362"/>
+    <mergeCell ref="A363:A365"/>
+    <mergeCell ref="A366:A368"/>
+    <mergeCell ref="A369:A371"/>
+    <mergeCell ref="A372:A374"/>
+    <mergeCell ref="A375:A377"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
